--- a/USASwimming/Times For Caroline Suter.xlsx
+++ b/USASwimming/Times For Caroline Suter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="166">
   <si>
     <t>Event</t>
   </si>
@@ -198,6 +198,12 @@
     <t>100 FR</t>
   </si>
   <si>
+    <t>2019 CT RYWC Candlewood Cup</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
     <t>1/5/2019</t>
   </si>
   <si>
@@ -264,6 +270,9 @@
     <t>1/18/2019</t>
   </si>
   <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
     <t>2018 CT Centennial Center Invitatio</t>
   </si>
   <si>
@@ -286,6 +295,9 @@
   </si>
   <si>
     <t>3/1/2019</t>
+  </si>
+  <si>
+    <t>11/8/2019</t>
   </si>
   <si>
     <t>2019 CT OAK Centennial Center Dista</t>
@@ -868,7 +880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1567,22 +1579,22 @@
         <v>57</v>
       </c>
       <c r="B22" s="3">
-        <v>33.500824189814814</v>
+        <v>33.500815393518522</v>
       </c>
       <c r="C22" s="3">
-        <v>33.500824189814814</v>
+        <v>33.500815393518522</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>432</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1591,7 +1603,7 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1599,22 +1611,22 @@
         <v>57</v>
       </c>
       <c r="B23" s="3">
-        <v>33.500884259259259</v>
+        <v>33.500824189814814</v>
       </c>
       <c r="C23" s="3">
-        <v>33.500884259259259</v>
+        <v>33.500824189814814</v>
       </c>
       <c r="D23">
         <v>10</v>
       </c>
       <c r="E23">
-        <v>293</v>
+        <v>432</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1623,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1631,22 +1643,22 @@
         <v>57</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500970486111115</v>
+        <v>33.500884259259259</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500970486111115</v>
+        <v>33.500884259259259</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1655,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1663,22 +1675,22 @@
         <v>57</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500977777777777</v>
+        <v>33.500970486111115</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500977777777777</v>
+        <v>33.500970486111115</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1695,16 +1707,16 @@
         <v>57</v>
       </c>
       <c r="B26" s="3">
-        <v>33.50098784722222</v>
+        <v>33.500977777777777</v>
       </c>
       <c r="C26" s="3">
-        <v>33.50098784722222</v>
+        <v>33.500977777777777</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -1727,16 +1739,16 @@
         <v>57</v>
       </c>
       <c r="B27" s="3">
-        <v>33.500997569444444</v>
+        <v>33.50098784722222</v>
       </c>
       <c r="C27" s="3">
-        <v>33.500997569444444</v>
+        <v>33.50098784722222</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -1759,16 +1771,16 @@
         <v>57</v>
       </c>
       <c r="B28" s="3">
-        <v>33.50102303240741</v>
+        <v>33.500997569444444</v>
       </c>
       <c r="C28" s="3">
-        <v>33.50102303240741</v>
+        <v>33.500997569444444</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -1791,22 +1803,22 @@
         <v>57</v>
       </c>
       <c r="B29" s="3">
-        <v>33.501043287037035</v>
+        <v>33.50102303240741</v>
       </c>
       <c r="C29" s="3">
-        <v>33.501043287037035</v>
+        <v>33.50102303240741</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1815,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1823,22 +1835,22 @@
         <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>33.501067245370372</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="C30" s="3">
-        <v>33.501067245370372</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F30" t="s">
         <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1847,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1855,22 +1867,22 @@
         <v>57</v>
       </c>
       <c r="B31" s="3">
-        <v>33.501091319444441</v>
+        <v>33.501067245370372</v>
       </c>
       <c r="C31" s="3">
-        <v>33.501091319444441</v>
+        <v>33.501067245370372</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1879,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,22 +1899,22 @@
         <v>57</v>
       </c>
       <c r="B32" s="3">
-        <v>33.501093981481482</v>
+        <v>33.501091319444441</v>
       </c>
       <c r="C32" s="3">
-        <v>33.501093981481482</v>
+        <v>33.501091319444441</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
         <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1911,7 +1923,7 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1919,22 +1931,22 @@
         <v>57</v>
       </c>
       <c r="B33" s="3">
-        <v>33.501208449074078</v>
+        <v>33.501093981481482</v>
       </c>
       <c r="C33" s="3">
-        <v>33.501208449074078</v>
+        <v>33.501093981481482</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1943,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1951,10 +1963,10 @@
         <v>57</v>
       </c>
       <c r="B34" s="3">
-        <v>33.50121990740741</v>
+        <v>33.501208449074078</v>
       </c>
       <c r="C34" s="3">
-        <v>33.50121990740741</v>
+        <v>33.501208449074078</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -1966,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1980,57 +1992,57 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="3">
+        <v>33.50121990740741</v>
+      </c>
+      <c r="C35" s="3">
+        <v>33.50121990740741</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="3">
-        <v>33.501679629629628</v>
-      </c>
-      <c r="C35" s="3">
-        <v>33.501679629629628</v>
-      </c>
-      <c r="D35">
-        <v>10</v>
-      </c>
-      <c r="E35">
-        <v>540</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" t="s">
         <v>76</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501776041666666</v>
+        <v>33.501679629629628</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501776041666666</v>
+        <v>33.501679629629628</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
       <c r="E36">
-        <v>416</v>
+        <v>540</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -2044,25 +2056,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="3">
-        <v>33.501849652777778</v>
+        <v>33.501776041666666</v>
       </c>
       <c r="C37" s="3">
-        <v>33.501849652777778</v>
+        <v>33.501776041666666</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37">
-        <v>332</v>
+        <v>416</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -2071,30 +2083,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501904282407409</v>
+        <v>33.501776157407406</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501904282407409</v>
+        <v>33.501776157407406</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2103,30 +2115,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3">
-        <v>33.501958217592595</v>
+        <v>33.501849652777778</v>
       </c>
       <c r="C39" s="3">
-        <v>33.501958217592595</v>
+        <v>33.501849652777778</v>
       </c>
       <c r="D39">
         <v>10</v>
       </c>
       <c r="E39">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2135,30 +2147,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3">
-        <v>33.502043055555554</v>
+        <v>33.501904282407409</v>
       </c>
       <c r="C40" s="3">
-        <v>33.502043055555554</v>
+        <v>33.501904282407409</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2167,30 +2179,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3">
-        <v>33.502131944444443</v>
+        <v>33.501958217592595</v>
       </c>
       <c r="C41" s="3">
-        <v>33.502131944444443</v>
+        <v>33.501958217592595</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2199,30 +2211,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3">
-        <v>33.50223599537037</v>
+        <v>33.502043055555554</v>
       </c>
       <c r="C42" s="3">
-        <v>33.50223599537037</v>
+        <v>33.502043055555554</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>129</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2231,30 +2243,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3">
-        <v>33.502293055555555</v>
+        <v>33.502131944444443</v>
       </c>
       <c r="C43" s="3">
-        <v>33.502293055555555</v>
+        <v>33.502131944444443</v>
       </c>
       <c r="D43">
         <v>9</v>
       </c>
       <c r="E43">
-        <v>94</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
         <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2263,30 +2275,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B44" s="3">
-        <v>33.50444803240741</v>
+        <v>33.50223599537037</v>
       </c>
       <c r="C44" s="3">
-        <v>33.50444803240741</v>
+        <v>33.50223599537037</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>574</v>
+        <v>129</v>
       </c>
       <c r="F44" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2295,30 +2307,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B45" s="3">
-        <v>33.504587962962965</v>
+        <v>33.502293055555555</v>
       </c>
       <c r="C45" s="3">
-        <v>33.504587962962965</v>
+        <v>33.502293055555555</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>502</v>
+        <v>94</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2327,30 +2339,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B46" s="3">
-        <v>33.504602083333332</v>
+        <v>33.50444803240741</v>
       </c>
       <c r="C46" s="3">
-        <v>33.504602083333332</v>
+        <v>33.50444803240741</v>
       </c>
       <c r="D46">
         <v>10</v>
       </c>
       <c r="E46">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2364,22 +2376,22 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B47" s="3">
-        <v>33.504930208333334</v>
+        <v>33.504587962962965</v>
       </c>
       <c r="C47" s="3">
-        <v>33.504930208333334</v>
+        <v>33.504587962962965</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47">
-        <v>345</v>
+        <v>502</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
         <v>88</v>
@@ -2396,25 +2408,25 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3">
-        <v>33.505689699074075</v>
+        <v>33.504602083333332</v>
       </c>
       <c r="C48" s="3">
-        <v>33.505689699074075</v>
+        <v>33.504602083333332</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>207</v>
+        <v>495</v>
       </c>
       <c r="F48" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2428,57 +2440,57 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="3">
+        <v>33.504829513888886</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.504829513888886</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>219</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" t="s">
         <v>91</v>
-      </c>
-      <c r="B49" s="2">
-        <v>33.500457060185184</v>
-      </c>
-      <c r="C49" s="2">
-        <v>36557.500457060189</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>336</v>
-      </c>
-      <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="2">
-        <v>33.500493865740744</v>
-      </c>
-      <c r="C50" s="2">
-        <v>36557.500493865744</v>
+        <v>86</v>
+      </c>
+      <c r="B50" s="3">
+        <v>33.504930208333334</v>
+      </c>
+      <c r="C50" s="3">
+        <v>33.504930208333334</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2492,25 +2504,25 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="2">
-        <v>33.500506134259261</v>
-      </c>
-      <c r="C51" s="2">
-        <v>36557.50050613426</v>
+        <v>86</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33.505689699074075</v>
+      </c>
+      <c r="C51" s="3">
+        <v>33.505689699074075</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F51" t="s">
         <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2519,30 +2531,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2">
-        <v>33.50051087962963</v>
+        <v>33.500457060185184</v>
       </c>
       <c r="C52" s="2">
-        <v>36557.500510879632</v>
+        <v>36557.500457060189</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2551,30 +2563,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2">
-        <v>33.500535648148151</v>
+        <v>33.500493865740744</v>
       </c>
       <c r="C53" s="2">
-        <v>36557.500535648149</v>
+        <v>36557.500493865744</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
       <c r="E53">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2583,30 +2595,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2">
-        <v>33.500547569444443</v>
+        <v>33.500506134259261</v>
       </c>
       <c r="C54" s="2">
-        <v>36557.500547569442</v>
+        <v>36557.50050613426</v>
       </c>
       <c r="D54">
         <v>9</v>
       </c>
       <c r="E54">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2615,30 +2627,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2">
-        <v>33.500567592592596</v>
+        <v>33.50051087962963</v>
       </c>
       <c r="C55" s="2">
-        <v>36557.500567592593</v>
+        <v>36557.500510879632</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2647,30 +2659,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2">
-        <v>33.500584259259256</v>
+        <v>33.500535648148151</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.500584259258</v>
+        <v>36557.500535648149</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2679,30 +2691,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2">
-        <v>33.500597685185184</v>
+        <v>33.500547569444443</v>
       </c>
       <c r="C57" s="2">
-        <v>36557.500597685183</v>
+        <v>36557.500547569442</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2711,30 +2723,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2">
-        <v>33.500634606481484</v>
+        <v>33.500567592592596</v>
       </c>
       <c r="C58" s="2">
-        <v>36557.500634606484</v>
+        <v>36557.500567592593</v>
       </c>
       <c r="D58">
         <v>8</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2743,30 +2755,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2">
-        <v>33.500665046296298</v>
+        <v>33.500584259259256</v>
       </c>
       <c r="C59" s="2">
-        <v>36557.500665046296</v>
+        <v>36557.500584259258</v>
       </c>
       <c r="D59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2775,30 +2787,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="3">
-        <v>33.501153472222221</v>
-      </c>
-      <c r="C60" s="3">
-        <v>33.501153472222221</v>
+        <v>95</v>
+      </c>
+      <c r="B60" s="2">
+        <v>33.500597685185184</v>
+      </c>
+      <c r="C60" s="2">
+        <v>36557.500597685183</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2807,30 +2819,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="3">
-        <v>33.501244675925925</v>
-      </c>
-      <c r="C61" s="3">
-        <v>33.501244675925925</v>
+        <v>95</v>
+      </c>
+      <c r="B61" s="2">
+        <v>33.500634606481484</v>
+      </c>
+      <c r="C61" s="2">
+        <v>36557.500634606484</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2839,30 +2851,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500489120370368</v>
+        <v>33.500665046296298</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500489120372</v>
+        <v>36557.500665046296</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E62">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2871,30 +2883,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>96</v>
-      </c>
-      <c r="B63" s="2">
-        <v>33.500517013888889</v>
-      </c>
-      <c r="C63" s="2">
-        <v>36557.50051701389</v>
+        <v>98</v>
+      </c>
+      <c r="B63" s="3">
+        <v>33.501153472222221</v>
+      </c>
+      <c r="C63" s="3">
+        <v>33.501153472222221</v>
       </c>
       <c r="D63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2903,30 +2915,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="3">
+        <v>33.501244675925925</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33.501244675925925</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
         <v>96</v>
       </c>
-      <c r="B64" s="2">
-        <v>33.500535879629631</v>
-      </c>
-      <c r="C64" s="2">
-        <v>36557.500535879626</v>
-      </c>
-      <c r="D64">
-        <v>10</v>
-      </c>
-      <c r="E64">
-        <v>280</v>
-      </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2935,30 +2947,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2">
-        <v>33.500549189814812</v>
+        <v>33.500489120370368</v>
       </c>
       <c r="C65" s="2">
-        <v>36557.500549189812</v>
+        <v>36557.500489120372</v>
       </c>
       <c r="D65">
         <v>10</v>
       </c>
       <c r="E65">
-        <v>236</v>
+        <v>451</v>
       </c>
       <c r="F65" t="s">
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2967,30 +2979,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2">
-        <v>33.500551041666668</v>
+        <v>33.500497569444441</v>
       </c>
       <c r="C66" s="2">
-        <v>36557.500551041667</v>
+        <v>36557.500497569446</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E66">
-        <v>390</v>
+        <v>282</v>
       </c>
       <c r="F66" t="s">
         <v>28</v>
       </c>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2999,30 +3011,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500573495370368</v>
+        <v>33.500517013888889</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.500573495374</v>
+        <v>36557.50051701389</v>
       </c>
       <c r="D67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="F67" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -3031,30 +3043,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2">
-        <v>33.500586805555557</v>
+        <v>33.500535879629631</v>
       </c>
       <c r="C68" s="2">
-        <v>36557.500586805552</v>
+        <v>36557.500535879626</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -3063,30 +3075,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2">
-        <v>33.500610300925928</v>
+        <v>33.500549189814812</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.500610300929</v>
+        <v>36557.500549189812</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -3095,30 +3107,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2">
-        <v>33.500645254629632</v>
+        <v>33.500551041666668</v>
       </c>
       <c r="C70" s="2">
-        <v>36557.500645254629</v>
+        <v>36557.500551041667</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E70">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3127,30 +3139,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2">
-        <v>33.500646875000001</v>
+        <v>33.500573495370368</v>
       </c>
       <c r="C71" s="2">
-        <v>36557.500646875</v>
+        <v>36557.500573495374</v>
       </c>
       <c r="D71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>107</v>
+        <v>315</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3159,30 +3171,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
-      </c>
-      <c r="B72" s="3">
-        <v>33.500740624999999</v>
-      </c>
-      <c r="C72" s="3">
-        <v>33.500740624999999</v>
+        <v>100</v>
+      </c>
+      <c r="B72" s="2">
+        <v>33.500586805555557</v>
+      </c>
+      <c r="C72" s="2">
+        <v>36557.500586805552</v>
       </c>
       <c r="D72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3191,30 +3203,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="3">
-        <v>33.500785416666666</v>
-      </c>
-      <c r="C73" s="3">
-        <v>33.500785416666666</v>
+        <v>100</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33.500610300925928</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36557.500610300929</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3223,30 +3235,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="3">
-        <v>33.501075231481479</v>
-      </c>
-      <c r="C74" s="3">
-        <v>33.501075231481479</v>
+        <v>100</v>
+      </c>
+      <c r="B74" s="2">
+        <v>33.500645254629632</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36557.500645254629</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>444</v>
+        <v>111</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3255,30 +3267,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="3">
-        <v>33.501084490740737</v>
-      </c>
-      <c r="C75" s="3">
-        <v>33.501084490740737</v>
+        <v>100</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.500646875000001</v>
+      </c>
+      <c r="C75" s="2">
+        <v>36557.500646875</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>427</v>
+        <v>107</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3287,30 +3299,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B76" s="3">
-        <v>33.501115740740744</v>
+        <v>33.500740624999999</v>
       </c>
       <c r="C76" s="3">
-        <v>33.501115740740744</v>
+        <v>33.500740624999999</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>374</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3319,30 +3331,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B77" s="3">
-        <v>33.501129629629631</v>
+        <v>33.500785416666666</v>
       </c>
       <c r="C77" s="3">
-        <v>33.501129629629631</v>
+        <v>33.500785416666666</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3351,30 +3363,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B78" s="3">
-        <v>33.501140393518519</v>
+        <v>33.501052083333335</v>
       </c>
       <c r="C78" s="3">
-        <v>33.501140393518519</v>
+        <v>33.501052083333335</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3383,30 +3395,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B79" s="3">
-        <v>33.501201388888887</v>
+        <v>33.501075231481479</v>
       </c>
       <c r="C79" s="3">
-        <v>33.501201388888887</v>
+        <v>33.501075231481479</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
       </c>
       <c r="G79" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3415,30 +3427,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B80" s="3">
-        <v>33.501271412037035</v>
+        <v>33.501084490740737</v>
       </c>
       <c r="C80" s="3">
-        <v>33.501271412037035</v>
+        <v>33.501084490740737</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>299</v>
+        <v>427</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3447,62 +3459,62 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B81" s="3">
-        <v>33.501296643518522</v>
+        <v>33.501115740740744</v>
       </c>
       <c r="C81" s="3">
-        <v>33.501296643518522</v>
+        <v>33.501115740740744</v>
       </c>
       <c r="D81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" t="s">
         <v>60</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B82" s="3">
-        <v>33.501410069444447</v>
+        <v>33.501129629629631</v>
       </c>
       <c r="C82" s="3">
-        <v>33.501410069444447</v>
+        <v>33.501129629629631</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3511,30 +3523,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B83" s="3">
-        <v>33.501443055555555</v>
+        <v>33.501140393518519</v>
       </c>
       <c r="C83" s="3">
-        <v>33.501443055555555</v>
+        <v>33.501140393518519</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E83">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G83" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3543,30 +3555,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="2">
-        <v>33.500384259259256</v>
-      </c>
-      <c r="C84" s="2">
-        <v>36557.500384259256</v>
+        <v>101</v>
+      </c>
+      <c r="B84" s="3">
+        <v>33.501201388888887</v>
+      </c>
+      <c r="C84" s="3">
+        <v>33.501201388888887</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>622</v>
+        <v>405</v>
       </c>
       <c r="F84" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3575,30 +3587,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" s="2">
-        <v>33.500387847222221</v>
-      </c>
-      <c r="C85" s="2">
-        <v>36557.50038784722</v>
+        <v>101</v>
+      </c>
+      <c r="B85" s="3">
+        <v>33.501271412037035</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.501271412037035</v>
       </c>
       <c r="D85">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>605</v>
+        <v>299</v>
       </c>
       <c r="F85" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3607,30 +3619,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" s="2">
-        <v>33.500399421296294</v>
-      </c>
-      <c r="C86" s="2">
-        <v>36557.500399421297</v>
+        <v>101</v>
+      </c>
+      <c r="B86" s="3">
+        <v>33.501296643518522</v>
+      </c>
+      <c r="C86" s="3">
+        <v>33.501296643518522</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E86">
-        <v>551</v>
+        <v>264</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3639,30 +3651,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" s="2">
-        <v>33.500424652777781</v>
-      </c>
-      <c r="C87" s="2">
-        <v>36557.500424652775</v>
+        <v>101</v>
+      </c>
+      <c r="B87" s="3">
+        <v>33.501410069444447</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.501410069444447</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87">
-        <v>439</v>
+        <v>120</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3671,30 +3683,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" s="2">
-        <v>33.50042928240741</v>
-      </c>
-      <c r="C88" s="2">
-        <v>36557.500429282409</v>
+        <v>101</v>
+      </c>
+      <c r="B88" s="3">
+        <v>33.501443055555555</v>
+      </c>
+      <c r="C88" s="3">
+        <v>33.501443055555555</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E88">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3703,30 +3715,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2">
-        <v>33.500433564814813</v>
+        <v>33.500384259259256</v>
       </c>
       <c r="C89" s="2">
-        <v>36557.500433564812</v>
+        <v>36557.500384259256</v>
       </c>
       <c r="D89">
         <v>10</v>
       </c>
       <c r="E89">
-        <v>402</v>
+        <v>622</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3735,30 +3747,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2">
-        <v>33.500434374999998</v>
+        <v>33.500387847222221</v>
       </c>
       <c r="C90" s="2">
-        <v>36557.500434374997</v>
+        <v>36557.50038784722</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90">
-        <v>534</v>
+        <v>605</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3767,30 +3779,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2">
-        <v>33.50044583333333</v>
+        <v>33.500399421296294</v>
       </c>
       <c r="C91" s="2">
-        <v>36557.500445833335</v>
+        <v>36557.500399421297</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3799,30 +3811,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2">
-        <v>33.500455208333335</v>
+        <v>33.500424652777781</v>
       </c>
       <c r="C92" s="2">
-        <v>36557.500455208334</v>
+        <v>36557.500424652775</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F92" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3831,30 +3843,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2">
-        <v>33.500455671296294</v>
+        <v>33.50042627314815</v>
       </c>
       <c r="C93" s="2">
-        <v>36557.500455671296</v>
+        <v>36557.500426273145</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3863,30 +3875,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2">
-        <v>33.500464236111114</v>
+        <v>33.50042928240741</v>
       </c>
       <c r="C94" s="2">
-        <v>36557.500464236109</v>
+        <v>36557.500429282409</v>
       </c>
       <c r="D94">
         <v>10</v>
       </c>
       <c r="E94">
-        <v>284</v>
+        <v>420</v>
       </c>
       <c r="F94" t="s">
         <v>19</v>
       </c>
       <c r="G94" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3895,30 +3907,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2">
-        <v>33.50047835648148</v>
+        <v>33.500433564814813</v>
       </c>
       <c r="C95" s="2">
-        <v>36557.50047835648</v>
+        <v>36557.500433564812</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="F95" t="s">
         <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3927,30 +3939,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2">
-        <v>33.500490046296299</v>
+        <v>33.500434374999998</v>
       </c>
       <c r="C96" s="2">
-        <v>36557.500490046295</v>
+        <v>36557.500434374997</v>
       </c>
       <c r="D96">
         <v>9</v>
       </c>
       <c r="E96">
-        <v>319</v>
+        <v>534</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G96" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3959,30 +3971,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2">
-        <v>33.500513078703705</v>
+        <v>33.50044583333333</v>
       </c>
       <c r="C97" s="2">
-        <v>36557.500513078703</v>
+        <v>36557.500445833335</v>
       </c>
       <c r="D97">
         <v>9</v>
       </c>
       <c r="E97">
-        <v>243</v>
+        <v>486</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G97" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3991,30 +4003,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500515509259259</v>
+        <v>33.500455208333335</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500515509259</v>
+        <v>36557.500455208334</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>235</v>
+        <v>448</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -4023,30 +4035,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2">
-        <v>33.500534143518522</v>
+        <v>33.500455671296294</v>
       </c>
       <c r="C99" s="2">
-        <v>36557.500534143517</v>
+        <v>36557.500455671296</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E99">
-        <v>181</v>
+        <v>316</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -4055,30 +4067,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>33.500534953703706</v>
+        <v>33.500464236111114</v>
       </c>
       <c r="C100" s="2">
-        <v>36557.500534953702</v>
+        <v>36557.500464236109</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="F100" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -4087,30 +4099,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2">
-        <v>33.500541319444444</v>
+        <v>33.50047835648148</v>
       </c>
       <c r="C101" s="2">
-        <v>36557.500541319445</v>
+        <v>36557.50047835648</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>161</v>
+        <v>360</v>
       </c>
       <c r="F101" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G101" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4119,30 +4131,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2">
-        <v>33.500557870370372</v>
+        <v>33.500490046296299</v>
       </c>
       <c r="C102" s="2">
-        <v>36557.500557870371</v>
+        <v>36557.500490046295</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4151,30 +4163,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3">
-        <v>33.500898379629632</v>
-      </c>
-      <c r="C103" s="3">
-        <v>33.500898379629632</v>
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
+        <v>33.500513078703705</v>
+      </c>
+      <c r="C103" s="2">
+        <v>36557.500513078703</v>
       </c>
       <c r="D103">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>548</v>
+        <v>243</v>
       </c>
       <c r="F103" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4183,30 +4195,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="3">
-        <v>33.500972453703703</v>
-      </c>
-      <c r="C104" s="3">
-        <v>33.500972453703703</v>
+        <v>104</v>
+      </c>
+      <c r="B104" s="2">
+        <v>33.500515509259259</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36557.500515509259</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>547</v>
+        <v>235</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G104" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4215,30 +4227,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="3">
-        <v>33.500980787037037</v>
-      </c>
-      <c r="C105" s="3">
-        <v>33.500980787037037</v>
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>33.500534143518522</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36557.500534143517</v>
       </c>
       <c r="D105">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105">
-        <v>531</v>
+        <v>181</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G105" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4247,30 +4259,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="3">
-        <v>33.50099050925926</v>
-      </c>
-      <c r="C106" s="3">
-        <v>33.50099050925926</v>
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>33.500534953703706</v>
+      </c>
+      <c r="C106" s="2">
+        <v>36557.500534953702</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E106">
-        <v>374</v>
+        <v>178</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G106" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4279,30 +4291,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="3">
-        <v>33.501021180555554</v>
-      </c>
-      <c r="C107" s="3">
-        <v>33.501021180555554</v>
+        <v>104</v>
+      </c>
+      <c r="B107" s="2">
+        <v>33.500541319444444</v>
+      </c>
+      <c r="C107" s="2">
+        <v>36557.500541319445</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E107">
-        <v>322</v>
+        <v>161</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4311,30 +4323,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="3">
-        <v>33.501040625000002</v>
-      </c>
-      <c r="C108" s="3">
-        <v>33.501040625000002</v>
+        <v>104</v>
+      </c>
+      <c r="B108" s="2">
+        <v>33.500557870370372</v>
+      </c>
+      <c r="C108" s="2">
+        <v>36557.500557870371</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>290</v>
+        <v>119</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4343,30 +4355,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3">
-        <v>33.501086111111114</v>
+        <v>33.500898379629632</v>
       </c>
       <c r="C109" s="3">
-        <v>33.501086111111114</v>
+        <v>33.500898379629632</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>351</v>
+        <v>548</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G109" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4375,30 +4387,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B110" s="3">
-        <v>33.501090509259257</v>
+        <v>33.500972453703703</v>
       </c>
       <c r="C110" s="3">
-        <v>33.501090509259257</v>
+        <v>33.500972453703703</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>215</v>
+        <v>547</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4407,30 +4419,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B111" s="3">
-        <v>33.501134606481479</v>
+        <v>33.500980787037037</v>
       </c>
       <c r="C111" s="3">
-        <v>33.501134606481479</v>
+        <v>33.500980787037037</v>
       </c>
       <c r="D111">
         <v>9</v>
       </c>
       <c r="E111">
-        <v>277</v>
+        <v>531</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4439,30 +4451,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B112" s="3">
-        <v>33.501383564814816</v>
+        <v>33.50099050925926</v>
       </c>
       <c r="C112" s="3">
-        <v>33.501383564814816</v>
+        <v>33.50099050925926</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>18</v>
+        <v>374</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G112" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4471,30 +4483,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B113" s="3">
-        <v>33.501404629629633</v>
+        <v>33.501021180555554</v>
       </c>
       <c r="C113" s="3">
-        <v>33.501404629629633</v>
+        <v>33.501021180555554</v>
       </c>
       <c r="D113">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4503,7 +4515,7 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4511,22 +4523,22 @@
         <v>106</v>
       </c>
       <c r="B114" s="3">
-        <v>33.500940277777779</v>
+        <v>33.501040625000002</v>
       </c>
       <c r="C114" s="3">
-        <v>33.500940277777779</v>
+        <v>33.501040625000002</v>
       </c>
       <c r="D114">
         <v>10</v>
       </c>
       <c r="E114">
-        <v>456</v>
+        <v>290</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4535,7 +4547,7 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4543,22 +4555,22 @@
         <v>106</v>
       </c>
       <c r="B115" s="3">
-        <v>33.500970023148149</v>
+        <v>33.501055324074073</v>
       </c>
       <c r="C115" s="3">
-        <v>33.500970023148149</v>
+        <v>33.501055324074073</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>393</v>
+        <v>122</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4567,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4575,22 +4587,22 @@
         <v>106</v>
       </c>
       <c r="B116" s="3">
-        <v>33.500980324074071</v>
+        <v>33.501086111111114</v>
       </c>
       <c r="C116" s="3">
-        <v>33.500980324074071</v>
+        <v>33.501086111111114</v>
       </c>
       <c r="D116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4599,7 +4611,7 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4607,22 +4619,22 @@
         <v>106</v>
       </c>
       <c r="B117" s="3">
-        <v>33.501085300925929</v>
+        <v>33.501090509259257</v>
       </c>
       <c r="C117" s="3">
-        <v>33.501085300925929</v>
+        <v>33.501090509259257</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4631,7 +4643,7 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4639,22 +4651,22 @@
         <v>106</v>
       </c>
       <c r="B118" s="3">
-        <v>33.501090972222222</v>
+        <v>33.501134606481479</v>
       </c>
       <c r="C118" s="3">
-        <v>33.501090972222222</v>
+        <v>33.501134606481479</v>
       </c>
       <c r="D118">
         <v>9</v>
       </c>
       <c r="E118">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F118" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G118" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4663,7 +4675,7 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -4671,22 +4683,22 @@
         <v>106</v>
       </c>
       <c r="B119" s="3">
-        <v>33.501093402777776</v>
+        <v>33.501383564814816</v>
       </c>
       <c r="C119" s="3">
-        <v>33.501093402777776</v>
+        <v>33.501383564814816</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E119">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4695,7 +4707,7 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4703,22 +4715,22 @@
         <v>106</v>
       </c>
       <c r="B120" s="3">
-        <v>33.501146990740743</v>
+        <v>33.501404629629633</v>
       </c>
       <c r="C120" s="3">
-        <v>33.501146990740743</v>
+        <v>33.501404629629633</v>
       </c>
       <c r="D120">
         <v>8</v>
       </c>
       <c r="E120">
-        <v>219</v>
+        <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4727,30 +4739,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B121" s="3">
-        <v>33.50115671296296</v>
+        <v>33.500940277777779</v>
       </c>
       <c r="C121" s="3">
-        <v>33.50115671296296</v>
+        <v>33.500940277777779</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E121">
-        <v>204</v>
+        <v>456</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4759,30 +4771,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B122" s="3">
-        <v>33.501182870370371</v>
+        <v>33.500970023148149</v>
       </c>
       <c r="C122" s="3">
-        <v>33.501182870370371</v>
+        <v>33.500970023148149</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E122">
-        <v>167</v>
+        <v>393</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G122" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4791,30 +4803,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B123" s="3">
-        <v>33.501227199074073</v>
+        <v>33.500980324074071</v>
       </c>
       <c r="C123" s="3">
-        <v>33.501227199074073</v>
+        <v>33.500980324074071</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E123">
-        <v>110</v>
+        <v>372</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4823,30 +4835,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B124" s="3">
-        <v>33.501233333333332</v>
+        <v>33.501085300925929</v>
       </c>
       <c r="C124" s="3">
-        <v>33.501233333333332</v>
+        <v>33.501085300925929</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E124">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G124" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4855,30 +4867,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B125" s="3">
-        <v>33.501959837962964</v>
+        <v>33.501090972222222</v>
       </c>
       <c r="C125" s="3">
-        <v>33.501959837962964</v>
+        <v>33.501090972222222</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125">
-        <v>512</v>
+        <v>311</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4887,30 +4899,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B126" s="3">
-        <v>33.502083449074071</v>
+        <v>33.501093402777776</v>
       </c>
       <c r="C126" s="3">
-        <v>33.502083449074071</v>
+        <v>33.501093402777776</v>
       </c>
       <c r="D126">
         <v>10</v>
       </c>
       <c r="E126">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G126" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4919,30 +4931,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B127" s="3">
-        <v>33.502129976851855</v>
+        <v>33.501146990740743</v>
       </c>
       <c r="C127" s="3">
-        <v>33.502129976851855</v>
+        <v>33.501146990740743</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4951,30 +4963,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B128" s="3">
-        <v>33.502315046296296</v>
+        <v>33.50115671296296</v>
       </c>
       <c r="C128" s="3">
-        <v>33.502315046296296</v>
+        <v>33.50115671296296</v>
       </c>
       <c r="D128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="F128" t="s">
         <v>28</v>
       </c>
       <c r="G128" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4983,30 +4995,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B129" s="3">
-        <v>33.502557523148148</v>
+        <v>33.501182870370371</v>
       </c>
       <c r="C129" s="3">
-        <v>33.502557523148148</v>
+        <v>33.501182870370371</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -5015,30 +5027,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="2">
-        <v>33.50039537037037</v>
-      </c>
-      <c r="C130" s="2">
-        <v>36557.500395370371</v>
+        <v>110</v>
+      </c>
+      <c r="B130" s="3">
+        <v>33.501227199074073</v>
+      </c>
+      <c r="C130" s="3">
+        <v>33.501227199074073</v>
       </c>
       <c r="D130">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E130">
-        <v>499</v>
+        <v>110</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -5047,62 +5059,62 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>10</v>
-      </c>
-      <c r="B131" s="2">
-        <v>33.500400810185184</v>
-      </c>
-      <c r="C131" s="2">
-        <v>36557.500400810182</v>
+        <v>110</v>
+      </c>
+      <c r="B131" s="3">
+        <v>33.501233333333332</v>
+      </c>
+      <c r="C131" s="3">
+        <v>33.501233333333332</v>
       </c>
       <c r="D131">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E131">
-        <v>591</v>
+        <v>103</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
         <v>111</v>
-      </c>
-      <c r="H131" t="s">
-        <v>13</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B132" s="2">
-        <v>33.500427546296294</v>
-      </c>
-      <c r="C132" s="2">
-        <v>36557.5004275463</v>
+        <v>112</v>
+      </c>
+      <c r="B132" s="3">
+        <v>33.501959837962964</v>
+      </c>
+      <c r="C132" s="3">
+        <v>33.501959837962964</v>
       </c>
       <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>512</v>
+      </c>
+      <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="E132">
-        <v>337</v>
-      </c>
-      <c r="F132" t="s">
-        <v>28</v>
-      </c>
       <c r="G132" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -5111,30 +5123,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>10</v>
-      </c>
-      <c r="B133" s="2">
-        <v>33.500437962962963</v>
-      </c>
-      <c r="C133" s="2">
-        <v>36557.500437962961</v>
+        <v>112</v>
+      </c>
+      <c r="B133" s="3">
+        <v>33.502083449074071</v>
+      </c>
+      <c r="C133" s="3">
+        <v>33.502083449074071</v>
       </c>
       <c r="D133">
         <v>10</v>
       </c>
       <c r="E133">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5143,30 +5155,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>10</v>
-      </c>
-      <c r="B134" s="2">
-        <v>33.500441782407407</v>
-      </c>
-      <c r="C134" s="2">
-        <v>36557.500441782409</v>
+        <v>112</v>
+      </c>
+      <c r="B134" s="3">
+        <v>33.502129976851855</v>
+      </c>
+      <c r="C134" s="3">
+        <v>33.502129976851855</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E134">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5175,30 +5187,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>10</v>
-      </c>
-      <c r="B135" s="2">
-        <v>33.500449305555556</v>
-      </c>
-      <c r="C135" s="2">
-        <v>36557.500449305553</v>
+        <v>112</v>
+      </c>
+      <c r="B135" s="3">
+        <v>33.502315046296296</v>
+      </c>
+      <c r="C135" s="3">
+        <v>33.502315046296296</v>
       </c>
       <c r="D135">
         <v>10</v>
       </c>
       <c r="E135">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G135" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5207,30 +5219,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>10</v>
-      </c>
-      <c r="B136" t="s">
-        <v>121</v>
-      </c>
-      <c r="C136" s="2">
-        <v>36557.500456597219</v>
+        <v>112</v>
+      </c>
+      <c r="B136" s="3">
+        <v>33.502557523148148</v>
+      </c>
+      <c r="C136" s="3">
+        <v>33.502557523148148</v>
       </c>
       <c r="D136">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G136" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5239,7 +5251,7 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5247,22 +5259,22 @@
         <v>10</v>
       </c>
       <c r="B137" s="2">
-        <v>33.500464930555559</v>
+        <v>33.50039537037037</v>
       </c>
       <c r="C137" s="2">
-        <v>36557.500464930556</v>
+        <v>36557.500395370371</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137">
-        <v>305</v>
+        <v>499</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G137" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5271,7 +5283,7 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5279,22 +5291,22 @@
         <v>10</v>
       </c>
       <c r="B138" s="2">
-        <v>33.500486226851855</v>
+        <v>33.500400810185184</v>
       </c>
       <c r="C138" s="2">
-        <v>36557.500486226854</v>
+        <v>36557.500400810182</v>
       </c>
       <c r="D138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138">
-        <v>356</v>
+        <v>591</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5303,7 +5315,7 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5311,22 +5323,22 @@
         <v>10</v>
       </c>
       <c r="B139" s="2">
-        <v>33.500504513888892</v>
+        <v>33.500427546296294</v>
       </c>
       <c r="C139" s="2">
-        <v>36557.50050451389</v>
+        <v>36557.5004275463</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>287</v>
+        <v>337</v>
       </c>
       <c r="F139" t="s">
         <v>28</v>
       </c>
       <c r="G139" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5335,7 +5347,7 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5343,22 +5355,22 @@
         <v>10</v>
       </c>
       <c r="B140" s="2">
-        <v>33.500546990740737</v>
+        <v>33.500437962962963</v>
       </c>
       <c r="C140" s="2">
-        <v>36557.500546990741</v>
+        <v>36557.500437962961</v>
       </c>
       <c r="D140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140">
-        <v>146</v>
+        <v>418</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G140" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5367,7 +5379,7 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5375,22 +5387,22 @@
         <v>10</v>
       </c>
       <c r="B141" s="2">
-        <v>33.500551157407408</v>
+        <v>33.500441782407407</v>
       </c>
       <c r="C141" s="2">
-        <v>36557.500551157405</v>
+        <v>36557.500441782409</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G141" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5399,7 +5411,7 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5407,22 +5419,22 @@
         <v>10</v>
       </c>
       <c r="B142" s="2">
-        <v>33.50057291666667</v>
+        <v>33.500449305555556</v>
       </c>
       <c r="C142" s="2">
-        <v>36557.500572916666</v>
+        <v>36557.500449305553</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E142">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G142" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5431,30 +5443,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>10</v>
       </c>
-      <c r="B143" s="2">
-        <v>33.500594097222219</v>
+      <c r="B143" t="s">
+        <v>125</v>
       </c>
       <c r="C143" s="2">
-        <v>36557.500594097219</v>
+        <v>36557.500456597219</v>
       </c>
       <c r="D143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E143">
-        <v>32</v>
+        <v>338</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G143" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5463,30 +5475,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>57</v>
-      </c>
-      <c r="B144" s="3">
-        <v>33.50090613425926</v>
-      </c>
-      <c r="C144" s="3">
-        <v>33.50090613425926</v>
+        <v>10</v>
+      </c>
+      <c r="B144" s="2">
+        <v>33.500464930555559</v>
+      </c>
+      <c r="C144" s="2">
+        <v>36557.500464930556</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G144" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5495,30 +5507,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>57</v>
-      </c>
-      <c r="B145" s="3">
-        <v>33.500940509259259</v>
-      </c>
-      <c r="C145" s="3">
-        <v>33.500940509259259</v>
+        <v>10</v>
+      </c>
+      <c r="B145" s="2">
+        <v>33.500486226851855</v>
+      </c>
+      <c r="C145" s="2">
+        <v>36557.500486226854</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E145">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G145" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5527,30 +5539,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>57</v>
-      </c>
-      <c r="B146" t="s">
-        <v>139</v>
-      </c>
-      <c r="C146" s="3">
-        <v>33.500942129629628</v>
+        <v>10</v>
+      </c>
+      <c r="B146" s="2">
+        <v>33.500504513888892</v>
+      </c>
+      <c r="C146" s="2">
+        <v>36557.50050451389</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G146" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5559,30 +5571,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>57</v>
-      </c>
-      <c r="B147" s="3">
-        <v>33.500945486111114</v>
-      </c>
-      <c r="C147" s="3">
-        <v>33.500945486111114</v>
+        <v>10</v>
+      </c>
+      <c r="B147" s="2">
+        <v>33.500546990740737</v>
+      </c>
+      <c r="C147" s="2">
+        <v>36557.500546990741</v>
       </c>
       <c r="D147">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5591,30 +5603,30 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>57</v>
-      </c>
-      <c r="B148" s="3">
-        <v>33.501006018518517</v>
-      </c>
-      <c r="C148" s="3">
-        <v>33.501006018518517</v>
+        <v>10</v>
+      </c>
+      <c r="B148" s="2">
+        <v>33.500551157407408</v>
+      </c>
+      <c r="C148" s="2">
+        <v>36557.500551157405</v>
       </c>
       <c r="D148">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5623,30 +5635,30 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>57</v>
-      </c>
-      <c r="B149" s="3">
-        <v>33.501010648148146</v>
-      </c>
-      <c r="C149" s="3">
-        <v>33.501010648148146</v>
+        <v>10</v>
+      </c>
+      <c r="B149" s="2">
+        <v>33.50057291666667</v>
+      </c>
+      <c r="C149" s="2">
+        <v>36557.500572916666</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="F149" t="s">
         <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5655,30 +5667,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>57</v>
-      </c>
-      <c r="B150" s="3">
-        <v>33.501031481481483</v>
-      </c>
-      <c r="C150" s="3">
-        <v>33.501031481481483</v>
+        <v>10</v>
+      </c>
+      <c r="B150" s="2">
+        <v>33.500594097222219</v>
+      </c>
+      <c r="C150" s="2">
+        <v>36557.500594097219</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5687,7 +5699,7 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5695,22 +5707,22 @@
         <v>57</v>
       </c>
       <c r="B151" s="3">
-        <v>33.501119097222222</v>
+        <v>33.50090613425926</v>
       </c>
       <c r="C151" s="3">
-        <v>33.501119097222222</v>
+        <v>33.50090613425926</v>
       </c>
       <c r="D151">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>244</v>
+        <v>371</v>
       </c>
       <c r="F151" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5719,7 +5731,7 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5727,22 +5739,22 @@
         <v>57</v>
       </c>
       <c r="B152" s="3">
-        <v>33.501121759259256</v>
+        <v>33.500940509259259</v>
       </c>
       <c r="C152" s="3">
-        <v>33.501121759259256</v>
+        <v>33.500940509259259</v>
       </c>
       <c r="D152">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="F152" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5751,30 +5763,30 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>57</v>
       </c>
-      <c r="B153" s="3">
-        <v>33.501210532407406</v>
+      <c r="B153" t="s">
+        <v>143</v>
       </c>
       <c r="C153" s="3">
-        <v>33.501210532407406</v>
+        <v>33.500942129629628</v>
       </c>
       <c r="D153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153">
-        <v>115</v>
+        <v>426</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G153" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5783,7 +5795,7 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5791,22 +5803,22 @@
         <v>57</v>
       </c>
       <c r="B154" s="3">
-        <v>33.501293981481481</v>
+        <v>33.500945486111114</v>
       </c>
       <c r="C154" s="3">
-        <v>33.501293981481481</v>
+        <v>33.500945486111114</v>
       </c>
       <c r="D154">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E154">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="F154" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G154" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5815,7 +5827,7 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5823,22 +5835,22 @@
         <v>57</v>
       </c>
       <c r="B155" s="3">
-        <v>33.501338888888888</v>
+        <v>33.501006018518517</v>
       </c>
       <c r="C155" s="3">
-        <v>33.501338888888888</v>
+        <v>33.501006018518517</v>
       </c>
       <c r="D155">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E155">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G155" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5847,7 +5859,7 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5855,22 +5867,22 @@
         <v>57</v>
       </c>
       <c r="B156" s="3">
-        <v>33.501492361111112</v>
+        <v>33.501010648148146</v>
       </c>
       <c r="C156" s="3">
-        <v>33.501492361111112</v>
+        <v>33.501010648148146</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="F156" t="s">
         <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5879,30 +5891,30 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B157" s="3">
-        <v>33.501883796296298</v>
+        <v>33.501031481481483</v>
       </c>
       <c r="C157" s="3">
-        <v>33.501883796296298</v>
+        <v>33.501031481481483</v>
       </c>
       <c r="D157">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E157">
-        <v>428</v>
+        <v>251</v>
       </c>
       <c r="F157" t="s">
         <v>19</v>
       </c>
       <c r="G157" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5911,30 +5923,30 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B158" s="3">
-        <v>33.50206273148148</v>
+        <v>33.501119097222222</v>
       </c>
       <c r="C158" s="3">
-        <v>33.50206273148148</v>
+        <v>33.501119097222222</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E158">
-        <v>381</v>
+        <v>244</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G158" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5943,30 +5955,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B159" s="3">
-        <v>33.502118055555556</v>
+        <v>33.501121759259256</v>
       </c>
       <c r="C159" s="3">
-        <v>33.502118055555556</v>
+        <v>33.501121759259256</v>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E159">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="F159" t="s">
         <v>28</v>
       </c>
       <c r="G159" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5975,30 +5987,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B160" s="3">
-        <v>33.502118865740741</v>
+        <v>33.501210532407406</v>
       </c>
       <c r="C160" s="3">
-        <v>33.502118865740741</v>
+        <v>33.501210532407406</v>
       </c>
       <c r="D160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E160">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -6007,30 +6019,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B161" s="3">
-        <v>33.502254050925927</v>
+        <v>33.501293981481481</v>
       </c>
       <c r="C161" s="3">
-        <v>33.502254050925927</v>
+        <v>33.501293981481481</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E161">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -6044,25 +6056,25 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B162" s="3">
-        <v>33.502311689814817</v>
+        <v>33.501338888888888</v>
       </c>
       <c r="C162" s="3">
-        <v>33.502311689814817</v>
+        <v>33.501338888888888</v>
       </c>
       <c r="D162">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E162">
-        <v>289</v>
+        <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -6071,30 +6083,30 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B163" s="3">
-        <v>33.502363310185189</v>
+        <v>33.501492361111112</v>
       </c>
       <c r="C163" s="3">
-        <v>33.502363310185189</v>
+        <v>33.501492361111112</v>
       </c>
       <c r="D163">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6103,30 +6115,30 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B164" s="3">
-        <v>33.502400578703707</v>
+        <v>33.501883796296298</v>
       </c>
       <c r="C164" s="3">
-        <v>33.502400578703707</v>
+        <v>33.501883796296298</v>
       </c>
       <c r="D164">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E164">
-        <v>219</v>
+        <v>428</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G164" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6135,30 +6147,30 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="B165" s="3">
-        <v>33.503997800925923</v>
+        <v>33.50206273148148</v>
       </c>
       <c r="C165" s="3">
-        <v>33.503997800925923</v>
+        <v>33.50206273148148</v>
       </c>
       <c r="D165">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E165">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F165" t="s">
         <v>19</v>
       </c>
       <c r="G165" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6167,30 +6179,30 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="B166" s="3">
-        <v>33.5041962962963</v>
+        <v>33.502118055555556</v>
       </c>
       <c r="C166" s="3">
-        <v>33.5041962962963</v>
+        <v>33.502118055555556</v>
       </c>
       <c r="D166">
         <v>11</v>
       </c>
       <c r="E166">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="F166" t="s">
         <v>28</v>
       </c>
       <c r="G166" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6199,30 +6211,30 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="B167" s="3">
-        <v>33.504428703703702</v>
+        <v>33.502118865740741</v>
       </c>
       <c r="C167" s="3">
-        <v>33.504428703703702</v>
+        <v>33.502118865740741</v>
       </c>
       <c r="D167">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E167">
-        <v>180</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6231,30 +6243,30 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>91</v>
-      </c>
-      <c r="B168" s="2">
-        <v>33.500572453703704</v>
-      </c>
-      <c r="C168" s="2">
-        <v>36557.500572453704</v>
+        <v>77</v>
+      </c>
+      <c r="B168" s="3">
+        <v>33.502254050925927</v>
+      </c>
+      <c r="C168" s="3">
+        <v>33.502254050925927</v>
       </c>
       <c r="D168">
         <v>10</v>
       </c>
       <c r="E168">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F168" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G168" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6263,30 +6275,30 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>91</v>
-      </c>
-      <c r="B169" s="2">
-        <v>33.500599999999999</v>
-      </c>
-      <c r="C169" s="2">
-        <v>36557.500599999999</v>
+        <v>77</v>
+      </c>
+      <c r="B169" s="3">
+        <v>33.502311689814817</v>
+      </c>
+      <c r="C169" s="3">
+        <v>33.502311689814817</v>
       </c>
       <c r="D169">
         <v>9</v>
       </c>
       <c r="E169">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="F169" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G169" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6295,62 +6307,62 @@
         <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>91</v>
-      </c>
-      <c r="B170" s="2">
-        <v>33.500600347222225</v>
-      </c>
-      <c r="C170" s="2">
-        <v>36557.500600347223</v>
+        <v>77</v>
+      </c>
+      <c r="B170" s="3">
+        <v>33.502363310185189</v>
+      </c>
+      <c r="C170" s="3">
+        <v>33.502363310185189</v>
       </c>
       <c r="D170">
         <v>10</v>
       </c>
       <c r="E170">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F170" t="s">
         <v>28</v>
       </c>
       <c r="G170" t="s">
+        <v>123</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" t="s">
         <v>124</v>
-      </c>
-      <c r="H170" t="s">
-        <v>13</v>
-      </c>
-      <c r="I170" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>91</v>
-      </c>
-      <c r="B171" s="2">
-        <v>33.50062627314815</v>
-      </c>
-      <c r="C171" s="2">
-        <v>36557.500626273148</v>
+        <v>77</v>
+      </c>
+      <c r="B171" s="3">
+        <v>33.502400578703707</v>
+      </c>
+      <c r="C171" s="3">
+        <v>33.502400578703707</v>
       </c>
       <c r="D171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E171">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="F171" t="s">
         <v>28</v>
       </c>
       <c r="G171" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6359,30 +6371,30 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>91</v>
-      </c>
-      <c r="B172" s="2">
-        <v>33.50067974537037</v>
-      </c>
-      <c r="C172" s="2">
-        <v>36557.500679745368</v>
+        <v>158</v>
+      </c>
+      <c r="B172" s="3">
+        <v>33.503997800925923</v>
+      </c>
+      <c r="C172" s="3">
+        <v>33.503997800925923</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E172">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G172" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6391,30 +6403,30 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="B173" s="3">
-        <v>33.50073009259259</v>
+        <v>33.5041962962963</v>
       </c>
       <c r="C173" s="3">
-        <v>33.50073009259259</v>
+        <v>33.5041962962963</v>
       </c>
       <c r="D173">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G173" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6423,30 +6435,30 @@
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>96</v>
-      </c>
-      <c r="B174" s="2">
-        <v>33.500653240740739</v>
-      </c>
-      <c r="C174" s="2">
-        <v>36557.500653240742</v>
+        <v>158</v>
+      </c>
+      <c r="B174" s="3">
+        <v>33.504428703703702</v>
+      </c>
+      <c r="C174" s="3">
+        <v>33.504428703703702</v>
       </c>
       <c r="D174">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F174" t="s">
         <v>28</v>
       </c>
       <c r="G174" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6455,30 +6467,30 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B175" s="2">
-        <v>33.500658564814813</v>
+        <v>33.500572453703704</v>
       </c>
       <c r="C175" s="2">
-        <v>36557.500658564815</v>
+        <v>36557.500572453704</v>
       </c>
       <c r="D175">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175">
-        <v>332</v>
+        <v>194</v>
       </c>
       <c r="F175" t="s">
         <v>28</v>
       </c>
       <c r="G175" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -6487,30 +6499,30 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B176" s="2">
-        <v>33.500660300925929</v>
+        <v>33.500599999999999</v>
       </c>
       <c r="C176" s="2">
-        <v>36557.500660300924</v>
+        <v>36557.500599999999</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E176">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="F176" t="s">
         <v>28</v>
       </c>
       <c r="G176" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -6519,27 +6531,27 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>96</v>
-      </c>
-      <c r="B177" s="3">
-        <v>33.500705208333336</v>
-      </c>
-      <c r="C177" s="3">
-        <v>33.500705208333336</v>
+        <v>95</v>
+      </c>
+      <c r="B177" s="2">
+        <v>33.500600347222225</v>
+      </c>
+      <c r="C177" s="2">
+        <v>36557.500600347223</v>
       </c>
       <c r="D177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G177" t="s">
         <v>128</v>
@@ -6556,25 +6568,25 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>96</v>
-      </c>
-      <c r="B178" s="3">
-        <v>33.500705787037035</v>
-      </c>
-      <c r="C178" s="3">
-        <v>33.500705787037035</v>
+        <v>95</v>
+      </c>
+      <c r="B178" s="2">
+        <v>33.50062627314815</v>
+      </c>
+      <c r="C178" s="2">
+        <v>36557.500626273148</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G178" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -6583,30 +6595,30 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>96</v>
-      </c>
-      <c r="B179" s="3">
-        <v>33.500836111111113</v>
-      </c>
-      <c r="C179" s="3">
-        <v>33.500836111111113</v>
+        <v>95</v>
+      </c>
+      <c r="B179" s="2">
+        <v>33.50067974537037</v>
+      </c>
+      <c r="C179" s="2">
+        <v>36557.500679745368</v>
       </c>
       <c r="D179">
         <v>8</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F179" t="s">
         <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6615,18 +6627,18 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B180" s="3">
-        <v>33.500850694444445</v>
+        <v>33.50073009259259</v>
       </c>
       <c r="C180" s="3">
-        <v>33.500850694444445</v>
+        <v>33.50073009259259</v>
       </c>
       <c r="D180">
         <v>8</v>
@@ -6638,7 +6650,7 @@
         <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -6647,30 +6659,30 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>96</v>
-      </c>
-      <c r="B181" s="3">
-        <v>33.500869791666666</v>
-      </c>
-      <c r="C181" s="3">
-        <v>33.500869791666666</v>
+        <v>100</v>
+      </c>
+      <c r="B181" s="2">
+        <v>33.500653240740739</v>
+      </c>
+      <c r="C181" s="2">
+        <v>36557.500653240742</v>
       </c>
       <c r="D181">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G181" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6679,30 +6691,30 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>96</v>
-      </c>
-      <c r="B182" s="3">
-        <v>33.500996527777779</v>
-      </c>
-      <c r="C182" s="3">
-        <v>33.500996527777779</v>
+        <v>100</v>
+      </c>
+      <c r="B182" s="2">
+        <v>33.500658564814813</v>
+      </c>
+      <c r="C182" s="2">
+        <v>36557.500658564815</v>
       </c>
       <c r="D182">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G182" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6711,30 +6723,30 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>97</v>
-      </c>
-      <c r="B183" s="3">
-        <v>33.501336226851855</v>
-      </c>
-      <c r="C183" s="3">
-        <v>33.501336226851855</v>
+        <v>100</v>
+      </c>
+      <c r="B183" s="2">
+        <v>33.500660300925929</v>
+      </c>
+      <c r="C183" s="2">
+        <v>36557.500660300924</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E183">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F183" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G183" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6743,30 +6755,30 @@
         <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B184" s="3">
-        <v>33.501456018518518</v>
+        <v>33.500705208333336</v>
       </c>
       <c r="C184" s="3">
-        <v>33.501456018518518</v>
+        <v>33.500705208333336</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6775,30 +6787,30 @@
         <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B185" s="3">
-        <v>33.501529861111109</v>
+        <v>33.500705787037035</v>
       </c>
       <c r="C185" s="3">
-        <v>33.501529861111109</v>
+        <v>33.500705787037035</v>
       </c>
       <c r="D185">
         <v>9</v>
       </c>
       <c r="E185">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="F185" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6807,30 +6819,30 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B186" s="3">
-        <v>33.501553125000001</v>
+        <v>33.500836111111113</v>
       </c>
       <c r="C186" s="3">
-        <v>33.501553125000001</v>
+        <v>33.500836111111113</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6839,30 +6851,30 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B187" s="3">
-        <v>33.501586458333335</v>
+        <v>33.500850694444445</v>
       </c>
       <c r="C187" s="3">
-        <v>33.501586458333335</v>
+        <v>33.500850694444445</v>
       </c>
       <c r="D187">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E187">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="F187" t="s">
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -6871,30 +6883,30 @@
         <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B188" s="3">
-        <v>33.501777314814817</v>
+        <v>33.500869791666666</v>
       </c>
       <c r="C188" s="3">
-        <v>33.501777314814817</v>
+        <v>33.500869791666666</v>
       </c>
       <c r="D188">
         <v>8</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F188" t="s">
         <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -6903,30 +6915,30 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B189" s="3">
-        <v>33.503045601851852</v>
+        <v>33.500996527777779</v>
       </c>
       <c r="C189" s="3">
-        <v>33.503045601851852</v>
+        <v>33.500996527777779</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="F189" t="s">
         <v>39</v>
       </c>
       <c r="G189" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -6935,30 +6947,30 @@
         <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>100</v>
-      </c>
-      <c r="B190" s="2">
-        <v>33.50042199074074</v>
-      </c>
-      <c r="C190" s="2">
-        <v>36557.500421990742</v>
+        <v>101</v>
+      </c>
+      <c r="B190" s="3">
+        <v>33.501336226851855</v>
+      </c>
+      <c r="C190" s="3">
+        <v>33.501336226851855</v>
       </c>
       <c r="D190">
         <v>11</v>
       </c>
       <c r="E190">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -6967,30 +6979,30 @@
         <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>100</v>
-      </c>
-      <c r="B191" s="2">
-        <v>33.500444328703701</v>
-      </c>
-      <c r="C191" s="2">
-        <v>36557.500444328703</v>
+        <v>101</v>
+      </c>
+      <c r="B191" s="3">
+        <v>33.501456018518518</v>
+      </c>
+      <c r="C191" s="3">
+        <v>33.501456018518518</v>
       </c>
       <c r="D191">
         <v>10</v>
       </c>
       <c r="E191">
-        <v>580</v>
+        <v>157</v>
       </c>
       <c r="F191" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="G191" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -6999,30 +7011,30 @@
         <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>112</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192" s="2">
-        <v>33.500450578703706</v>
-      </c>
-      <c r="C192" s="2">
-        <v>36557.5004505787</v>
+        <v>101</v>
+      </c>
+      <c r="B192" s="3">
+        <v>33.501529861111109</v>
+      </c>
+      <c r="C192" s="3">
+        <v>33.501529861111109</v>
       </c>
       <c r="D192">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E192">
-        <v>554</v>
+        <v>225</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G192" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -7031,30 +7043,30 @@
         <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193" s="2">
-        <v>33.500462384259258</v>
-      </c>
-      <c r="C193" s="2">
-        <v>36557.500462384261</v>
+        <v>101</v>
+      </c>
+      <c r="B193" s="3">
+        <v>33.501553125000001</v>
+      </c>
+      <c r="C193" s="3">
+        <v>33.501553125000001</v>
       </c>
       <c r="D193">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>368</v>
+        <v>198</v>
       </c>
       <c r="F193" t="s">
         <v>28</v>
       </c>
       <c r="G193" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -7063,30 +7075,30 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>100</v>
-      </c>
-      <c r="B194" s="2">
-        <v>33.500462847222224</v>
-      </c>
-      <c r="C194" s="2">
-        <v>36557.500462847223</v>
+        <v>101</v>
+      </c>
+      <c r="B194" s="3">
+        <v>33.501586458333335</v>
+      </c>
+      <c r="C194" s="3">
+        <v>33.501586458333335</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E194">
-        <v>366</v>
+        <v>162</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7095,30 +7107,30 @@
         <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>100</v>
-      </c>
-      <c r="B195" s="2">
-        <v>33.500479050925925</v>
-      </c>
-      <c r="C195" s="2">
-        <v>36557.500479050927</v>
+        <v>101</v>
+      </c>
+      <c r="B195" s="3">
+        <v>33.501777314814817</v>
+      </c>
+      <c r="C195" s="3">
+        <v>33.501777314814817</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>442</v>
+        <v>7</v>
       </c>
       <c r="F195" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G195" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7127,30 +7139,30 @@
         <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>100</v>
-      </c>
-      <c r="B196" s="2">
-        <v>33.500496180555558</v>
-      </c>
-      <c r="C196" s="2">
-        <v>36557.500496180553</v>
+        <v>162</v>
+      </c>
+      <c r="B196" s="3">
+        <v>33.503045601851852</v>
+      </c>
+      <c r="C196" s="3">
+        <v>33.503045601851852</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196">
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H196" t="s">
         <v>13</v>
@@ -7159,27 +7171,27 @@
         <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B197" s="2">
-        <v>33.50050949074074</v>
+        <v>33.50042199074074</v>
       </c>
       <c r="C197" s="2">
-        <v>36557.500509490739</v>
+        <v>36557.500421990742</v>
       </c>
       <c r="D197">
         <v>11</v>
       </c>
       <c r="E197">
-        <v>191</v>
+        <v>546</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G197" t="s">
         <v>113</v>
@@ -7191,30 +7203,30 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B198" s="2">
-        <v>33.500537847222219</v>
+        <v>33.500444328703701</v>
       </c>
       <c r="C198" s="2">
-        <v>36557.50053784722</v>
+        <v>36557.500444328703</v>
       </c>
       <c r="D198">
         <v>10</v>
       </c>
       <c r="E198">
-        <v>244</v>
+        <v>580</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G198" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="H198" t="s">
         <v>13</v>
@@ -7223,30 +7235,30 @@
         <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B199" s="2">
-        <v>33.500539351851849</v>
+        <v>33.500450578703706</v>
       </c>
       <c r="C199" s="2">
-        <v>36557.500539351851</v>
+        <v>36557.5004505787</v>
       </c>
       <c r="D199">
         <v>10</v>
       </c>
       <c r="E199">
-        <v>239</v>
+        <v>554</v>
       </c>
       <c r="F199" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G199" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
@@ -7255,30 +7267,30 @@
         <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B200" s="2">
-        <v>33.50057291666667</v>
+        <v>33.500462384259258</v>
       </c>
       <c r="C200" s="2">
-        <v>36557.500572916666</v>
+        <v>36557.500462384261</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
         <v>28</v>
       </c>
       <c r="G200" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H200" t="s">
         <v>13</v>
@@ -7287,30 +7299,30 @@
         <v>14</v>
       </c>
       <c r="J200" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B201" s="2">
-        <v>33.500630208333334</v>
+        <v>33.500462847222224</v>
       </c>
       <c r="C201" s="2">
-        <v>36557.500630208335</v>
+        <v>36557.500462847223</v>
       </c>
       <c r="D201">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G201" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
@@ -7319,30 +7331,30 @@
         <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B202" s="2">
-        <v>33.50065011574074</v>
+        <v>33.500479050925925</v>
       </c>
       <c r="C202" s="2">
-        <v>36557.50065011574</v>
+        <v>36557.500479050927</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>84</v>
+        <v>442</v>
       </c>
       <c r="F202" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G202" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
@@ -7351,30 +7363,30 @@
         <v>14</v>
       </c>
       <c r="J202" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B203" s="2">
-        <v>33.500664004629627</v>
+        <v>33.500496180555558</v>
       </c>
       <c r="C203" s="2">
-        <v>36557.500664004627</v>
+        <v>36557.500496180553</v>
       </c>
       <c r="D203">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E203">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H203" t="s">
         <v>13</v>
@@ -7388,25 +7400,25 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>100</v>
-      </c>
-      <c r="B204" s="3">
-        <v>33.500726620370372</v>
-      </c>
-      <c r="C204" s="3">
-        <v>33.500726620370372</v>
+        <v>104</v>
+      </c>
+      <c r="B204" s="2">
+        <v>33.50050949074074</v>
+      </c>
+      <c r="C204" s="2">
+        <v>36557.500509490739</v>
       </c>
       <c r="D204">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="F204" t="s">
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
@@ -7415,30 +7427,30 @@
         <v>14</v>
       </c>
       <c r="J204" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>100</v>
-      </c>
-      <c r="B205" s="3">
-        <v>33.500797569444444</v>
-      </c>
-      <c r="C205" s="3">
-        <v>33.500797569444444</v>
+        <v>104</v>
+      </c>
+      <c r="B205" s="2">
+        <v>33.500537847222219</v>
+      </c>
+      <c r="C205" s="2">
+        <v>36557.50053784722</v>
       </c>
       <c r="D205">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G205" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
@@ -7447,30 +7459,30 @@
         <v>14</v>
       </c>
       <c r="J205" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>102</v>
-      </c>
-      <c r="B206" s="3">
-        <v>33.500989930555555</v>
-      </c>
-      <c r="C206" s="3">
-        <v>33.500989930555555</v>
+        <v>104</v>
+      </c>
+      <c r="B206" s="2">
+        <v>33.500539351851849</v>
+      </c>
+      <c r="C206" s="2">
+        <v>36557.500539351851</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>465</v>
+        <v>239</v>
       </c>
       <c r="F206" t="s">
         <v>19</v>
       </c>
       <c r="G206" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
@@ -7479,30 +7491,30 @@
         <v>14</v>
       </c>
       <c r="J206" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>102</v>
-      </c>
-      <c r="B207" s="3">
-        <v>33.501150925925927</v>
-      </c>
-      <c r="C207" s="3">
-        <v>33.501150925925927</v>
+        <v>104</v>
+      </c>
+      <c r="B207" s="2">
+        <v>33.50057291666667</v>
+      </c>
+      <c r="C207" s="2">
+        <v>36557.500572916666</v>
       </c>
       <c r="D207">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E207">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G207" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
@@ -7511,30 +7523,30 @@
         <v>14</v>
       </c>
       <c r="J207" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>102</v>
-      </c>
-      <c r="B208" s="3">
-        <v>33.501208333333331</v>
-      </c>
-      <c r="C208" s="3">
-        <v>33.501208333333331</v>
+        <v>104</v>
+      </c>
+      <c r="B208" s="2">
+        <v>33.500630208333334</v>
+      </c>
+      <c r="C208" s="2">
+        <v>36557.500630208335</v>
       </c>
       <c r="D208">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E208">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F208" t="s">
         <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
@@ -7543,30 +7555,30 @@
         <v>14</v>
       </c>
       <c r="J208" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>102</v>
-      </c>
-      <c r="B209" s="3">
-        <v>33.501263078703701</v>
-      </c>
-      <c r="C209" s="3">
-        <v>33.501263078703701</v>
+        <v>104</v>
+      </c>
+      <c r="B209" s="2">
+        <v>33.50065011574074</v>
+      </c>
+      <c r="C209" s="2">
+        <v>36557.50065011574</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
@@ -7575,30 +7587,30 @@
         <v>14</v>
       </c>
       <c r="J209" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>102</v>
-      </c>
-      <c r="B210" s="3">
-        <v>33.501271643518521</v>
-      </c>
-      <c r="C210" s="3">
-        <v>33.501271643518521</v>
+        <v>104</v>
+      </c>
+      <c r="B210" s="2">
+        <v>33.500664004629627</v>
+      </c>
+      <c r="C210" s="2">
+        <v>36557.500664004627</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>339</v>
+        <v>60</v>
       </c>
       <c r="F210" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
@@ -7607,30 +7619,30 @@
         <v>14</v>
       </c>
       <c r="J210" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B211" s="3">
-        <v>33.50130300925926</v>
+        <v>33.500726620370372</v>
       </c>
       <c r="C211" s="3">
-        <v>33.50130300925926</v>
+        <v>33.500726620370372</v>
       </c>
       <c r="D211">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
         <v>39</v>
       </c>
       <c r="G211" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
@@ -7639,30 +7651,30 @@
         <v>14</v>
       </c>
       <c r="J211" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B212" s="3">
-        <v>33.501335069444444</v>
+        <v>33.500797569444444</v>
       </c>
       <c r="C212" s="3">
-        <v>33.501335069444444</v>
+        <v>33.500797569444444</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
@@ -7671,30 +7683,30 @@
         <v>14</v>
       </c>
       <c r="J212" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B213" s="3">
-        <v>33.501365277777779</v>
+        <v>33.500989930555555</v>
       </c>
       <c r="C213" s="3">
-        <v>33.501365277777779</v>
+        <v>33.500989930555555</v>
       </c>
       <c r="D213">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E213">
-        <v>223</v>
+        <v>465</v>
       </c>
       <c r="F213" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G213" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H213" t="s">
         <v>13</v>
@@ -7703,30 +7715,30 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B214" s="3">
-        <v>33.502757523148148</v>
+        <v>33.501150925925927</v>
       </c>
       <c r="C214" s="3">
-        <v>33.502757523148148</v>
+        <v>33.501150925925927</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>136</v>
+        <v>351</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G214" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H214" t="s">
         <v>13</v>
@@ -7735,30 +7747,30 @@
         <v>14</v>
       </c>
       <c r="J214" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B215" s="3">
-        <v>33.502396643518516</v>
+        <v>33.501208333333331</v>
       </c>
       <c r="C215" s="3">
-        <v>33.502396643518516</v>
+        <v>33.501208333333331</v>
       </c>
       <c r="D215">
         <v>11</v>
       </c>
       <c r="E215">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="F215" t="s">
         <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H215" t="s">
         <v>13</v>
@@ -7767,30 +7779,30 @@
         <v>14</v>
       </c>
       <c r="J215" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B216" s="3">
-        <v>33.502490972222219</v>
+        <v>33.501263078703701</v>
       </c>
       <c r="C216" s="3">
-        <v>33.502490972222219</v>
+        <v>33.501263078703701</v>
       </c>
       <c r="D216">
         <v>10</v>
       </c>
       <c r="E216">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="F216" t="s">
         <v>19</v>
       </c>
       <c r="G216" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -7799,39 +7811,263 @@
         <v>14</v>
       </c>
       <c r="J216" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B217" s="3">
+        <v>33.501271643518521</v>
+      </c>
+      <c r="C217" s="3">
+        <v>33.501271643518521</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217">
+        <v>339</v>
+      </c>
+      <c r="F217" t="s">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>132</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>106</v>
+      </c>
+      <c r="B218" s="3">
+        <v>33.50130300925926</v>
+      </c>
+      <c r="C218" s="3">
+        <v>33.50130300925926</v>
+      </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
+      <c r="E218">
+        <v>13</v>
+      </c>
+      <c r="F218" t="s">
+        <v>39</v>
+      </c>
+      <c r="G218" t="s">
+        <v>117</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>106</v>
+      </c>
+      <c r="B219" s="3">
+        <v>33.501335069444444</v>
+      </c>
+      <c r="C219" s="3">
+        <v>33.501335069444444</v>
+      </c>
+      <c r="D219">
+        <v>10</v>
+      </c>
+      <c r="E219">
+        <v>120</v>
+      </c>
+      <c r="F219" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>123</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>106</v>
+      </c>
+      <c r="B220" s="3">
+        <v>33.501365277777779</v>
+      </c>
+      <c r="C220" s="3">
+        <v>33.501365277777779</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220">
+        <v>223</v>
+      </c>
+      <c r="F220" t="s">
+        <v>28</v>
+      </c>
+      <c r="G220" t="s">
+        <v>130</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>165</v>
+      </c>
+      <c r="B221" s="3">
+        <v>33.502757523148148</v>
+      </c>
+      <c r="C221" s="3">
+        <v>33.502757523148148</v>
+      </c>
+      <c r="D221">
+        <v>11</v>
+      </c>
+      <c r="E221">
+        <v>136</v>
+      </c>
+      <c r="F221" t="s">
+        <v>39</v>
+      </c>
+      <c r="G221" t="s">
+        <v>117</v>
+      </c>
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>112</v>
+      </c>
+      <c r="B222" s="3">
+        <v>33.502396643518516</v>
+      </c>
+      <c r="C222" s="3">
+        <v>33.502396643518516</v>
+      </c>
+      <c r="D222">
+        <v>11</v>
+      </c>
+      <c r="E222">
+        <v>234</v>
+      </c>
+      <c r="F222" t="s">
+        <v>39</v>
+      </c>
+      <c r="G222" t="s">
+        <v>117</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>112</v>
+      </c>
+      <c r="B223" s="3">
+        <v>33.502490972222219</v>
+      </c>
+      <c r="C223" s="3">
+        <v>33.502490972222219</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+      <c r="E223">
+        <v>305</v>
+      </c>
+      <c r="F223" t="s">
+        <v>19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>126</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>112</v>
+      </c>
+      <c r="B224" s="3">
         <v>33.502669791666669</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C224" s="3">
         <v>33.502669791666669</v>
       </c>
-      <c r="D217">
-        <v>10</v>
-      </c>
-      <c r="E217">
+      <c r="D224">
+        <v>10</v>
+      </c>
+      <c r="E224">
         <v>181</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F224" t="s">
         <v>28</v>
       </c>
-      <c r="G217" t="s">
-        <v>152</v>
-      </c>
-      <c r="H217" t="s">
-        <v>13</v>
-      </c>
-      <c r="I217" t="s">
-        <v>14</v>
-      </c>
-      <c r="J217" t="s">
-        <v>157</v>
+      <c r="G224" t="s">
+        <v>156</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Caroline Suter.xlsx
+++ b/USASwimming/Times For Caroline Suter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="172">
   <si>
     <t>Event</t>
   </si>
@@ -57,18 +57,27 @@
     <t>50 FR</t>
   </si>
   <si>
+    <t>"BB"</t>
+  </si>
+  <si>
+    <t>2019 CT SOCO 18th Annual Hutchinson</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>12/7/2019</t>
+  </si>
+  <si>
     <t>"A"</t>
   </si>
   <si>
     <t>2019 CT Regional Championships CDOG</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>3/2/2019</t>
   </si>
   <si>
@@ -81,7 +90,13 @@
     <t>3/16/2019</t>
   </si>
   <si>
-    <t>"BB"</t>
+    <t>"B"</t>
+  </si>
+  <si>
+    <t>2019 CT WRAT Maura Marden Free</t>
+  </si>
+  <si>
+    <t>11/16/2019</t>
   </si>
   <si>
     <t>2019 CT OAK Centennial Center Invite</t>
@@ -108,9 +123,6 @@
     <t>11/10/2018</t>
   </si>
   <si>
-    <t>"B"</t>
-  </si>
-  <si>
     <t>2018 CT 18-19 CDOG 10 &amp; Under Quadr</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
     <t>100 FR</t>
   </si>
   <si>
+    <t>12/8/2019</t>
+  </si>
+  <si>
     <t>2019 CT RYWC Candlewood Cup</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
   </si>
   <si>
     <t>3/1/2019</t>
+  </si>
+  <si>
+    <t>12/6/2019</t>
   </si>
   <si>
     <t>11/8/2019</t>
@@ -880,7 +898,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J224"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -939,16 +957,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.500359259259263</v>
+        <v>33.500356712962962</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500359259262</v>
+        <v>36557.500356712961</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>555</v>
+        <v>452</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -970,20 +988,20 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2">
+        <v>33.500359259259263</v>
+      </c>
+      <c r="C3" s="2">
+        <v>36557.500359259262</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>555</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>36557.500361689818</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>541</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1002,20 +1020,20 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>33.500385300925927</v>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500385300926</v>
+        <v>36557.500361689818</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1035,22 +1053,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500388194444447</v>
+        <v>33.500364583333337</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500388194443</v>
+        <v>36557.500364583335</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -1059,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1067,22 +1085,22 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.50039548611111</v>
+        <v>33.500385300925927</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500395486109</v>
+        <v>36557.500385300926</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>418</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -1091,7 +1109,7 @@
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1099,22 +1117,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500406481481484</v>
+        <v>33.500388194444447</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500406481478</v>
+        <v>36557.500388194443</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>316</v>
+        <v>404</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -1123,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1131,19 +1149,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500407638888888</v>
+        <v>33.50039548611111</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500407638887</v>
+        <v>36557.500395486109</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>311</v>
+        <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -1163,19 +1181,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500413541666667</v>
+        <v>33.500406481481484</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500413541668</v>
+        <v>36557.500406481478</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1195,19 +1213,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500436574074072</v>
+        <v>33.500407638888888</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500436574075</v>
+        <v>36557.500407638887</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>311</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -1227,19 +1245,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500438657407408</v>
+        <v>33.500413541666667</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500438657407</v>
+        <v>36557.500413541668</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -1259,19 +1277,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500445601851851</v>
+        <v>33.500436574074072</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500445601851</v>
+        <v>36557.500436574075</v>
       </c>
       <c r="D12">
         <v>9</v>
       </c>
       <c r="E12">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
@@ -1291,31 +1309,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500457870370369</v>
+        <v>33.500438657407408</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500457870374</v>
+        <v>36557.500438657407</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>225</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
         <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1323,31 +1341,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>33.500461111111115</v>
+        <v>33.500445601851851</v>
       </c>
       <c r="C14" s="2">
-        <v>36557.500461111114</v>
+        <v>36557.500445601851</v>
       </c>
       <c r="D14">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>42</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1355,19 +1373,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>33.500463657407408</v>
+        <v>33.500457870370369</v>
       </c>
       <c r="C15" s="2">
-        <v>36557.500463657409</v>
+        <v>36557.500457870374</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
@@ -1387,19 +1405,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>33.500467245370373</v>
+        <v>33.500461111111115</v>
       </c>
       <c r="C16" s="2">
-        <v>36557.500467245372</v>
+        <v>36557.500461111114</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1418,23 +1436,23 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
+      <c r="B17" s="2">
+        <v>33.500463657407408</v>
       </c>
       <c r="C17" s="2">
-        <v>36557.500468287035</v>
+        <v>36557.500463657409</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1443,7 +1461,7 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1451,22 +1469,22 @@
         <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>33.500468402777777</v>
+        <v>33.500467245370373</v>
       </c>
       <c r="C18" s="2">
-        <v>36557.500468402781</v>
+        <v>36557.500467245372</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1475,31 +1493,31 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
-        <v>33.500483217592596</v>
+      <c r="B19" t="s">
+        <v>52</v>
       </c>
       <c r="C19" s="2">
-        <v>36557.500483217591</v>
+        <v>36557.500468287035</v>
       </c>
       <c r="D19">
         <v>8</v>
       </c>
       <c r="E19">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="G19" t="s">
-        <v>51</v>
-      </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1515,19 +1533,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>33.500527546296297</v>
+        <v>33.500468402777777</v>
       </c>
       <c r="C20" s="2">
-        <v>36557.500527546297</v>
+        <v>36557.500468402781</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -1547,19 +1565,19 @@
         <v>10</v>
       </c>
       <c r="B21" s="2">
-        <v>33.500605439814812</v>
+        <v>33.500483217592596</v>
       </c>
       <c r="C21" s="2">
-        <v>36557.500605439818</v>
+        <v>36557.500483217591</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>55</v>
@@ -1576,57 +1594,57 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>33.500527546296297</v>
+      </c>
+      <c r="C22" s="2">
+        <v>36557.500527546297</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3">
-        <v>33.500815393518522</v>
-      </c>
-      <c r="C22" s="3">
-        <v>33.500815393518522</v>
-      </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-      <c r="E22">
-        <v>309</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="3">
-        <v>33.500824189814814</v>
-      </c>
-      <c r="C23" s="3">
-        <v>33.500824189814814</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>33.500605439814812</v>
+      </c>
+      <c r="C23" s="2">
+        <v>36557.500605439818</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>432</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1640,25 +1658,25 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500884259259259</v>
+        <v>33.500792939814815</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500884259259259</v>
+        <v>33.500792939814815</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24">
-        <v>293</v>
+        <v>367</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1667,30 +1685,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500970486111115</v>
+        <v>33.500799652777779</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500970486111115</v>
+        <v>33.500799652777779</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>254</v>
+        <v>349</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1699,30 +1717,30 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500977777777777</v>
+        <v>33.500815393518522</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500977777777777</v>
+        <v>33.500815393518522</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1731,30 +1749,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3">
-        <v>33.50098784722222</v>
+        <v>33.500824189814814</v>
       </c>
       <c r="C27" s="3">
-        <v>33.50098784722222</v>
+        <v>33.500824189814814</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>223</v>
+        <v>432</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1768,25 +1786,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3">
-        <v>33.500997569444444</v>
+        <v>33.500884259259259</v>
       </c>
       <c r="C28" s="3">
-        <v>33.500997569444444</v>
+        <v>33.500884259259259</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1795,30 +1813,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3">
-        <v>33.50102303240741</v>
+        <v>33.500970486111115</v>
       </c>
       <c r="C29" s="3">
-        <v>33.50102303240741</v>
+        <v>33.500970486111115</v>
       </c>
       <c r="D29">
         <v>8</v>
       </c>
       <c r="E29">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1827,30 +1845,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B30" s="3">
-        <v>33.501043287037035</v>
+        <v>33.500977777777777</v>
       </c>
       <c r="C30" s="3">
-        <v>33.501043287037035</v>
+        <v>33.500977777777777</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1859,62 +1877,62 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3">
-        <v>33.501067245370372</v>
+        <v>33.50098784722222</v>
       </c>
       <c r="C31" s="3">
-        <v>33.501067245370372</v>
+        <v>33.50098784722222</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" t="s">
         <v>70</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500997569444444</v>
       </c>
       <c r="C32" s="3">
-        <v>33.501091319444441</v>
+        <v>33.500997569444444</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1928,25 +1946,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3">
-        <v>33.501093981481482</v>
+        <v>33.50102303240741</v>
       </c>
       <c r="C33" s="3">
-        <v>33.501093981481482</v>
+        <v>33.50102303240741</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1955,30 +1973,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501208449074078</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501208449074078</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1987,27 +2005,27 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3">
-        <v>33.50121990740741</v>
+        <v>33.501067245370372</v>
       </c>
       <c r="C35" s="3">
-        <v>33.50121990740741</v>
+        <v>33.501067245370372</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
         <v>75</v>
@@ -2024,57 +2042,57 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="3">
+        <v>33.501091319444441</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33.501091319444441</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="3">
-        <v>33.501679629629628</v>
-      </c>
-      <c r="C36" s="3">
-        <v>33.501679629629628</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>540</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B37" s="3">
-        <v>33.501776041666666</v>
+        <v>33.501093981481482</v>
       </c>
       <c r="C37" s="3">
-        <v>33.501776041666666</v>
+        <v>33.501093981481482</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>416</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -2083,30 +2101,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501776157407406</v>
+        <v>33.501208449074078</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501776157407406</v>
+        <v>33.501208449074078</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2115,30 +2133,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3">
-        <v>33.501849652777778</v>
+        <v>33.50121990740741</v>
       </c>
       <c r="C39" s="3">
-        <v>33.501849652777778</v>
+        <v>33.50121990740741</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E39">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2147,30 +2165,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B40" s="3">
-        <v>33.501904282407409</v>
+        <v>33.501679629629628</v>
       </c>
       <c r="C40" s="3">
-        <v>33.501904282407409</v>
+        <v>33.501679629629628</v>
       </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40">
-        <v>275</v>
+        <v>540</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -2179,30 +2197,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B41" s="3">
-        <v>33.501958217592595</v>
+        <v>33.501682060185182</v>
       </c>
       <c r="C41" s="3">
-        <v>33.501958217592595</v>
+        <v>33.501682060185182</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41">
-        <v>223</v>
+        <v>388</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2211,30 +2229,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B42" s="3">
-        <v>33.502043055555554</v>
+        <v>33.501776041666666</v>
       </c>
       <c r="C42" s="3">
-        <v>33.502043055555554</v>
+        <v>33.501776041666666</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>284</v>
+        <v>416</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2243,30 +2261,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B43" s="3">
-        <v>33.502131944444443</v>
+        <v>33.501776157407406</v>
       </c>
       <c r="C43" s="3">
-        <v>33.502131944444443</v>
+        <v>33.501776157407406</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E43">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2275,62 +2293,62 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3">
-        <v>33.50223599537037</v>
+        <v>33.501849652777778</v>
       </c>
       <c r="C44" s="3">
-        <v>33.50223599537037</v>
+        <v>33.501849652777778</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
         <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3">
-        <v>33.502293055555555</v>
+        <v>33.501904282407409</v>
       </c>
       <c r="C45" s="3">
-        <v>33.502293055555555</v>
+        <v>33.501904282407409</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2339,30 +2357,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B46" s="3">
-        <v>33.50444803240741</v>
+        <v>33.501958217592595</v>
       </c>
       <c r="C46" s="3">
-        <v>33.50444803240741</v>
+        <v>33.501958217592595</v>
       </c>
       <c r="D46">
         <v>10</v>
       </c>
       <c r="E46">
-        <v>574</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2371,30 +2389,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3">
-        <v>33.504587962962965</v>
+        <v>33.502043055555554</v>
       </c>
       <c r="C47" s="3">
-        <v>33.504587962962965</v>
+        <v>33.502043055555554</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>502</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2403,30 +2421,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3">
-        <v>33.504602083333332</v>
+        <v>33.502131944444443</v>
       </c>
       <c r="C48" s="3">
-        <v>33.504602083333332</v>
+        <v>33.502131944444443</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>495</v>
+        <v>206</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2440,25 +2458,25 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3">
-        <v>33.504829513888886</v>
+        <v>33.50223599537037</v>
       </c>
       <c r="C49" s="3">
-        <v>33.504829513888886</v>
+        <v>33.50223599537037</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2467,30 +2485,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B50" s="3">
-        <v>33.504930208333334</v>
+        <v>33.502293055555555</v>
       </c>
       <c r="C50" s="3">
-        <v>33.504930208333334</v>
+        <v>33.502293055555555</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G50" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2499,30 +2517,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B51" s="3">
-        <v>33.505689699074075</v>
+        <v>33.50444803240741</v>
       </c>
       <c r="C51" s="3">
-        <v>33.505689699074075</v>
+        <v>33.50444803240741</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>207</v>
+        <v>574</v>
       </c>
       <c r="F51" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2531,30 +2549,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="2">
-        <v>33.500457060185184</v>
-      </c>
-      <c r="C52" s="2">
-        <v>36557.500457060189</v>
+        <v>91</v>
+      </c>
+      <c r="B52" s="3">
+        <v>33.504587962962965</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33.504587962962965</v>
       </c>
       <c r="D52">
         <v>10</v>
       </c>
       <c r="E52">
-        <v>336</v>
+        <v>502</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2563,62 +2581,62 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="3">
+        <v>33.504602083333332</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33.504602083333332</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>495</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" t="s">
         <v>95</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33.500493865740744</v>
-      </c>
-      <c r="C53" s="2">
-        <v>36557.500493865744</v>
-      </c>
-      <c r="D53">
-        <v>9</v>
-      </c>
-      <c r="E53">
-        <v>338</v>
-      </c>
-      <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
-      <c r="H53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="2">
-        <v>33.500506134259261</v>
-      </c>
-      <c r="C54" s="2">
-        <v>36557.50050613426</v>
+        <v>91</v>
+      </c>
+      <c r="B54" s="3">
+        <v>33.504604629629632</v>
+      </c>
+      <c r="C54" s="3">
+        <v>33.504604629629632</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E54">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2627,30 +2645,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="2">
-        <v>33.50051087962963</v>
-      </c>
-      <c r="C55" s="2">
-        <v>36557.500510879632</v>
+        <v>91</v>
+      </c>
+      <c r="B55" s="3">
+        <v>33.504668518518521</v>
+      </c>
+      <c r="C55" s="3">
+        <v>33.504668518518521</v>
       </c>
       <c r="D55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2659,30 +2677,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="2">
-        <v>33.500535648148151</v>
-      </c>
-      <c r="C56" s="2">
-        <v>36557.500535648149</v>
+        <v>91</v>
+      </c>
+      <c r="B56" s="3">
+        <v>33.504829513888886</v>
+      </c>
+      <c r="C56" s="3">
+        <v>33.504829513888886</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2691,30 +2709,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="2">
-        <v>33.500547569444443</v>
-      </c>
-      <c r="C57" s="2">
-        <v>36557.500547569442</v>
+        <v>91</v>
+      </c>
+      <c r="B57" s="3">
+        <v>33.504930208333334</v>
+      </c>
+      <c r="C57" s="3">
+        <v>33.504930208333334</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2723,62 +2741,62 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="2">
-        <v>33.500567592592596</v>
-      </c>
-      <c r="C58" s="2">
-        <v>36557.500567592593</v>
+        <v>91</v>
+      </c>
+      <c r="B58" s="3">
+        <v>33.505689699074075</v>
+      </c>
+      <c r="C58" s="3">
+        <v>33.505689699074075</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E58">
+        <v>207</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" t="s">
         <v>100</v>
-      </c>
-      <c r="F58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H58" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2">
-        <v>33.500584259259256</v>
+        <v>33.500457060185184</v>
       </c>
       <c r="C59" s="2">
-        <v>36557.500584259258</v>
+        <v>36557.500457060189</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2787,30 +2805,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2">
-        <v>33.500597685185184</v>
+        <v>33.500493865740744</v>
       </c>
       <c r="C60" s="2">
-        <v>36557.500597685183</v>
+        <v>36557.500493865744</v>
       </c>
       <c r="D60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E60">
-        <v>37</v>
+        <v>338</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2819,30 +2837,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2">
-        <v>33.500634606481484</v>
+        <v>33.500506134259261</v>
       </c>
       <c r="C61" s="2">
-        <v>36557.500634606484</v>
+        <v>36557.50050613426</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>292</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2851,30 +2869,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2">
-        <v>33.500665046296298</v>
+        <v>33.50051087962963</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500665046296</v>
+        <v>36557.500510879632</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2883,30 +2901,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" s="3">
-        <v>33.501153472222221</v>
-      </c>
-      <c r="C63" s="3">
-        <v>33.501153472222221</v>
+        <v>101</v>
+      </c>
+      <c r="B63" s="2">
+        <v>33.500535648148151</v>
+      </c>
+      <c r="C63" s="2">
+        <v>36557.500535648149</v>
       </c>
       <c r="D63">
         <v>9</v>
       </c>
       <c r="E63">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2915,30 +2933,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="3">
-        <v>33.501244675925925</v>
-      </c>
-      <c r="C64" s="3">
-        <v>33.501244675925925</v>
+        <v>101</v>
+      </c>
+      <c r="B64" s="2">
+        <v>33.500547569444443</v>
+      </c>
+      <c r="C64" s="2">
+        <v>36557.500547569442</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2947,30 +2965,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="2">
+        <v>33.500567592592596</v>
+      </c>
+      <c r="C65" s="2">
+        <v>36557.500567592593</v>
+      </c>
+      <c r="D65">
+        <v>8</v>
+      </c>
+      <c r="E65">
         <v>100</v>
       </c>
-      <c r="B65" s="2">
-        <v>33.500489120370368</v>
-      </c>
-      <c r="C65" s="2">
-        <v>36557.500489120372</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <v>451</v>
-      </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2979,30 +2997,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2">
-        <v>33.500497569444441</v>
+        <v>33.500584259259256</v>
       </c>
       <c r="C66" s="2">
-        <v>36557.500497569446</v>
+        <v>36557.500584259258</v>
       </c>
       <c r="D66">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -3011,30 +3029,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500517013888889</v>
+        <v>33.500597685185184</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.50051701389</v>
+        <v>36557.500597685183</v>
       </c>
       <c r="D67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E67">
-        <v>346</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -3043,30 +3061,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2">
-        <v>33.500535879629631</v>
+        <v>33.500634606481484</v>
       </c>
       <c r="C68" s="2">
-        <v>36557.500535879626</v>
+        <v>36557.500634606484</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -3075,30 +3093,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2">
-        <v>33.500549189814812</v>
+        <v>33.500665046296298</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.500549189812</v>
+        <v>36557.500665046296</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E69">
-        <v>236</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -3107,30 +3125,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="2">
-        <v>33.500551041666668</v>
-      </c>
-      <c r="C70" s="2">
-        <v>36557.500551041667</v>
+        <v>104</v>
+      </c>
+      <c r="B70" s="3">
+        <v>33.501153472222221</v>
+      </c>
+      <c r="C70" s="3">
+        <v>33.501153472222221</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3139,30 +3157,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="2">
-        <v>33.500573495370368</v>
-      </c>
-      <c r="C71" s="2">
-        <v>36557.500573495374</v>
+        <v>104</v>
+      </c>
+      <c r="B71" s="3">
+        <v>33.501244675925925</v>
+      </c>
+      <c r="C71" s="3">
+        <v>33.501244675925925</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71">
-        <v>315</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3171,30 +3189,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2">
-        <v>33.500586805555557</v>
+        <v>33.500489120370368</v>
       </c>
       <c r="C72" s="2">
-        <v>36557.500586805552</v>
+        <v>36557.500489120372</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>273</v>
+        <v>451</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3203,30 +3221,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2">
-        <v>33.500610300925928</v>
+        <v>33.500497569444441</v>
       </c>
       <c r="C73" s="2">
-        <v>36557.500610300929</v>
+        <v>36557.500497569446</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3235,30 +3253,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2">
-        <v>33.500645254629632</v>
+        <v>33.500517013888889</v>
       </c>
       <c r="C74" s="2">
-        <v>36557.500645254629</v>
+        <v>36557.50051701389</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3267,30 +3285,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2">
-        <v>33.500646875000001</v>
+        <v>33.500535879629631</v>
       </c>
       <c r="C75" s="2">
-        <v>36557.500646875</v>
+        <v>36557.500535879626</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3299,30 +3317,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B76" s="3">
-        <v>33.500740624999999</v>
-      </c>
-      <c r="C76" s="3">
-        <v>33.500740624999999</v>
+        <v>106</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.500549189814812</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.500549189812</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3331,30 +3349,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="3">
-        <v>33.500785416666666</v>
-      </c>
-      <c r="C77" s="3">
-        <v>33.500785416666666</v>
+        <v>106</v>
+      </c>
+      <c r="B77" s="2">
+        <v>33.500551041666668</v>
+      </c>
+      <c r="C77" s="2">
+        <v>36557.500551041667</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>390</v>
       </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G77" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3363,30 +3381,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B78" s="3">
-        <v>33.501052083333335</v>
-      </c>
-      <c r="C78" s="3">
-        <v>33.501052083333335</v>
+        <v>106</v>
+      </c>
+      <c r="B78" s="2">
+        <v>33.500573495370368</v>
+      </c>
+      <c r="C78" s="2">
+        <v>36557.500573495374</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3395,30 +3413,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>101</v>
-      </c>
-      <c r="B79" s="3">
-        <v>33.501075231481479</v>
-      </c>
-      <c r="C79" s="3">
-        <v>33.501075231481479</v>
+        <v>106</v>
+      </c>
+      <c r="B79" s="2">
+        <v>33.500586805555557</v>
+      </c>
+      <c r="C79" s="2">
+        <v>36557.500586805552</v>
       </c>
       <c r="D79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E79">
-        <v>444</v>
+        <v>273</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3427,30 +3445,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="3">
-        <v>33.501084490740737</v>
-      </c>
-      <c r="C80" s="3">
-        <v>33.501084490740737</v>
+        <v>106</v>
+      </c>
+      <c r="B80" s="2">
+        <v>33.500610300925928</v>
+      </c>
+      <c r="C80" s="2">
+        <v>36557.500610300929</v>
       </c>
       <c r="D80">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80">
-        <v>427</v>
+        <v>203</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3459,30 +3477,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="3">
-        <v>33.501115740740744</v>
-      </c>
-      <c r="C81" s="3">
-        <v>33.501115740740744</v>
+        <v>106</v>
+      </c>
+      <c r="B81" s="2">
+        <v>33.500645254629632</v>
+      </c>
+      <c r="C81" s="2">
+        <v>36557.500645254629</v>
       </c>
       <c r="D81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E81">
-        <v>374</v>
+        <v>111</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3491,30 +3509,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" s="3">
-        <v>33.501129629629631</v>
-      </c>
-      <c r="C82" s="3">
-        <v>33.501129629629631</v>
+        <v>106</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.500646875000001</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36557.500646875</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E82">
-        <v>351</v>
+        <v>107</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3523,27 +3541,27 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B83" s="3">
-        <v>33.501140393518519</v>
+        <v>33.500740624999999</v>
       </c>
       <c r="C83" s="3">
-        <v>33.501140393518519</v>
+        <v>33.500740624999999</v>
       </c>
       <c r="D83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E83">
-        <v>333</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
         <v>80</v>
@@ -3555,30 +3573,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B84" s="3">
-        <v>33.501201388888887</v>
+        <v>33.500785416666666</v>
       </c>
       <c r="C84" s="3">
-        <v>33.501201388888887</v>
+        <v>33.500785416666666</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>405</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3587,30 +3605,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B85" s="3">
-        <v>33.501271412037035</v>
+        <v>33.501026157407409</v>
       </c>
       <c r="C85" s="3">
-        <v>33.501271412037035</v>
+        <v>33.501026157407409</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3619,30 +3637,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B86" s="3">
-        <v>33.501296643518522</v>
+        <v>33.501052083333335</v>
       </c>
       <c r="C86" s="3">
-        <v>33.501296643518522</v>
+        <v>33.501052083333335</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3651,30 +3669,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B87" s="3">
-        <v>33.501410069444447</v>
+        <v>33.501056134259258</v>
       </c>
       <c r="C87" s="3">
-        <v>33.501410069444447</v>
+        <v>33.501056134259258</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3683,30 +3701,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B88" s="3">
-        <v>33.501443055555555</v>
+        <v>33.501075231481479</v>
       </c>
       <c r="C88" s="3">
-        <v>33.501443055555555</v>
+        <v>33.501075231481479</v>
       </c>
       <c r="D88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E88">
-        <v>85</v>
+        <v>444</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3715,30 +3733,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89" s="2">
-        <v>33.500384259259256</v>
-      </c>
-      <c r="C89" s="2">
-        <v>36557.500384259256</v>
+        <v>107</v>
+      </c>
+      <c r="B89" s="3">
+        <v>33.501084490740737</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33.501084490740737</v>
       </c>
       <c r="D89">
         <v>10</v>
       </c>
       <c r="E89">
-        <v>622</v>
+        <v>427</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3747,30 +3765,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
-      </c>
-      <c r="B90" s="2">
-        <v>33.500387847222221</v>
-      </c>
-      <c r="C90" s="2">
-        <v>36557.50038784722</v>
+        <v>107</v>
+      </c>
+      <c r="B90" s="3">
+        <v>33.501115740740744</v>
+      </c>
+      <c r="C90" s="3">
+        <v>33.501115740740744</v>
       </c>
       <c r="D90">
         <v>10</v>
       </c>
       <c r="E90">
-        <v>605</v>
+        <v>374</v>
       </c>
       <c r="F90" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3779,30 +3797,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="2">
-        <v>33.500399421296294</v>
-      </c>
-      <c r="C91" s="2">
-        <v>36557.500399421297</v>
+        <v>107</v>
+      </c>
+      <c r="B91" s="3">
+        <v>33.501129629629631</v>
+      </c>
+      <c r="C91" s="3">
+        <v>33.501129629629631</v>
       </c>
       <c r="D91">
         <v>10</v>
       </c>
       <c r="E91">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
       </c>
       <c r="G91" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3811,30 +3829,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="2">
-        <v>33.500424652777781</v>
-      </c>
-      <c r="C92" s="2">
-        <v>36557.500424652775</v>
+        <v>107</v>
+      </c>
+      <c r="B92" s="3">
+        <v>33.501140393518519</v>
+      </c>
+      <c r="C92" s="3">
+        <v>33.501140393518519</v>
       </c>
       <c r="D92">
         <v>10</v>
       </c>
       <c r="E92">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3843,30 +3861,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="2">
-        <v>33.50042627314815</v>
-      </c>
-      <c r="C93" s="2">
-        <v>36557.500426273145</v>
+        <v>107</v>
+      </c>
+      <c r="B93" s="3">
+        <v>33.501201388888887</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33.501201388888887</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>293</v>
+        <v>405</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3875,30 +3893,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="2">
-        <v>33.50042928240741</v>
-      </c>
-      <c r="C94" s="2">
-        <v>36557.500429282409</v>
+        <v>107</v>
+      </c>
+      <c r="B94" s="3">
+        <v>33.501271412037035</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.501271412037035</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3907,30 +3925,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" s="2">
-        <v>33.500433564814813</v>
-      </c>
-      <c r="C95" s="2">
-        <v>36557.500433564812</v>
+        <v>107</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.501296643518522</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.501296643518522</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3939,30 +3957,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="2">
-        <v>33.500434374999998</v>
-      </c>
-      <c r="C96" s="2">
-        <v>36557.500434374997</v>
+        <v>107</v>
+      </c>
+      <c r="B96" s="3">
+        <v>33.501410069444447</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33.501410069444447</v>
       </c>
       <c r="D96">
         <v>9</v>
       </c>
       <c r="E96">
-        <v>534</v>
+        <v>120</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3971,30 +3989,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
-      </c>
-      <c r="B97" s="2">
-        <v>33.50044583333333</v>
-      </c>
-      <c r="C97" s="2">
-        <v>36557.500445833335</v>
+        <v>107</v>
+      </c>
+      <c r="B97" s="3">
+        <v>33.501443055555555</v>
+      </c>
+      <c r="C97" s="3">
+        <v>33.501443055555555</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E97">
-        <v>486</v>
+        <v>85</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -4003,30 +4021,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2">
-        <v>33.500455208333335</v>
+        <v>33.500384259259256</v>
       </c>
       <c r="C98" s="2">
-        <v>36557.500455208334</v>
+        <v>36557.500384259256</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98">
-        <v>448</v>
+        <v>622</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -4035,30 +4053,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2">
-        <v>33.500455671296294</v>
+        <v>33.500387847222221</v>
       </c>
       <c r="C99" s="2">
-        <v>36557.500455671296</v>
+        <v>36557.50038784722</v>
       </c>
       <c r="D99">
         <v>10</v>
       </c>
       <c r="E99">
-        <v>316</v>
+        <v>605</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="G99" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -4067,30 +4085,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2">
-        <v>33.500464236111114</v>
+        <v>33.500395949074075</v>
       </c>
       <c r="C100" s="2">
-        <v>36557.500464236109</v>
+        <v>36557.500395949071</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -4099,30 +4117,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2">
-        <v>33.50047835648148</v>
+        <v>33.500399421296294</v>
       </c>
       <c r="C101" s="2">
-        <v>36557.50047835648</v>
+        <v>36557.500399421297</v>
       </c>
       <c r="D101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>360</v>
+        <v>551</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4131,30 +4149,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2">
-        <v>33.500490046296299</v>
+        <v>33.500424652777781</v>
       </c>
       <c r="C102" s="2">
-        <v>36557.500490046295</v>
+        <v>36557.500424652775</v>
       </c>
       <c r="D102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>319</v>
+        <v>439</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4163,30 +4181,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103" s="2">
-        <v>33.500513078703705</v>
+        <v>33.50042627314815</v>
       </c>
       <c r="C103" s="2">
-        <v>36557.500513078703</v>
+        <v>36557.500426273145</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4195,30 +4213,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B104" s="2">
-        <v>33.500515509259259</v>
+        <v>33.50042928240741</v>
       </c>
       <c r="C104" s="2">
-        <v>36557.500515509259</v>
+        <v>36557.500429282409</v>
       </c>
       <c r="D104">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>235</v>
+        <v>420</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4227,30 +4245,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
-        <v>33.500534143518522</v>
+        <v>33.500433564814813</v>
       </c>
       <c r="C105" s="2">
-        <v>36557.500534143517</v>
+        <v>36557.500433564812</v>
       </c>
       <c r="D105">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E105">
-        <v>181</v>
+        <v>402</v>
       </c>
       <c r="F105" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G105" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4259,30 +4277,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>33.500534953703706</v>
+        <v>33.500434374999998</v>
       </c>
       <c r="C106" s="2">
-        <v>36557.500534953702</v>
+        <v>36557.500434374997</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E106">
-        <v>178</v>
+        <v>534</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4291,30 +4309,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2">
-        <v>33.500541319444444</v>
+        <v>33.50044583333333</v>
       </c>
       <c r="C107" s="2">
-        <v>36557.500541319445</v>
+        <v>36557.500445833335</v>
       </c>
       <c r="D107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="F107" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4323,30 +4341,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2">
-        <v>33.500557870370372</v>
+        <v>33.500455208333335</v>
       </c>
       <c r="C108" s="2">
-        <v>36557.500557870371</v>
+        <v>36557.500455208334</v>
       </c>
       <c r="D108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E108">
-        <v>119</v>
+        <v>448</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4355,30 +4373,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" s="3">
-        <v>33.500898379629632</v>
-      </c>
-      <c r="C109" s="3">
-        <v>33.500898379629632</v>
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>33.500455671296294</v>
+      </c>
+      <c r="C109" s="2">
+        <v>36557.500455671296</v>
       </c>
       <c r="D109">
         <v>10</v>
       </c>
       <c r="E109">
-        <v>548</v>
+        <v>316</v>
       </c>
       <c r="F109" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4387,30 +4405,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" s="3">
-        <v>33.500972453703703</v>
-      </c>
-      <c r="C110" s="3">
-        <v>33.500972453703703</v>
+        <v>110</v>
+      </c>
+      <c r="B110" s="2">
+        <v>33.500464236111114</v>
+      </c>
+      <c r="C110" s="2">
+        <v>36557.500464236109</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>547</v>
+        <v>284</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4419,30 +4437,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
-      </c>
-      <c r="B111" s="3">
-        <v>33.500980787037037</v>
-      </c>
-      <c r="C111" s="3">
-        <v>33.500980787037037</v>
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
+        <v>33.50047835648148</v>
+      </c>
+      <c r="C111" s="2">
+        <v>36557.50047835648</v>
       </c>
       <c r="D111">
         <v>9</v>
       </c>
       <c r="E111">
-        <v>531</v>
+        <v>360</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4451,30 +4469,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
-      </c>
-      <c r="B112" s="3">
-        <v>33.50099050925926</v>
-      </c>
-      <c r="C112" s="3">
-        <v>33.50099050925926</v>
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>33.500490046296299</v>
+      </c>
+      <c r="C112" s="2">
+        <v>36557.500490046295</v>
       </c>
       <c r="D112">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4483,30 +4501,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>106</v>
-      </c>
-      <c r="B113" s="3">
-        <v>33.501021180555554</v>
-      </c>
-      <c r="C113" s="3">
-        <v>33.501021180555554</v>
+        <v>110</v>
+      </c>
+      <c r="B113" s="2">
+        <v>33.500513078703705</v>
+      </c>
+      <c r="C113" s="2">
+        <v>36557.500513078703</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4515,30 +4533,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>106</v>
-      </c>
-      <c r="B114" s="3">
-        <v>33.501040625000002</v>
-      </c>
-      <c r="C114" s="3">
-        <v>33.501040625000002</v>
+        <v>110</v>
+      </c>
+      <c r="B114" s="2">
+        <v>33.500515509259259</v>
+      </c>
+      <c r="C114" s="2">
+        <v>36557.500515509259</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G114" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4547,30 +4565,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>106</v>
-      </c>
-      <c r="B115" s="3">
-        <v>33.501055324074073</v>
-      </c>
-      <c r="C115" s="3">
-        <v>33.501055324074073</v>
+        <v>110</v>
+      </c>
+      <c r="B115" s="2">
+        <v>33.500534143518522</v>
+      </c>
+      <c r="C115" s="2">
+        <v>36557.500534143517</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E115">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4579,30 +4597,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="3">
-        <v>33.501086111111114</v>
-      </c>
-      <c r="C116" s="3">
-        <v>33.501086111111114</v>
+        <v>110</v>
+      </c>
+      <c r="B116" s="2">
+        <v>33.500534953703706</v>
+      </c>
+      <c r="C116" s="2">
+        <v>36557.500534953702</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4611,30 +4629,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>106</v>
-      </c>
-      <c r="B117" s="3">
-        <v>33.501090509259257</v>
-      </c>
-      <c r="C117" s="3">
-        <v>33.501090509259257</v>
+        <v>110</v>
+      </c>
+      <c r="B117" s="2">
+        <v>33.500541319444444</v>
+      </c>
+      <c r="C117" s="2">
+        <v>36557.500541319445</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4643,30 +4661,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>106</v>
-      </c>
-      <c r="B118" s="3">
-        <v>33.501134606481479</v>
-      </c>
-      <c r="C118" s="3">
-        <v>33.501134606481479</v>
+        <v>110</v>
+      </c>
+      <c r="B118" s="2">
+        <v>33.500557870370372</v>
+      </c>
+      <c r="C118" s="2">
+        <v>36557.500557870371</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="F118" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4675,30 +4693,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B119" s="3">
-        <v>33.501383564814816</v>
+        <v>33.500893171296298</v>
       </c>
       <c r="C119" s="3">
-        <v>33.501383564814816</v>
+        <v>33.500893171296298</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>18</v>
+        <v>420</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4707,30 +4725,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B120" s="3">
-        <v>33.501404629629633</v>
+        <v>33.500898379629632</v>
       </c>
       <c r="C120" s="3">
-        <v>33.501404629629633</v>
+        <v>33.500898379629632</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>548</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G120" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4739,27 +4757,27 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B121" s="3">
-        <v>33.500940277777779</v>
+        <v>33.500920949074072</v>
       </c>
       <c r="C121" s="3">
-        <v>33.500940277777779</v>
+        <v>33.500920949074072</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -4776,25 +4794,25 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B122" s="3">
-        <v>33.500970023148149</v>
+        <v>33.500972453703703</v>
       </c>
       <c r="C122" s="3">
-        <v>33.500970023148149</v>
+        <v>33.500972453703703</v>
       </c>
       <c r="D122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E122">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4803,30 +4821,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B123" s="3">
-        <v>33.500980324074071</v>
+        <v>33.500980787037037</v>
       </c>
       <c r="C123" s="3">
-        <v>33.500980324074071</v>
+        <v>33.500980787037037</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E123">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4835,62 +4853,62 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B124" s="3">
-        <v>33.501085300925929</v>
+        <v>33.50099050925926</v>
       </c>
       <c r="C124" s="3">
-        <v>33.501085300925929</v>
+        <v>33.50099050925926</v>
       </c>
       <c r="D124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="F124" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
         <v>28</v>
-      </c>
-      <c r="G124" t="s">
-        <v>62</v>
-      </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-      <c r="I124" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B125" s="3">
-        <v>33.501090972222222</v>
+        <v>33.501021180555554</v>
       </c>
       <c r="C125" s="3">
-        <v>33.501090972222222</v>
+        <v>33.501021180555554</v>
       </c>
       <c r="D125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4899,30 +4917,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B126" s="3">
-        <v>33.501093402777776</v>
+        <v>33.501040625000002</v>
       </c>
       <c r="C126" s="3">
-        <v>33.501093402777776</v>
+        <v>33.501040625000002</v>
       </c>
       <c r="D126">
         <v>10</v>
       </c>
       <c r="E126">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="F126" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4931,30 +4949,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B127" s="3">
-        <v>33.501146990740743</v>
+        <v>33.501055324074073</v>
       </c>
       <c r="C127" s="3">
-        <v>33.501146990740743</v>
+        <v>33.501055324074073</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4963,30 +4981,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B128" s="3">
-        <v>33.50115671296296</v>
+        <v>33.501086111111114</v>
       </c>
       <c r="C128" s="3">
-        <v>33.50115671296296</v>
+        <v>33.501086111111114</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E128">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -4995,30 +5013,30 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B129" s="3">
-        <v>33.501182870370371</v>
+        <v>33.501090509259257</v>
       </c>
       <c r="C129" s="3">
-        <v>33.501182870370371</v>
+        <v>33.501090509259257</v>
       </c>
       <c r="D129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E129">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -5027,30 +5045,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B130" s="3">
-        <v>33.501227199074073</v>
+        <v>33.501134606481479</v>
       </c>
       <c r="C130" s="3">
-        <v>33.501227199074073</v>
+        <v>33.501134606481479</v>
       </c>
       <c r="D130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -5059,30 +5077,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B131" s="3">
-        <v>33.501233333333332</v>
+        <v>33.501383564814816</v>
       </c>
       <c r="C131" s="3">
-        <v>33.501233333333332</v>
+        <v>33.501383564814816</v>
       </c>
       <c r="D131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -5091,7 +5109,7 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5099,22 +5117,22 @@
         <v>112</v>
       </c>
       <c r="B132" s="3">
-        <v>33.501959837962964</v>
+        <v>33.501404629629633</v>
       </c>
       <c r="C132" s="3">
-        <v>33.501959837962964</v>
+        <v>33.501404629629633</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E132">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -5123,30 +5141,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B133" s="3">
-        <v>33.502083449074071</v>
+        <v>33.500940277777779</v>
       </c>
       <c r="C133" s="3">
-        <v>33.502083449074071</v>
+        <v>33.500940277777779</v>
       </c>
       <c r="D133">
         <v>10</v>
       </c>
       <c r="E133">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5155,30 +5173,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B134" s="3">
-        <v>33.502129976851855</v>
+        <v>33.500970023148149</v>
       </c>
       <c r="C134" s="3">
-        <v>33.502129976851855</v>
+        <v>33.500970023148149</v>
       </c>
       <c r="D134">
         <v>10</v>
       </c>
       <c r="E134">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5187,30 +5205,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B135" s="3">
-        <v>33.502315046296296</v>
+        <v>33.500980324074071</v>
       </c>
       <c r="C135" s="3">
-        <v>33.502315046296296</v>
+        <v>33.500980324074071</v>
       </c>
       <c r="D135">
         <v>10</v>
       </c>
       <c r="E135">
-        <v>193</v>
+        <v>372</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5219,30 +5237,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B136" s="3">
-        <v>33.502557523148148</v>
+        <v>33.501085300925929</v>
       </c>
       <c r="C136" s="3">
-        <v>33.502557523148148</v>
+        <v>33.501085300925929</v>
       </c>
       <c r="D136">
         <v>9</v>
       </c>
       <c r="E136">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5251,30 +5269,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="2">
-        <v>33.50039537037037</v>
-      </c>
-      <c r="C137" s="2">
-        <v>36557.500395370371</v>
+        <v>116</v>
+      </c>
+      <c r="B137" s="3">
+        <v>33.501090972222222</v>
+      </c>
+      <c r="C137" s="3">
+        <v>33.501090972222222</v>
       </c>
       <c r="D137">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E137">
-        <v>499</v>
+        <v>311</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G137" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5283,30 +5301,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>10</v>
-      </c>
-      <c r="B138" s="2">
-        <v>33.500400810185184</v>
-      </c>
-      <c r="C138" s="2">
-        <v>36557.500400810182</v>
+        <v>116</v>
+      </c>
+      <c r="B138" s="3">
+        <v>33.501093402777776</v>
+      </c>
+      <c r="C138" s="3">
+        <v>33.501093402777776</v>
       </c>
       <c r="D138">
         <v>10</v>
       </c>
       <c r="E138">
-        <v>591</v>
+        <v>173</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5315,30 +5333,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B139" s="2">
-        <v>33.500427546296294</v>
-      </c>
-      <c r="C139" s="2">
-        <v>36557.5004275463</v>
+        <v>116</v>
+      </c>
+      <c r="B139" s="3">
+        <v>33.501146990740743</v>
+      </c>
+      <c r="C139" s="3">
+        <v>33.501146990740743</v>
       </c>
       <c r="D139">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E139">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G139" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5347,30 +5365,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>10</v>
-      </c>
-      <c r="B140" s="2">
-        <v>33.500437962962963</v>
-      </c>
-      <c r="C140" s="2">
-        <v>36557.500437962961</v>
+        <v>116</v>
+      </c>
+      <c r="B140" s="3">
+        <v>33.50115671296296</v>
+      </c>
+      <c r="C140" s="3">
+        <v>33.50115671296296</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E140">
-        <v>418</v>
+        <v>204</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G140" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5379,30 +5397,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>10</v>
-      </c>
-      <c r="B141" s="2">
-        <v>33.500441782407407</v>
-      </c>
-      <c r="C141" s="2">
-        <v>36557.500441782409</v>
+        <v>116</v>
+      </c>
+      <c r="B141" s="3">
+        <v>33.501182870370371</v>
+      </c>
+      <c r="C141" s="3">
+        <v>33.501182870370371</v>
       </c>
       <c r="D141">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E141">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G141" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5411,30 +5429,30 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>10</v>
-      </c>
-      <c r="B142" s="2">
-        <v>33.500449305555556</v>
-      </c>
-      <c r="C142" s="2">
-        <v>36557.500449305553</v>
+        <v>116</v>
+      </c>
+      <c r="B142" s="3">
+        <v>33.501227199074073</v>
+      </c>
+      <c r="C142" s="3">
+        <v>33.501227199074073</v>
       </c>
       <c r="D142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E142">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5443,30 +5461,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" t="s">
-        <v>125</v>
-      </c>
-      <c r="C143" s="2">
-        <v>36557.500456597219</v>
+        <v>116</v>
+      </c>
+      <c r="B143" s="3">
+        <v>33.501233333333332</v>
+      </c>
+      <c r="C143" s="3">
+        <v>33.501233333333332</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5475,30 +5493,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>10</v>
-      </c>
-      <c r="B144" s="2">
-        <v>33.500464930555559</v>
-      </c>
-      <c r="C144" s="2">
-        <v>36557.500464930556</v>
+        <v>118</v>
+      </c>
+      <c r="B144" s="3">
+        <v>33.501959837962964</v>
+      </c>
+      <c r="C144" s="3">
+        <v>33.501959837962964</v>
       </c>
       <c r="D144">
         <v>10</v>
       </c>
       <c r="E144">
-        <v>305</v>
+        <v>512</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5507,30 +5525,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>10</v>
-      </c>
-      <c r="B145" s="2">
-        <v>33.500486226851855</v>
-      </c>
-      <c r="C145" s="2">
-        <v>36557.500486226854</v>
+        <v>118</v>
+      </c>
+      <c r="B145" s="3">
+        <v>33.501999884259263</v>
+      </c>
+      <c r="C145" s="3">
+        <v>33.501999884259263</v>
       </c>
       <c r="D145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E145">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5539,30 +5557,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" s="2">
-        <v>33.500504513888892</v>
-      </c>
-      <c r="C146" s="2">
-        <v>36557.50050451389</v>
+        <v>118</v>
+      </c>
+      <c r="B146" s="3">
+        <v>33.502083449074071</v>
+      </c>
+      <c r="C146" s="3">
+        <v>33.502083449074071</v>
       </c>
       <c r="D146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5571,30 +5589,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" s="2">
-        <v>33.500546990740737</v>
-      </c>
-      <c r="C147" s="2">
-        <v>36557.500546990741</v>
+        <v>118</v>
+      </c>
+      <c r="B147" s="3">
+        <v>33.502129976851855</v>
+      </c>
+      <c r="C147" s="3">
+        <v>33.502129976851855</v>
       </c>
       <c r="D147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5603,30 +5621,30 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" s="2">
-        <v>33.500551157407408</v>
-      </c>
-      <c r="C148" s="2">
-        <v>36557.500551157405</v>
+        <v>118</v>
+      </c>
+      <c r="B148" s="3">
+        <v>33.502315046296296</v>
+      </c>
+      <c r="C148" s="3">
+        <v>33.502315046296296</v>
       </c>
       <c r="D148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E148">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G148" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5635,30 +5653,30 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="2">
-        <v>33.50057291666667</v>
-      </c>
-      <c r="C149" s="2">
-        <v>36557.500572916666</v>
+        <v>118</v>
+      </c>
+      <c r="B149" s="3">
+        <v>33.502557523148148</v>
+      </c>
+      <c r="C149" s="3">
+        <v>33.502557523148148</v>
       </c>
       <c r="D149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5667,7 +5685,7 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5675,22 +5693,22 @@
         <v>10</v>
       </c>
       <c r="B150" s="2">
-        <v>33.500594097222219</v>
+        <v>33.50039537037037</v>
       </c>
       <c r="C150" s="2">
-        <v>36557.500594097219</v>
+        <v>36557.500395370371</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E150">
-        <v>32</v>
+        <v>499</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5699,30 +5717,30 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>57</v>
-      </c>
-      <c r="B151" s="3">
-        <v>33.50090613425926</v>
-      </c>
-      <c r="C151" s="3">
-        <v>33.50090613425926</v>
+        <v>10</v>
+      </c>
+      <c r="B151" s="2">
+        <v>33.500400810185184</v>
+      </c>
+      <c r="C151" s="2">
+        <v>36557.500400810182</v>
       </c>
       <c r="D151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E151">
-        <v>371</v>
+        <v>591</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5731,30 +5749,30 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>57</v>
-      </c>
-      <c r="B152" s="3">
-        <v>33.500940509259259</v>
-      </c>
-      <c r="C152" s="3">
-        <v>33.500940509259259</v>
+        <v>10</v>
+      </c>
+      <c r="B152" s="2">
+        <v>33.500427546296294</v>
+      </c>
+      <c r="C152" s="2">
+        <v>36557.5004275463</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152">
-        <v>430</v>
+        <v>337</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5763,62 +5781,62 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>57</v>
-      </c>
-      <c r="B153" t="s">
-        <v>143</v>
-      </c>
-      <c r="C153" s="3">
-        <v>33.500942129629628</v>
+        <v>10</v>
+      </c>
+      <c r="B153" s="2">
+        <v>33.500437962962963</v>
+      </c>
+      <c r="C153" s="2">
+        <v>36557.500437962961</v>
       </c>
       <c r="D153">
         <v>10</v>
       </c>
       <c r="E153">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G153" t="s">
+        <v>125</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" t="s">
         <v>126</v>
-      </c>
-      <c r="H153" t="s">
-        <v>13</v>
-      </c>
-      <c r="I153" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>57</v>
-      </c>
-      <c r="B154" s="3">
-        <v>33.500945486111114</v>
-      </c>
-      <c r="C154" s="3">
-        <v>33.500945486111114</v>
+        <v>10</v>
+      </c>
+      <c r="B154" s="2">
+        <v>33.500441782407407</v>
+      </c>
+      <c r="C154" s="2">
+        <v>36557.500441782409</v>
       </c>
       <c r="D154">
         <v>11</v>
       </c>
       <c r="E154">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5827,30 +5845,30 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>57</v>
-      </c>
-      <c r="B155" s="3">
-        <v>33.501006018518517</v>
-      </c>
-      <c r="C155" s="3">
-        <v>33.501006018518517</v>
+        <v>10</v>
+      </c>
+      <c r="B155" s="2">
+        <v>33.500449305555556</v>
+      </c>
+      <c r="C155" s="2">
+        <v>36557.500449305553</v>
       </c>
       <c r="D155">
         <v>10</v>
       </c>
       <c r="E155">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5859,30 +5877,30 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>57</v>
-      </c>
-      <c r="B156" s="3">
-        <v>33.501010648148146</v>
-      </c>
-      <c r="C156" s="3">
-        <v>33.501010648148146</v>
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="2">
+        <v>36557.500456597219</v>
       </c>
       <c r="D156">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="F156" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5891,30 +5909,30 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>57</v>
-      </c>
-      <c r="B157" s="3">
-        <v>33.501031481481483</v>
-      </c>
-      <c r="C157" s="3">
-        <v>33.501031481481483</v>
+        <v>10</v>
+      </c>
+      <c r="B157" s="2">
+        <v>33.500464930555559</v>
+      </c>
+      <c r="C157" s="2">
+        <v>36557.500464930556</v>
       </c>
       <c r="D157">
         <v>10</v>
       </c>
       <c r="E157">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G157" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5923,30 +5941,30 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>57</v>
-      </c>
-      <c r="B158" s="3">
-        <v>33.501119097222222</v>
-      </c>
-      <c r="C158" s="3">
-        <v>33.501119097222222</v>
+        <v>10</v>
+      </c>
+      <c r="B158" s="2">
+        <v>33.500486226851855</v>
+      </c>
+      <c r="C158" s="2">
+        <v>36557.500486226854</v>
       </c>
       <c r="D158">
         <v>9</v>
       </c>
       <c r="E158">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G158" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5955,30 +5973,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>57</v>
-      </c>
-      <c r="B159" s="3">
-        <v>33.501121759259256</v>
-      </c>
-      <c r="C159" s="3">
-        <v>33.501121759259256</v>
+        <v>10</v>
+      </c>
+      <c r="B159" s="2">
+        <v>33.500504513888892</v>
+      </c>
+      <c r="C159" s="2">
+        <v>36557.50050451389</v>
       </c>
       <c r="D159">
         <v>9</v>
       </c>
       <c r="E159">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="F159" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G159" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -5987,30 +6005,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>57</v>
-      </c>
-      <c r="B160" s="3">
-        <v>33.501210532407406</v>
-      </c>
-      <c r="C160" s="3">
-        <v>33.501210532407406</v>
+        <v>10</v>
+      </c>
+      <c r="B160" s="2">
+        <v>33.500546990740737</v>
+      </c>
+      <c r="C160" s="2">
+        <v>36557.500546990741</v>
       </c>
       <c r="D160">
         <v>9</v>
       </c>
       <c r="E160">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G160" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -6019,30 +6037,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>57</v>
-      </c>
-      <c r="B161" s="3">
-        <v>33.501293981481481</v>
-      </c>
-      <c r="C161" s="3">
-        <v>33.501293981481481</v>
+        <v>10</v>
+      </c>
+      <c r="B161" s="2">
+        <v>33.500551157407408</v>
+      </c>
+      <c r="C161" s="2">
+        <v>36557.500551157405</v>
       </c>
       <c r="D161">
         <v>8</v>
       </c>
       <c r="E161">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G161" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -6051,30 +6069,30 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>57</v>
-      </c>
-      <c r="B162" s="3">
-        <v>33.501338888888888</v>
-      </c>
-      <c r="C162" s="3">
-        <v>33.501338888888888</v>
+        <v>10</v>
+      </c>
+      <c r="B162" s="2">
+        <v>33.50057291666667</v>
+      </c>
+      <c r="C162" s="2">
+        <v>36557.500572916666</v>
       </c>
       <c r="D162">
         <v>8</v>
       </c>
       <c r="E162">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G162" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -6083,30 +6101,30 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>57</v>
-      </c>
-      <c r="B163" s="3">
-        <v>33.501492361111112</v>
-      </c>
-      <c r="C163" s="3">
-        <v>33.501492361111112</v>
+        <v>10</v>
+      </c>
+      <c r="B163" s="2">
+        <v>33.500594097222219</v>
+      </c>
+      <c r="C163" s="2">
+        <v>36557.500594097219</v>
       </c>
       <c r="D163">
         <v>8</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G163" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6115,30 +6133,30 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B164" s="3">
-        <v>33.501883796296298</v>
+        <v>33.50090613425926</v>
       </c>
       <c r="C164" s="3">
-        <v>33.501883796296298</v>
+        <v>33.50090613425926</v>
       </c>
       <c r="D164">
         <v>11</v>
       </c>
       <c r="E164">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6147,30 +6165,30 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B165" s="3">
-        <v>33.50206273148148</v>
+        <v>33.500940509259259</v>
       </c>
       <c r="C165" s="3">
-        <v>33.50206273148148</v>
+        <v>33.500940509259259</v>
       </c>
       <c r="D165">
         <v>10</v>
       </c>
       <c r="E165">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6179,30 +6197,30 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>77</v>
-      </c>
-      <c r="B166" s="3">
-        <v>33.502118055555556</v>
+        <v>61</v>
+      </c>
+      <c r="B166" t="s">
+        <v>149</v>
       </c>
       <c r="C166" s="3">
-        <v>33.502118055555556</v>
+        <v>33.500942129629628</v>
       </c>
       <c r="D166">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E166">
-        <v>184</v>
+        <v>426</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6211,30 +6229,30 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B167" s="3">
-        <v>33.502118865740741</v>
+        <v>33.500945486111114</v>
       </c>
       <c r="C167" s="3">
-        <v>33.502118865740741</v>
+        <v>33.500945486111114</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G167" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6243,30 +6261,30 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B168" s="3">
-        <v>33.502254050925927</v>
+        <v>33.501006018518517</v>
       </c>
       <c r="C168" s="3">
-        <v>33.502254050925927</v>
+        <v>33.501006018518517</v>
       </c>
       <c r="D168">
         <v>10</v>
       </c>
       <c r="E168">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6275,30 +6293,30 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B169" s="3">
-        <v>33.502311689814817</v>
+        <v>33.501010648148146</v>
       </c>
       <c r="C169" s="3">
-        <v>33.502311689814817</v>
+        <v>33.501010648148146</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E169">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G169" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6307,30 +6325,30 @@
         <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B170" s="3">
-        <v>33.502363310185189</v>
+        <v>33.501031481481483</v>
       </c>
       <c r="C170" s="3">
-        <v>33.502363310185189</v>
+        <v>33.501031481481483</v>
       </c>
       <c r="D170">
         <v>10</v>
       </c>
       <c r="E170">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="F170" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -6339,30 +6357,30 @@
         <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B171" s="3">
-        <v>33.502400578703707</v>
+        <v>33.501119097222222</v>
       </c>
       <c r="C171" s="3">
-        <v>33.502400578703707</v>
+        <v>33.501119097222222</v>
       </c>
       <c r="D171">
         <v>9</v>
       </c>
       <c r="E171">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="F171" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6371,30 +6389,30 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B172" s="3">
-        <v>33.503997800925923</v>
+        <v>33.501121759259256</v>
       </c>
       <c r="C172" s="3">
-        <v>33.503997800925923</v>
+        <v>33.501121759259256</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E172">
-        <v>390</v>
+        <v>240</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6403,62 +6421,62 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>61</v>
+      </c>
+      <c r="B173" s="3">
+        <v>33.501210532407406</v>
+      </c>
+      <c r="C173" s="3">
+        <v>33.501210532407406</v>
+      </c>
+      <c r="D173">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>115</v>
+      </c>
+      <c r="F173" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" t="s">
+        <v>157</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" t="s">
         <v>158</v>
-      </c>
-      <c r="B173" s="3">
-        <v>33.5041962962963</v>
-      </c>
-      <c r="C173" s="3">
-        <v>33.5041962962963</v>
-      </c>
-      <c r="D173">
-        <v>11</v>
-      </c>
-      <c r="E173">
-        <v>284</v>
-      </c>
-      <c r="F173" t="s">
-        <v>28</v>
-      </c>
-      <c r="G173" t="s">
-        <v>159</v>
-      </c>
-      <c r="H173" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" t="s">
-        <v>14</v>
-      </c>
-      <c r="J173" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="B174" s="3">
-        <v>33.504428703703702</v>
+        <v>33.501293981481481</v>
       </c>
       <c r="C174" s="3">
-        <v>33.504428703703702</v>
+        <v>33.501293981481481</v>
       </c>
       <c r="D174">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E174">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6467,30 +6485,30 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>95</v>
-      </c>
-      <c r="B175" s="2">
-        <v>33.500572453703704</v>
-      </c>
-      <c r="C175" s="2">
-        <v>36557.500572453704</v>
+        <v>61</v>
+      </c>
+      <c r="B175" s="3">
+        <v>33.501338888888888</v>
+      </c>
+      <c r="C175" s="3">
+        <v>33.501338888888888</v>
       </c>
       <c r="D175">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E175">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="F175" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -6499,30 +6517,30 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>95</v>
-      </c>
-      <c r="B176" s="2">
-        <v>33.500599999999999</v>
-      </c>
-      <c r="C176" s="2">
-        <v>36557.500599999999</v>
+        <v>61</v>
+      </c>
+      <c r="B176" s="3">
+        <v>33.501492361111112</v>
+      </c>
+      <c r="C176" s="3">
+        <v>33.501492361111112</v>
       </c>
       <c r="D176">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E176">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -6531,30 +6549,30 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>95</v>
-      </c>
-      <c r="B177" s="2">
-        <v>33.500600347222225</v>
-      </c>
-      <c r="C177" s="2">
-        <v>36557.500600347223</v>
+        <v>82</v>
+      </c>
+      <c r="B177" s="3">
+        <v>33.501883796296298</v>
+      </c>
+      <c r="C177" s="3">
+        <v>33.501883796296298</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>118</v>
+        <v>428</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -6563,30 +6581,30 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>95</v>
-      </c>
-      <c r="B178" s="2">
-        <v>33.50062627314815</v>
-      </c>
-      <c r="C178" s="2">
-        <v>36557.500626273148</v>
+        <v>82</v>
+      </c>
+      <c r="B178" s="3">
+        <v>33.50206273148148</v>
+      </c>
+      <c r="C178" s="3">
+        <v>33.50206273148148</v>
       </c>
       <c r="D178">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E178">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="F178" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -6600,25 +6618,25 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>95</v>
-      </c>
-      <c r="B179" s="2">
-        <v>33.50067974537037</v>
-      </c>
-      <c r="C179" s="2">
-        <v>36557.500679745368</v>
+        <v>82</v>
+      </c>
+      <c r="B179" s="3">
+        <v>33.502118055555556</v>
+      </c>
+      <c r="C179" s="3">
+        <v>33.502118055555556</v>
       </c>
       <c r="D179">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E179">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6627,30 +6645,30 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B180" s="3">
-        <v>33.50073009259259</v>
+        <v>33.502118865740741</v>
       </c>
       <c r="C180" s="3">
-        <v>33.50073009259259</v>
+        <v>33.502118865740741</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -6659,30 +6677,30 @@
         <v>14</v>
       </c>
       <c r="J180" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>100</v>
-      </c>
-      <c r="B181" s="2">
-        <v>33.500653240740739</v>
-      </c>
-      <c r="C181" s="2">
-        <v>36557.500653240742</v>
+        <v>82</v>
+      </c>
+      <c r="B181" s="3">
+        <v>33.502254050925927</v>
+      </c>
+      <c r="C181" s="3">
+        <v>33.502254050925927</v>
       </c>
       <c r="D181">
         <v>10</v>
       </c>
       <c r="E181">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="F181" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6691,30 +6709,30 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>100</v>
-      </c>
-      <c r="B182" s="2">
-        <v>33.500658564814813</v>
-      </c>
-      <c r="C182" s="2">
-        <v>36557.500658564815</v>
+        <v>82</v>
+      </c>
+      <c r="B182" s="3">
+        <v>33.502311689814817</v>
+      </c>
+      <c r="C182" s="3">
+        <v>33.502311689814817</v>
       </c>
       <c r="D182">
         <v>9</v>
       </c>
       <c r="E182">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6723,30 +6741,30 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>100</v>
-      </c>
-      <c r="B183" s="2">
-        <v>33.500660300925929</v>
-      </c>
-      <c r="C183" s="2">
-        <v>36557.500660300924</v>
+        <v>82</v>
+      </c>
+      <c r="B183" s="3">
+        <v>33.502363310185189</v>
+      </c>
+      <c r="C183" s="3">
+        <v>33.502363310185189</v>
       </c>
       <c r="D183">
         <v>10</v>
       </c>
       <c r="E183">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="F183" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G183" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6755,30 +6773,30 @@
         <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B184" s="3">
-        <v>33.500705208333336</v>
+        <v>33.502400578703707</v>
       </c>
       <c r="C184" s="3">
-        <v>33.500705208333336</v>
+        <v>33.502400578703707</v>
       </c>
       <c r="D184">
         <v>9</v>
       </c>
       <c r="E184">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G184" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6787,30 +6805,30 @@
         <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B185" s="3">
-        <v>33.500705787037035</v>
+        <v>33.503997800925923</v>
       </c>
       <c r="C185" s="3">
-        <v>33.500705787037035</v>
+        <v>33.503997800925923</v>
       </c>
       <c r="D185">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E185">
-        <v>207</v>
+        <v>390</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6819,30 +6837,30 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B186" s="3">
-        <v>33.500836111111113</v>
+        <v>33.5041962962963</v>
       </c>
       <c r="C186" s="3">
-        <v>33.500836111111113</v>
+        <v>33.5041962962963</v>
       </c>
       <c r="D186">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6851,30 +6869,30 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B187" s="3">
-        <v>33.500850694444445</v>
+        <v>33.504428703703702</v>
       </c>
       <c r="C187" s="3">
-        <v>33.500850694444445</v>
+        <v>33.504428703703702</v>
       </c>
       <c r="D187">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G187" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -6883,30 +6901,30 @@
         <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>100</v>
-      </c>
-      <c r="B188" s="3">
-        <v>33.500869791666666</v>
-      </c>
-      <c r="C188" s="3">
-        <v>33.500869791666666</v>
+        <v>101</v>
+      </c>
+      <c r="B188" s="2">
+        <v>33.500572453703704</v>
+      </c>
+      <c r="C188" s="2">
+        <v>36557.500572453704</v>
       </c>
       <c r="D188">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G188" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -6915,30 +6933,30 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>100</v>
-      </c>
-      <c r="B189" s="3">
-        <v>33.500996527777779</v>
-      </c>
-      <c r="C189" s="3">
-        <v>33.500996527777779</v>
+        <v>101</v>
+      </c>
+      <c r="B189" s="2">
+        <v>33.500599999999999</v>
+      </c>
+      <c r="C189" s="2">
+        <v>36557.500599999999</v>
       </c>
       <c r="D189">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G189" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -6947,30 +6965,30 @@
         <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>101</v>
       </c>
-      <c r="B190" s="3">
-        <v>33.501336226851855</v>
-      </c>
-      <c r="C190" s="3">
-        <v>33.501336226851855</v>
+      <c r="B190" s="2">
+        <v>33.500600347222225</v>
+      </c>
+      <c r="C190" s="2">
+        <v>36557.500600347223</v>
       </c>
       <c r="D190">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E190">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G190" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -6979,30 +6997,30 @@
         <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>101</v>
       </c>
-      <c r="B191" s="3">
-        <v>33.501456018518518</v>
-      </c>
-      <c r="C191" s="3">
-        <v>33.501456018518518</v>
+      <c r="B191" s="2">
+        <v>33.50062627314815</v>
+      </c>
+      <c r="C191" s="2">
+        <v>36557.500626273148</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G191" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -7011,30 +7029,30 @@
         <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>101</v>
       </c>
-      <c r="B192" s="3">
-        <v>33.501529861111109</v>
-      </c>
-      <c r="C192" s="3">
-        <v>33.501529861111109</v>
+      <c r="B192" s="2">
+        <v>33.50067974537037</v>
+      </c>
+      <c r="C192" s="2">
+        <v>36557.500679745368</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -7043,7 +7061,7 @@
         <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -7051,22 +7069,22 @@
         <v>101</v>
       </c>
       <c r="B193" s="3">
-        <v>33.501553125000001</v>
+        <v>33.50073009259259</v>
       </c>
       <c r="C193" s="3">
-        <v>33.501553125000001</v>
+        <v>33.50073009259259</v>
       </c>
       <c r="D193">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E193">
-        <v>198</v>
+        <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -7075,30 +7093,30 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194" s="3">
-        <v>33.501586458333335</v>
-      </c>
-      <c r="C194" s="3">
-        <v>33.501586458333335</v>
+        <v>106</v>
+      </c>
+      <c r="B194" s="2">
+        <v>33.500653240740739</v>
+      </c>
+      <c r="C194" s="2">
+        <v>36557.500653240742</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G194" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7107,30 +7125,30 @@
         <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195" s="3">
-        <v>33.501777314814817</v>
-      </c>
-      <c r="C195" s="3">
-        <v>33.501777314814817</v>
+        <v>106</v>
+      </c>
+      <c r="B195" s="2">
+        <v>33.500658564814813</v>
+      </c>
+      <c r="C195" s="2">
+        <v>36557.500658564815</v>
       </c>
       <c r="D195">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G195" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7139,31 +7157,31 @@
         <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>106</v>
+      </c>
+      <c r="B196" s="2">
+        <v>33.500660300925929</v>
+      </c>
+      <c r="C196" s="2">
+        <v>36557.500660300924</v>
+      </c>
+      <c r="D196">
+        <v>10</v>
+      </c>
+      <c r="E196">
+        <v>164</v>
+      </c>
+      <c r="F196" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
         <v>162</v>
       </c>
-      <c r="B196" s="3">
-        <v>33.503045601851852</v>
-      </c>
-      <c r="C196" s="3">
-        <v>33.503045601851852</v>
-      </c>
-      <c r="D196">
-        <v>11</v>
-      </c>
-      <c r="E196">
-        <v>87</v>
-      </c>
-      <c r="F196" t="s">
-        <v>39</v>
-      </c>
-      <c r="G196" t="s">
-        <v>117</v>
-      </c>
       <c r="H196" t="s">
         <v>13</v>
       </c>
@@ -7171,30 +7189,30 @@
         <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>104</v>
-      </c>
-      <c r="B197" s="2">
-        <v>33.50042199074074</v>
-      </c>
-      <c r="C197" s="2">
-        <v>36557.500421990742</v>
+        <v>106</v>
+      </c>
+      <c r="B197" s="3">
+        <v>33.500705208333336</v>
+      </c>
+      <c r="C197" s="3">
+        <v>33.500705208333336</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>546</v>
+        <v>208</v>
       </c>
       <c r="F197" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G197" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -7203,30 +7221,30 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>104</v>
-      </c>
-      <c r="B198" s="2">
-        <v>33.500444328703701</v>
-      </c>
-      <c r="C198" s="2">
-        <v>36557.500444328703</v>
+        <v>106</v>
+      </c>
+      <c r="B198" s="3">
+        <v>33.500705787037035</v>
+      </c>
+      <c r="C198" s="3">
+        <v>33.500705787037035</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>580</v>
+        <v>207</v>
       </c>
       <c r="F198" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="H198" t="s">
         <v>13</v>
@@ -7235,30 +7253,30 @@
         <v>14</v>
       </c>
       <c r="J198" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>104</v>
-      </c>
-      <c r="B199" s="2">
-        <v>33.500450578703706</v>
-      </c>
-      <c r="C199" s="2">
-        <v>36557.5004505787</v>
+        <v>106</v>
+      </c>
+      <c r="B199" s="3">
+        <v>33.500836111111113</v>
+      </c>
+      <c r="C199" s="3">
+        <v>33.500836111111113</v>
       </c>
       <c r="D199">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
@@ -7267,62 +7285,62 @@
         <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200" s="2">
-        <v>33.500462384259258</v>
-      </c>
-      <c r="C200" s="2">
-        <v>36557.500462384261</v>
+        <v>106</v>
+      </c>
+      <c r="B200" s="3">
+        <v>33.500850694444445</v>
+      </c>
+      <c r="C200" s="3">
+        <v>33.500850694444445</v>
       </c>
       <c r="D200">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E200">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G200" t="s">
+        <v>144</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" t="s">
         <v>145</v>
-      </c>
-      <c r="H200" t="s">
-        <v>13</v>
-      </c>
-      <c r="I200" t="s">
-        <v>14</v>
-      </c>
-      <c r="J200" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201" s="2">
-        <v>33.500462847222224</v>
-      </c>
-      <c r="C201" s="2">
-        <v>36557.500462847223</v>
+        <v>106</v>
+      </c>
+      <c r="B201" s="3">
+        <v>33.500869791666666</v>
+      </c>
+      <c r="C201" s="3">
+        <v>33.500869791666666</v>
       </c>
       <c r="D201">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E201">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
@@ -7331,30 +7349,30 @@
         <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>104</v>
-      </c>
-      <c r="B202" s="2">
-        <v>33.500479050925925</v>
-      </c>
-      <c r="C202" s="2">
-        <v>36557.500479050927</v>
+        <v>106</v>
+      </c>
+      <c r="B202" s="3">
+        <v>33.500996527777779</v>
+      </c>
+      <c r="C202" s="3">
+        <v>33.500996527777779</v>
       </c>
       <c r="D202">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E202">
-        <v>442</v>
+        <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
@@ -7363,30 +7381,30 @@
         <v>14</v>
       </c>
       <c r="J202" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>104</v>
-      </c>
-      <c r="B203" s="2">
-        <v>33.500496180555558</v>
-      </c>
-      <c r="C203" s="2">
-        <v>36557.500496180553</v>
+        <v>107</v>
+      </c>
+      <c r="B203" s="3">
+        <v>33.501336226851855</v>
+      </c>
+      <c r="C203" s="3">
+        <v>33.501336226851855</v>
       </c>
       <c r="D203">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H203" t="s">
         <v>13</v>
@@ -7395,30 +7413,30 @@
         <v>14</v>
       </c>
       <c r="J203" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>104</v>
-      </c>
-      <c r="B204" s="2">
-        <v>33.50050949074074</v>
-      </c>
-      <c r="C204" s="2">
-        <v>36557.500509490739</v>
+        <v>107</v>
+      </c>
+      <c r="B204" s="3">
+        <v>33.501456018518518</v>
+      </c>
+      <c r="C204" s="3">
+        <v>33.501456018518518</v>
       </c>
       <c r="D204">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G204" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
@@ -7427,30 +7445,30 @@
         <v>14</v>
       </c>
       <c r="J204" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>104</v>
-      </c>
-      <c r="B205" s="2">
-        <v>33.500537847222219</v>
-      </c>
-      <c r="C205" s="2">
-        <v>36557.50053784722</v>
+        <v>107</v>
+      </c>
+      <c r="B205" s="3">
+        <v>33.501529861111109</v>
+      </c>
+      <c r="C205" s="3">
+        <v>33.501529861111109</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G205" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
@@ -7459,30 +7477,30 @@
         <v>14</v>
       </c>
       <c r="J205" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>104</v>
-      </c>
-      <c r="B206" s="2">
-        <v>33.500539351851849</v>
-      </c>
-      <c r="C206" s="2">
-        <v>36557.500539351851</v>
+        <v>107</v>
+      </c>
+      <c r="B206" s="3">
+        <v>33.501553125000001</v>
+      </c>
+      <c r="C206" s="3">
+        <v>33.501553125000001</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="F206" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G206" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
@@ -7491,30 +7509,30 @@
         <v>14</v>
       </c>
       <c r="J206" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>104</v>
-      </c>
-      <c r="B207" s="2">
-        <v>33.50057291666667</v>
-      </c>
-      <c r="C207" s="2">
-        <v>36557.500572916666</v>
+        <v>107</v>
+      </c>
+      <c r="B207" s="3">
+        <v>33.501586458333335</v>
+      </c>
+      <c r="C207" s="3">
+        <v>33.501586458333335</v>
       </c>
       <c r="D207">
         <v>9</v>
       </c>
       <c r="E207">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="F207" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
@@ -7523,30 +7541,30 @@
         <v>14</v>
       </c>
       <c r="J207" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>104</v>
-      </c>
-      <c r="B208" s="2">
-        <v>33.500630208333334</v>
-      </c>
-      <c r="C208" s="2">
-        <v>36557.500630208335</v>
+        <v>107</v>
+      </c>
+      <c r="B208" s="3">
+        <v>33.501777314814817</v>
+      </c>
+      <c r="C208" s="3">
+        <v>33.501777314814817</v>
       </c>
       <c r="D208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
@@ -7555,30 +7573,30 @@
         <v>14</v>
       </c>
       <c r="J208" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>104</v>
-      </c>
-      <c r="B209" s="2">
-        <v>33.50065011574074</v>
-      </c>
-      <c r="C209" s="2">
-        <v>36557.50065011574</v>
+        <v>168</v>
+      </c>
+      <c r="B209" s="3">
+        <v>33.503045601851852</v>
+      </c>
+      <c r="C209" s="3">
+        <v>33.503045601851852</v>
       </c>
       <c r="D209">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E209">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
@@ -7587,30 +7605,30 @@
         <v>14</v>
       </c>
       <c r="J209" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B210" s="2">
-        <v>33.500664004629627</v>
+        <v>33.50042199074074</v>
       </c>
       <c r="C210" s="2">
-        <v>36557.500664004627</v>
+        <v>36557.500421990742</v>
       </c>
       <c r="D210">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E210">
-        <v>60</v>
+        <v>546</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
@@ -7619,30 +7637,30 @@
         <v>14</v>
       </c>
       <c r="J210" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>104</v>
-      </c>
-      <c r="B211" s="3">
-        <v>33.500726620370372</v>
-      </c>
-      <c r="C211" s="3">
-        <v>33.500726620370372</v>
+        <v>110</v>
+      </c>
+      <c r="B211" s="2">
+        <v>33.500444328703701</v>
+      </c>
+      <c r="C211" s="2">
+        <v>36557.500444328703</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>580</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="G211" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
@@ -7651,30 +7669,30 @@
         <v>14</v>
       </c>
       <c r="J211" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>104</v>
-      </c>
-      <c r="B212" s="3">
-        <v>33.500797569444444</v>
-      </c>
-      <c r="C212" s="3">
-        <v>33.500797569444444</v>
+        <v>110</v>
+      </c>
+      <c r="B212" s="2">
+        <v>33.500450578703706</v>
+      </c>
+      <c r="C212" s="2">
+        <v>36557.5004505787</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>554</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
@@ -7683,30 +7701,30 @@
         <v>14</v>
       </c>
       <c r="J212" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>106</v>
-      </c>
-      <c r="B213" s="3">
-        <v>33.500989930555555</v>
-      </c>
-      <c r="C213" s="3">
-        <v>33.500989930555555</v>
+        <v>110</v>
+      </c>
+      <c r="B213" s="2">
+        <v>33.500462384259258</v>
+      </c>
+      <c r="C213" s="2">
+        <v>36557.500462384261</v>
       </c>
       <c r="D213">
         <v>11</v>
       </c>
       <c r="E213">
-        <v>465</v>
+        <v>368</v>
       </c>
       <c r="F213" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G213" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="H213" t="s">
         <v>13</v>
@@ -7715,30 +7733,30 @@
         <v>14</v>
       </c>
       <c r="J213" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>106</v>
-      </c>
-      <c r="B214" s="3">
-        <v>33.501150925925927</v>
-      </c>
-      <c r="C214" s="3">
-        <v>33.501150925925927</v>
+        <v>110</v>
+      </c>
+      <c r="B214" s="2">
+        <v>33.500462847222224</v>
+      </c>
+      <c r="C214" s="2">
+        <v>36557.500462847223</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G214" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H214" t="s">
         <v>13</v>
@@ -7747,30 +7765,30 @@
         <v>14</v>
       </c>
       <c r="J214" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>106</v>
-      </c>
-      <c r="B215" s="3">
-        <v>33.501208333333331</v>
-      </c>
-      <c r="C215" s="3">
-        <v>33.501208333333331</v>
+        <v>110</v>
+      </c>
+      <c r="B215" s="2">
+        <v>33.500479050925925</v>
+      </c>
+      <c r="C215" s="2">
+        <v>36557.500479050927</v>
       </c>
       <c r="D215">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G215" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H215" t="s">
         <v>13</v>
@@ -7779,30 +7797,30 @@
         <v>14</v>
       </c>
       <c r="J215" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>106</v>
-      </c>
-      <c r="B216" s="3">
-        <v>33.501263078703701</v>
-      </c>
-      <c r="C216" s="3">
-        <v>33.501263078703701</v>
+        <v>110</v>
+      </c>
+      <c r="B216" s="2">
+        <v>33.500496180555558</v>
+      </c>
+      <c r="C216" s="2">
+        <v>36557.500496180553</v>
       </c>
       <c r="D216">
         <v>10</v>
       </c>
       <c r="E216">
-        <v>199</v>
+        <v>380</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G216" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -7811,30 +7829,30 @@
         <v>14</v>
       </c>
       <c r="J216" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>106</v>
-      </c>
-      <c r="B217" s="3">
-        <v>33.501271643518521</v>
-      </c>
-      <c r="C217" s="3">
-        <v>33.501271643518521</v>
+        <v>110</v>
+      </c>
+      <c r="B217" s="2">
+        <v>33.50050949074074</v>
+      </c>
+      <c r="C217" s="2">
+        <v>36557.500509490739</v>
       </c>
       <c r="D217">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="F217" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G217" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H217" t="s">
         <v>13</v>
@@ -7843,30 +7861,30 @@
         <v>14</v>
       </c>
       <c r="J217" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>106</v>
-      </c>
-      <c r="B218" s="3">
-        <v>33.50130300925926</v>
-      </c>
-      <c r="C218" s="3">
-        <v>33.50130300925926</v>
+        <v>110</v>
+      </c>
+      <c r="B218" s="2">
+        <v>33.500537847222219</v>
+      </c>
+      <c r="C218" s="2">
+        <v>36557.50053784722</v>
       </c>
       <c r="D218">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G218" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="H218" t="s">
         <v>13</v>
@@ -7875,30 +7893,30 @@
         <v>14</v>
       </c>
       <c r="J218" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>106</v>
-      </c>
-      <c r="B219" s="3">
-        <v>33.501335069444444</v>
-      </c>
-      <c r="C219" s="3">
-        <v>33.501335069444444</v>
+        <v>110</v>
+      </c>
+      <c r="B219" s="2">
+        <v>33.500539351851849</v>
+      </c>
+      <c r="C219" s="2">
+        <v>36557.500539351851</v>
       </c>
       <c r="D219">
         <v>10</v>
       </c>
       <c r="E219">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="F219" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G219" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H219" t="s">
         <v>13</v>
@@ -7907,30 +7925,30 @@
         <v>14</v>
       </c>
       <c r="J219" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>106</v>
-      </c>
-      <c r="B220" s="3">
-        <v>33.501365277777779</v>
-      </c>
-      <c r="C220" s="3">
-        <v>33.501365277777779</v>
+        <v>110</v>
+      </c>
+      <c r="B220" s="2">
+        <v>33.50057291666667</v>
+      </c>
+      <c r="C220" s="2">
+        <v>36557.500572916666</v>
       </c>
       <c r="D220">
         <v>9</v>
       </c>
       <c r="E220">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="F220" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G220" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="H220" t="s">
         <v>13</v>
@@ -7939,31 +7957,31 @@
         <v>14</v>
       </c>
       <c r="J220" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>165</v>
-      </c>
-      <c r="B221" s="3">
-        <v>33.502757523148148</v>
-      </c>
-      <c r="C221" s="3">
-        <v>33.502757523148148</v>
+        <v>110</v>
+      </c>
+      <c r="B221" s="2">
+        <v>33.500630208333334</v>
+      </c>
+      <c r="C221" s="2">
+        <v>36557.500630208335</v>
       </c>
       <c r="D221">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E221">
+        <v>123</v>
+      </c>
+      <c r="F221" t="s">
+        <v>43</v>
+      </c>
+      <c r="G221" t="s">
         <v>136</v>
       </c>
-      <c r="F221" t="s">
-        <v>39</v>
-      </c>
-      <c r="G221" t="s">
-        <v>117</v>
-      </c>
       <c r="H221" t="s">
         <v>13</v>
       </c>
@@ -7971,30 +7989,30 @@
         <v>14</v>
       </c>
       <c r="J221" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>112</v>
-      </c>
-      <c r="B222" s="3">
-        <v>33.502396643518516</v>
-      </c>
-      <c r="C222" s="3">
-        <v>33.502396643518516</v>
+        <v>110</v>
+      </c>
+      <c r="B222" s="2">
+        <v>33.50065011574074</v>
+      </c>
+      <c r="C222" s="2">
+        <v>36557.50065011574</v>
       </c>
       <c r="D222">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E222">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
@@ -8003,30 +8021,30 @@
         <v>14</v>
       </c>
       <c r="J222" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>112</v>
-      </c>
-      <c r="B223" s="3">
-        <v>33.502490972222219</v>
-      </c>
-      <c r="C223" s="3">
-        <v>33.502490972222219</v>
+        <v>110</v>
+      </c>
+      <c r="B223" s="2">
+        <v>33.500664004629627</v>
+      </c>
+      <c r="C223" s="2">
+        <v>36557.500664004627</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>305</v>
+        <v>60</v>
       </c>
       <c r="F223" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="H223" t="s">
         <v>13</v>
@@ -8035,39 +8053,455 @@
         <v>14</v>
       </c>
       <c r="J223" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>110</v>
+      </c>
+      <c r="B224" s="3">
+        <v>33.500726620370372</v>
+      </c>
+      <c r="C224" s="3">
+        <v>33.500726620370372</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>43</v>
+      </c>
+      <c r="G224" t="s">
+        <v>144</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>110</v>
+      </c>
+      <c r="B225" s="3">
+        <v>33.500797569444444</v>
+      </c>
+      <c r="C225" s="3">
+        <v>33.500797569444444</v>
+      </c>
+      <c r="D225">
+        <v>8</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>43</v>
+      </c>
+      <c r="G225" t="s">
+        <v>146</v>
+      </c>
+      <c r="H225" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>112</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B226" s="3">
+        <v>33.500989930555555</v>
+      </c>
+      <c r="C226" s="3">
+        <v>33.500989930555555</v>
+      </c>
+      <c r="D226">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>465</v>
+      </c>
+      <c r="F226" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226" t="s">
+        <v>119</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>112</v>
+      </c>
+      <c r="B227" s="3">
+        <v>33.501150925925927</v>
+      </c>
+      <c r="C227" s="3">
+        <v>33.501150925925927</v>
+      </c>
+      <c r="D227">
+        <v>10</v>
+      </c>
+      <c r="E227">
+        <v>351</v>
+      </c>
+      <c r="F227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" t="s">
+        <v>132</v>
+      </c>
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>112</v>
+      </c>
+      <c r="B228" s="3">
+        <v>33.501208333333331</v>
+      </c>
+      <c r="C228" s="3">
+        <v>33.501208333333331</v>
+      </c>
+      <c r="D228">
+        <v>11</v>
+      </c>
+      <c r="E228">
+        <v>108</v>
+      </c>
+      <c r="F228" t="s">
+        <v>43</v>
+      </c>
+      <c r="G228" t="s">
+        <v>127</v>
+      </c>
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>112</v>
+      </c>
+      <c r="B229" s="3">
+        <v>33.501263078703701</v>
+      </c>
+      <c r="C229" s="3">
+        <v>33.501263078703701</v>
+      </c>
+      <c r="D229">
+        <v>10</v>
+      </c>
+      <c r="E229">
+        <v>199</v>
+      </c>
+      <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
+        <v>162</v>
+      </c>
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>112</v>
+      </c>
+      <c r="B230" s="3">
+        <v>33.501271643518521</v>
+      </c>
+      <c r="C230" s="3">
+        <v>33.501271643518521</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230">
+        <v>339</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230" t="s">
+        <v>138</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>112</v>
+      </c>
+      <c r="B231" s="3">
+        <v>33.50130300925926</v>
+      </c>
+      <c r="C231" s="3">
+        <v>33.50130300925926</v>
+      </c>
+      <c r="D231">
+        <v>11</v>
+      </c>
+      <c r="E231">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
+        <v>43</v>
+      </c>
+      <c r="G231" t="s">
+        <v>123</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>112</v>
+      </c>
+      <c r="B232" s="3">
+        <v>33.501335069444444</v>
+      </c>
+      <c r="C232" s="3">
+        <v>33.501335069444444</v>
+      </c>
+      <c r="D232">
+        <v>10</v>
+      </c>
+      <c r="E232">
+        <v>120</v>
+      </c>
+      <c r="F232" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" t="s">
+        <v>129</v>
+      </c>
+      <c r="H232" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>112</v>
+      </c>
+      <c r="B233" s="3">
+        <v>33.501365277777779</v>
+      </c>
+      <c r="C233" s="3">
+        <v>33.501365277777779</v>
+      </c>
+      <c r="D233">
+        <v>9</v>
+      </c>
+      <c r="E233">
+        <v>223</v>
+      </c>
+      <c r="F233" t="s">
+        <v>22</v>
+      </c>
+      <c r="G233" t="s">
+        <v>136</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>171</v>
+      </c>
+      <c r="B234" s="3">
+        <v>33.502757523148148</v>
+      </c>
+      <c r="C234" s="3">
+        <v>33.502757523148148</v>
+      </c>
+      <c r="D234">
+        <v>11</v>
+      </c>
+      <c r="E234">
+        <v>136</v>
+      </c>
+      <c r="F234" t="s">
+        <v>43</v>
+      </c>
+      <c r="G234" t="s">
+        <v>123</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>118</v>
+      </c>
+      <c r="B235" s="3">
+        <v>33.502396643518516</v>
+      </c>
+      <c r="C235" s="3">
+        <v>33.502396643518516</v>
+      </c>
+      <c r="D235">
+        <v>11</v>
+      </c>
+      <c r="E235">
+        <v>234</v>
+      </c>
+      <c r="F235" t="s">
+        <v>43</v>
+      </c>
+      <c r="G235" t="s">
+        <v>123</v>
+      </c>
+      <c r="H235" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>118</v>
+      </c>
+      <c r="B236" s="3">
+        <v>33.502490972222219</v>
+      </c>
+      <c r="C236" s="3">
+        <v>33.502490972222219</v>
+      </c>
+      <c r="D236">
+        <v>10</v>
+      </c>
+      <c r="E236">
+        <v>305</v>
+      </c>
+      <c r="F236" t="s">
+        <v>11</v>
+      </c>
+      <c r="G236" t="s">
+        <v>132</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+      <c r="I236" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>118</v>
+      </c>
+      <c r="B237" s="3">
         <v>33.502669791666669</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C237" s="3">
         <v>33.502669791666669</v>
       </c>
-      <c r="D224">
-        <v>10</v>
-      </c>
-      <c r="E224">
+      <c r="D237">
+        <v>10</v>
+      </c>
+      <c r="E237">
         <v>181</v>
       </c>
-      <c r="F224" t="s">
-        <v>28</v>
-      </c>
-      <c r="G224" t="s">
-        <v>156</v>
-      </c>
-      <c r="H224" t="s">
-        <v>13</v>
-      </c>
-      <c r="I224" t="s">
-        <v>14</v>
-      </c>
-      <c r="J224" t="s">
-        <v>161</v>
+      <c r="F237" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" t="s">
+        <v>162</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Caroline Suter.xlsx
+++ b/USASwimming/Times For Caroline Suter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="181">
   <si>
     <t>Event</t>
   </si>
@@ -210,6 +210,12 @@
     <t>100 FR</t>
   </si>
   <si>
+    <t>2020 CT OAK Centennial Center Invit</t>
+  </si>
+  <si>
+    <t>1/4/2020</t>
+  </si>
+  <si>
     <t>12/8/2019</t>
   </si>
   <si>
@@ -279,6 +285,15 @@
     <t>3/15/2019</t>
   </si>
   <si>
+    <t>1/5/2020</t>
+  </si>
+  <si>
+    <t>2020 CT Wilton Wahoos Winter Qual</t>
+  </si>
+  <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
     <t>2019 CT WYW Winter Qualifier R</t>
   </si>
   <si>
@@ -345,15 +360,24 @@
     <t>50 BR</t>
   </si>
   <si>
+    <t>1/19/2020</t>
+  </si>
+  <si>
     <t>100 BR</t>
   </si>
   <si>
+    <t>1/18/2020</t>
+  </si>
+  <si>
     <t>1/19/2019</t>
   </si>
   <si>
     <t>2/4/2018</t>
   </si>
   <si>
+    <t>200 BR</t>
+  </si>
+  <si>
     <t>50 FL</t>
   </si>
   <si>
@@ -372,6 +396,15 @@
     <t>3/18/2018</t>
   </si>
   <si>
+    <t>200 FL</t>
+  </si>
+  <si>
+    <t>2020 CT OAK Centennial Center Dist</t>
+  </si>
+  <si>
+    <t>1/3/2020</t>
+  </si>
+  <si>
     <t>100 IM</t>
   </si>
   <si>
@@ -528,16 +561,10 @@
     <t>5/19/2018</t>
   </si>
   <si>
-    <t>200 BR</t>
-  </si>
-  <si>
     <t>7/29/2018</t>
   </si>
   <si>
     <t>6/15/2019</t>
-  </si>
-  <si>
-    <t>200 FL</t>
   </si>
 </sst>
 </file>
@@ -898,7 +925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1661,22 +1688,22 @@
         <v>61</v>
       </c>
       <c r="B24" s="3">
-        <v>33.500792939814815</v>
+        <v>33.500780671296297</v>
       </c>
       <c r="C24" s="3">
-        <v>33.500792939814815</v>
+        <v>33.500780671296297</v>
       </c>
       <c r="D24">
         <v>11</v>
       </c>
       <c r="E24">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1685,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1693,22 +1720,22 @@
         <v>61</v>
       </c>
       <c r="B25" s="3">
-        <v>33.500799652777779</v>
+        <v>33.500792939814815</v>
       </c>
       <c r="C25" s="3">
-        <v>33.500799652777779</v>
+        <v>33.500792939814815</v>
       </c>
       <c r="D25">
         <v>11</v>
       </c>
       <c r="E25">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1717,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1725,22 +1752,22 @@
         <v>61</v>
       </c>
       <c r="B26" s="3">
-        <v>33.500815393518522</v>
+        <v>33.500799652777779</v>
       </c>
       <c r="C26" s="3">
-        <v>33.500815393518522</v>
+        <v>33.500799652777779</v>
       </c>
       <c r="D26">
         <v>11</v>
       </c>
       <c r="E26">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1757,22 +1784,22 @@
         <v>61</v>
       </c>
       <c r="B27" s="3">
-        <v>33.500824189814814</v>
+        <v>33.500815393518522</v>
       </c>
       <c r="C27" s="3">
-        <v>33.500824189814814</v>
+        <v>33.500815393518522</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>432</v>
+        <v>309</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1781,7 +1808,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1789,22 +1816,22 @@
         <v>61</v>
       </c>
       <c r="B28" s="3">
-        <v>33.500884259259259</v>
+        <v>33.500824189814814</v>
       </c>
       <c r="C28" s="3">
-        <v>33.500884259259259</v>
+        <v>33.500824189814814</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28">
-        <v>293</v>
+        <v>432</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1813,7 +1840,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1821,22 +1848,22 @@
         <v>61</v>
       </c>
       <c r="B29" s="3">
-        <v>33.500970486111115</v>
+        <v>33.500884259259259</v>
       </c>
       <c r="C29" s="3">
-        <v>33.500970486111115</v>
+        <v>33.500884259259259</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1845,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1853,22 +1880,22 @@
         <v>61</v>
       </c>
       <c r="B30" s="3">
-        <v>33.500977777777777</v>
+        <v>33.500970486111115</v>
       </c>
       <c r="C30" s="3">
-        <v>33.500977777777777</v>
+        <v>33.500970486111115</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F30" t="s">
         <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1885,16 +1912,16 @@
         <v>61</v>
       </c>
       <c r="B31" s="3">
-        <v>33.50098784722222</v>
+        <v>33.500977777777777</v>
       </c>
       <c r="C31" s="3">
-        <v>33.50098784722222</v>
+        <v>33.500977777777777</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
         <v>22</v>
@@ -1917,16 +1944,16 @@
         <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>33.500997569444444</v>
+        <v>33.50098784722222</v>
       </c>
       <c r="C32" s="3">
-        <v>33.500997569444444</v>
+        <v>33.50098784722222</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
         <v>22</v>
@@ -1949,16 +1976,16 @@
         <v>61</v>
       </c>
       <c r="B33" s="3">
-        <v>33.50102303240741</v>
+        <v>33.500997569444444</v>
       </c>
       <c r="C33" s="3">
-        <v>33.50102303240741</v>
+        <v>33.500997569444444</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
@@ -1981,22 +2008,22 @@
         <v>61</v>
       </c>
       <c r="B34" s="3">
-        <v>33.501043287037035</v>
+        <v>33.50102303240741</v>
       </c>
       <c r="C34" s="3">
-        <v>33.501043287037035</v>
+        <v>33.50102303240741</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -2005,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2013,22 +2040,22 @@
         <v>61</v>
       </c>
       <c r="B35" s="3">
-        <v>33.501067245370372</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="C35" s="3">
-        <v>33.501067245370372</v>
+        <v>33.501043287037035</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
         <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -2037,7 +2064,7 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2045,22 +2072,22 @@
         <v>61</v>
       </c>
       <c r="B36" s="3">
-        <v>33.501091319444441</v>
+        <v>33.501067245370372</v>
       </c>
       <c r="C36" s="3">
-        <v>33.501091319444441</v>
+        <v>33.501067245370372</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s">
         <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -2069,7 +2096,7 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2077,22 +2104,22 @@
         <v>61</v>
       </c>
       <c r="B37" s="3">
-        <v>33.501093981481482</v>
+        <v>33.501091319444441</v>
       </c>
       <c r="C37" s="3">
-        <v>33.501093981481482</v>
+        <v>33.501091319444441</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -2101,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2109,22 +2136,22 @@
         <v>61</v>
       </c>
       <c r="B38" s="3">
-        <v>33.501208449074078</v>
+        <v>33.501093981481482</v>
       </c>
       <c r="C38" s="3">
-        <v>33.501208449074078</v>
+        <v>33.501093981481482</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
         <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2133,7 +2160,7 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2141,10 +2168,10 @@
         <v>61</v>
       </c>
       <c r="B39" s="3">
-        <v>33.50121990740741</v>
+        <v>33.501208449074078</v>
       </c>
       <c r="C39" s="3">
-        <v>33.50121990740741</v>
+        <v>33.501208449074078</v>
       </c>
       <c r="D39">
         <v>7</v>
@@ -2156,7 +2183,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -2170,57 +2197,57 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="3">
+        <v>33.50121990740741</v>
+      </c>
+      <c r="C40" s="3">
+        <v>33.50121990740741</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="3">
-        <v>33.501679629629628</v>
-      </c>
-      <c r="C40" s="3">
-        <v>33.501679629629628</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>540</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
         <v>83</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3">
-        <v>33.501682060185182</v>
+        <v>33.501679629629628</v>
       </c>
       <c r="C41" s="3">
-        <v>33.501682060185182</v>
+        <v>33.501679629629628</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>388</v>
+        <v>540</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2229,30 +2256,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="3">
-        <v>33.501776041666666</v>
+        <v>33.501682060185182</v>
       </c>
       <c r="C42" s="3">
-        <v>33.501776041666666</v>
+        <v>33.501682060185182</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2261,30 +2288,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="3">
-        <v>33.501776157407406</v>
+        <v>33.501700347222226</v>
       </c>
       <c r="C43" s="3">
-        <v>33.501776157407406</v>
+        <v>33.501700347222226</v>
       </c>
       <c r="D43">
         <v>11</v>
       </c>
       <c r="E43">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2298,25 +2325,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="3">
-        <v>33.501849652777778</v>
+        <v>33.50172928240741</v>
       </c>
       <c r="C44" s="3">
-        <v>33.501849652777778</v>
+        <v>33.50172928240741</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2325,30 +2352,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="3">
-        <v>33.501904282407409</v>
+        <v>33.501776041666666</v>
       </c>
       <c r="C45" s="3">
-        <v>33.501904282407409</v>
+        <v>33.501776041666666</v>
       </c>
       <c r="D45">
         <v>10</v>
       </c>
       <c r="E45">
-        <v>275</v>
+        <v>416</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2357,30 +2384,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3">
-        <v>33.501958217592595</v>
+        <v>33.501776157407406</v>
       </c>
       <c r="C46" s="3">
-        <v>33.501958217592595</v>
+        <v>33.501776157407406</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2389,30 +2416,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3">
-        <v>33.502043055555554</v>
+        <v>33.501849652777778</v>
       </c>
       <c r="C47" s="3">
-        <v>33.502043055555554</v>
+        <v>33.501849652777778</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2421,30 +2448,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="3">
-        <v>33.502131944444443</v>
+        <v>33.501904282407409</v>
       </c>
       <c r="C48" s="3">
-        <v>33.502131944444443</v>
+        <v>33.501904282407409</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>206</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2453,30 +2480,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="3">
-        <v>33.50223599537037</v>
+        <v>33.501958217592595</v>
       </c>
       <c r="C49" s="3">
-        <v>33.50223599537037</v>
+        <v>33.501958217592595</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2485,30 +2512,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="3">
-        <v>33.502293055555555</v>
+        <v>33.502043055555554</v>
       </c>
       <c r="C50" s="3">
-        <v>33.502293055555555</v>
+        <v>33.502043055555554</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50">
-        <v>94</v>
+        <v>284</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2517,30 +2544,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B51" s="3">
-        <v>33.50444803240741</v>
+        <v>33.502131944444443</v>
       </c>
       <c r="C51" s="3">
-        <v>33.50444803240741</v>
+        <v>33.502131944444443</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>574</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2549,30 +2576,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B52" s="3">
-        <v>33.504587962962965</v>
+        <v>33.50223599537037</v>
       </c>
       <c r="C52" s="3">
-        <v>33.504587962962965</v>
+        <v>33.50223599537037</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>502</v>
+        <v>129</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2581,30 +2608,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B53" s="3">
-        <v>33.504602083333332</v>
+        <v>33.502293055555555</v>
       </c>
       <c r="C53" s="3">
-        <v>33.504602083333332</v>
+        <v>33.502293055555555</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>495</v>
+        <v>94</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2613,30 +2640,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B54" s="3">
-        <v>33.504604629629632</v>
+        <v>33.50444803240741</v>
       </c>
       <c r="C54" s="3">
-        <v>33.504604629629632</v>
+        <v>33.50444803240741</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>316</v>
+        <v>574</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2645,30 +2672,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B55" s="3">
-        <v>33.504668518518521</v>
+        <v>33.504587962962965</v>
       </c>
       <c r="C55" s="3">
-        <v>33.504668518518521</v>
+        <v>33.504587962962965</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>287</v>
+        <v>502</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2677,30 +2704,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B56" s="3">
-        <v>33.504829513888886</v>
+        <v>33.504602083333332</v>
       </c>
       <c r="C56" s="3">
-        <v>33.504829513888886</v>
+        <v>33.504602083333332</v>
       </c>
       <c r="D56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>219</v>
+        <v>495</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2709,30 +2736,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B57" s="3">
-        <v>33.504930208333334</v>
+        <v>33.504604629629632</v>
       </c>
       <c r="C57" s="3">
-        <v>33.504930208333334</v>
+        <v>33.504604629629632</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2741,30 +2768,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B58" s="3">
-        <v>33.505689699074075</v>
+        <v>33.504668518518521</v>
       </c>
       <c r="C58" s="3">
-        <v>33.505689699074075</v>
+        <v>33.504668518518521</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2773,30 +2800,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="2">
-        <v>33.500457060185184</v>
-      </c>
-      <c r="C59" s="2">
-        <v>36557.500457060189</v>
+        <v>96</v>
+      </c>
+      <c r="B59" s="3">
+        <v>33.504829513888886</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33.504829513888886</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59">
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2810,25 +2837,25 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="2">
-        <v>33.500493865740744</v>
-      </c>
-      <c r="C60" s="2">
-        <v>36557.500493865744</v>
+        <v>96</v>
+      </c>
+      <c r="B60" s="3">
+        <v>33.504930208333334</v>
+      </c>
+      <c r="C60" s="3">
+        <v>33.504930208333334</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2837,30 +2864,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="2">
-        <v>33.500506134259261</v>
-      </c>
-      <c r="C61" s="2">
-        <v>36557.50050613426</v>
+        <v>96</v>
+      </c>
+      <c r="B61" s="3">
+        <v>33.505689699074075</v>
+      </c>
+      <c r="C61" s="3">
+        <v>33.505689699074075</v>
       </c>
       <c r="D61">
         <v>9</v>
       </c>
       <c r="E61">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="F61" t="s">
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2869,30 +2896,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2">
-        <v>33.50051087962963</v>
+        <v>33.500457060185184</v>
       </c>
       <c r="C62" s="2">
-        <v>36557.500510879632</v>
+        <v>36557.500457060189</v>
       </c>
       <c r="D62">
         <v>10</v>
       </c>
       <c r="E62">
-        <v>139</v>
+        <v>336</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2901,30 +2928,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2">
-        <v>33.500535648148151</v>
+        <v>33.500493865740744</v>
       </c>
       <c r="C63" s="2">
-        <v>36557.500535648149</v>
+        <v>36557.500493865744</v>
       </c>
       <c r="D63">
         <v>9</v>
       </c>
       <c r="E63">
-        <v>190</v>
+        <v>338</v>
       </c>
       <c r="F63" t="s">
         <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2933,30 +2960,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2">
-        <v>33.500547569444443</v>
+        <v>33.500506134259261</v>
       </c>
       <c r="C64" s="2">
-        <v>36557.500547569442</v>
+        <v>36557.50050613426</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64">
-        <v>154</v>
+        <v>292</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2965,30 +2992,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2">
-        <v>33.500567592592596</v>
+        <v>33.50051087962963</v>
       </c>
       <c r="C65" s="2">
-        <v>36557.500567592593</v>
+        <v>36557.500510879632</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2997,30 +3024,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2">
-        <v>33.500584259259256</v>
+        <v>33.500535648148151</v>
       </c>
       <c r="C66" s="2">
-        <v>36557.500584259258</v>
+        <v>36557.500535648149</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -3029,30 +3056,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500597685185184</v>
+        <v>33.500547569444443</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.500597685183</v>
+        <v>36557.500547569442</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
         <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -3061,30 +3088,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2">
-        <v>33.500634606481484</v>
+        <v>33.500567592592596</v>
       </c>
       <c r="C68" s="2">
-        <v>36557.500634606484</v>
+        <v>36557.500567592593</v>
       </c>
       <c r="D68">
         <v>8</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F68" t="s">
         <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -3093,30 +3120,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2">
-        <v>33.500665046296298</v>
+        <v>33.500584259259256</v>
       </c>
       <c r="C69" s="2">
-        <v>36557.500665046296</v>
+        <v>36557.500584259258</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
         <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -3125,30 +3152,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="3">
-        <v>33.501153472222221</v>
-      </c>
-      <c r="C70" s="3">
-        <v>33.501153472222221</v>
+        <v>106</v>
+      </c>
+      <c r="B70" s="2">
+        <v>33.500597685185184</v>
+      </c>
+      <c r="C70" s="2">
+        <v>36557.500597685183</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -3157,30 +3184,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="3">
-        <v>33.501244675925925</v>
-      </c>
-      <c r="C71" s="3">
-        <v>33.501244675925925</v>
+        <v>106</v>
+      </c>
+      <c r="B71" s="2">
+        <v>33.500634606481484</v>
+      </c>
+      <c r="C71" s="2">
+        <v>36557.500634606484</v>
       </c>
       <c r="D71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -3189,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3197,22 +3224,22 @@
         <v>106</v>
       </c>
       <c r="B72" s="2">
-        <v>33.500489120370368</v>
+        <v>33.500665046296298</v>
       </c>
       <c r="C72" s="2">
-        <v>36557.500489120372</v>
+        <v>36557.500665046296</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -3221,30 +3248,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>106</v>
-      </c>
-      <c r="B73" s="2">
-        <v>33.500497569444441</v>
-      </c>
-      <c r="C73" s="2">
-        <v>36557.500497569446</v>
+        <v>109</v>
+      </c>
+      <c r="B73" s="3">
+        <v>33.501153472222221</v>
+      </c>
+      <c r="C73" s="3">
+        <v>33.501153472222221</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3253,30 +3280,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="2">
-        <v>33.500517013888889</v>
-      </c>
-      <c r="C74" s="2">
-        <v>36557.50051701389</v>
+        <v>109</v>
+      </c>
+      <c r="B74" s="3">
+        <v>33.501244675925925</v>
+      </c>
+      <c r="C74" s="3">
+        <v>33.501244675925925</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3285,30 +3312,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2">
-        <v>33.500535879629631</v>
+        <v>33.50045173611111</v>
       </c>
       <c r="C75" s="2">
-        <v>36557.500535879626</v>
+        <v>36557.500451736109</v>
       </c>
       <c r="D75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75">
-        <v>280</v>
+        <v>477</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3317,30 +3344,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2">
-        <v>33.500549189814812</v>
+        <v>33.500465740740744</v>
       </c>
       <c r="C76" s="2">
-        <v>36557.500549189812</v>
+        <v>36557.500465740741</v>
       </c>
       <c r="D76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3349,30 +3376,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2">
-        <v>33.500551041666668</v>
+        <v>33.500489120370368</v>
       </c>
       <c r="C77" s="2">
-        <v>36557.500551041667</v>
+        <v>36557.500489120372</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3381,30 +3408,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2">
-        <v>33.500573495370368</v>
+        <v>33.500497569444441</v>
       </c>
       <c r="C78" s="2">
-        <v>36557.500573495374</v>
+        <v>36557.500497569446</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3413,30 +3440,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2">
-        <v>33.500586805555557</v>
+        <v>33.500517013888889</v>
       </c>
       <c r="C79" s="2">
-        <v>36557.500586805552</v>
+        <v>36557.50051701389</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3445,30 +3472,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2">
-        <v>33.500610300925928</v>
+        <v>33.500535879629631</v>
       </c>
       <c r="C80" s="2">
-        <v>36557.500610300929</v>
+        <v>36557.500535879626</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3477,30 +3504,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2">
-        <v>33.500645254629632</v>
+        <v>33.500549189814812</v>
       </c>
       <c r="C81" s="2">
-        <v>36557.500645254629</v>
+        <v>36557.500549189812</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3509,30 +3536,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2">
-        <v>33.500646875000001</v>
+        <v>33.500551041666668</v>
       </c>
       <c r="C82" s="2">
-        <v>36557.500646875</v>
+        <v>36557.500551041667</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>107</v>
+        <v>390</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3541,30 +3568,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>106</v>
-      </c>
-      <c r="B83" s="3">
-        <v>33.500740624999999</v>
-      </c>
-      <c r="C83" s="3">
-        <v>33.500740624999999</v>
+        <v>111</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.500573495370368</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36557.500573495374</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3573,30 +3600,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="3">
-        <v>33.500785416666666</v>
-      </c>
-      <c r="C84" s="3">
-        <v>33.500785416666666</v>
+        <v>111</v>
+      </c>
+      <c r="B84" s="2">
+        <v>33.500586805555557</v>
+      </c>
+      <c r="C84" s="2">
+        <v>36557.500586805552</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3605,30 +3632,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="3">
-        <v>33.501026157407409</v>
-      </c>
-      <c r="C85" s="3">
-        <v>33.501026157407409</v>
+        <v>111</v>
+      </c>
+      <c r="B85" s="2">
+        <v>33.500610300925928</v>
+      </c>
+      <c r="C85" s="2">
+        <v>36557.500610300929</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>388</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3637,30 +3664,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="3">
-        <v>33.501052083333335</v>
-      </c>
-      <c r="C86" s="3">
-        <v>33.501052083333335</v>
+        <v>111</v>
+      </c>
+      <c r="B86" s="2">
+        <v>33.500645254629632</v>
+      </c>
+      <c r="C86" s="2">
+        <v>36557.500645254629</v>
       </c>
       <c r="D86">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3669,30 +3696,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="2">
+        <v>33.500646875000001</v>
+      </c>
+      <c r="C87" s="2">
+        <v>36557.500646875</v>
+      </c>
+      <c r="D87">
+        <v>8</v>
+      </c>
+      <c r="E87">
         <v>107</v>
       </c>
-      <c r="B87" s="3">
-        <v>33.501056134259258</v>
-      </c>
-      <c r="C87" s="3">
-        <v>33.501056134259258</v>
-      </c>
-      <c r="D87">
-        <v>11</v>
-      </c>
-      <c r="E87">
-        <v>330</v>
-      </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3701,30 +3728,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B88" s="3">
-        <v>33.501075231481479</v>
+        <v>33.500740624999999</v>
       </c>
       <c r="C88" s="3">
-        <v>33.501075231481479</v>
+        <v>33.500740624999999</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3733,30 +3760,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B89" s="3">
-        <v>33.501084490740737</v>
+        <v>33.500785416666666</v>
       </c>
       <c r="C89" s="3">
-        <v>33.501084490740737</v>
+        <v>33.500785416666666</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>427</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3765,30 +3792,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B90" s="3">
-        <v>33.501115740740744</v>
+        <v>33.501025115740738</v>
       </c>
       <c r="C90" s="3">
-        <v>33.501115740740744</v>
+        <v>33.501025115740738</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G90" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3797,30 +3824,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B91" s="3">
-        <v>33.501129629629631</v>
+        <v>33.501026157407409</v>
       </c>
       <c r="C91" s="3">
-        <v>33.501129629629631</v>
+        <v>33.501026157407409</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3829,30 +3856,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B92" s="3">
-        <v>33.501140393518519</v>
+        <v>33.501035648148147</v>
       </c>
       <c r="C92" s="3">
-        <v>33.501140393518519</v>
+        <v>33.501035648148147</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3861,30 +3888,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B93" s="3">
-        <v>33.501201388888887</v>
+        <v>33.501052083333335</v>
       </c>
       <c r="C93" s="3">
-        <v>33.501201388888887</v>
+        <v>33.501052083333335</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3893,30 +3920,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B94" s="3">
-        <v>33.501271412037035</v>
+        <v>33.501056134259258</v>
       </c>
       <c r="C94" s="3">
-        <v>33.501271412037035</v>
+        <v>33.501056134259258</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="F94" t="s">
         <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3925,62 +3952,62 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.501075231481479</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.501075231481479</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>444</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" t="s">
         <v>107</v>
-      </c>
-      <c r="B95" s="3">
-        <v>33.501296643518522</v>
-      </c>
-      <c r="C95" s="3">
-        <v>33.501296643518522</v>
-      </c>
-      <c r="D95">
-        <v>9</v>
-      </c>
-      <c r="E95">
-        <v>264</v>
-      </c>
-      <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s">
-        <v>67</v>
-      </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B96" s="3">
-        <v>33.501410069444447</v>
+        <v>33.501084490740737</v>
       </c>
       <c r="C96" s="3">
-        <v>33.501410069444447</v>
+        <v>33.501084490740737</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>120</v>
+        <v>427</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3989,30 +4016,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B97" s="3">
-        <v>33.501443055555555</v>
+        <v>33.501115740740744</v>
       </c>
       <c r="C97" s="3">
-        <v>33.501443055555555</v>
+        <v>33.501115740740744</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E97">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -4021,30 +4048,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>110</v>
-      </c>
-      <c r="B98" s="2">
-        <v>33.500384259259256</v>
-      </c>
-      <c r="C98" s="2">
-        <v>36557.500384259256</v>
+        <v>113</v>
+      </c>
+      <c r="B98" s="3">
+        <v>33.501129629629631</v>
+      </c>
+      <c r="C98" s="3">
+        <v>33.501129629629631</v>
       </c>
       <c r="D98">
         <v>10</v>
       </c>
       <c r="E98">
-        <v>622</v>
+        <v>351</v>
       </c>
       <c r="F98" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -4053,30 +4080,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99" s="2">
-        <v>33.500387847222221</v>
-      </c>
-      <c r="C99" s="2">
-        <v>36557.50038784722</v>
+        <v>113</v>
+      </c>
+      <c r="B99" s="3">
+        <v>33.501140393518519</v>
+      </c>
+      <c r="C99" s="3">
+        <v>33.501140393518519</v>
       </c>
       <c r="D99">
         <v>10</v>
       </c>
       <c r="E99">
-        <v>605</v>
+        <v>333</v>
       </c>
       <c r="F99" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -4085,30 +4112,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="2">
-        <v>33.500395949074075</v>
-      </c>
-      <c r="C100" s="2">
-        <v>36557.500395949071</v>
+        <v>113</v>
+      </c>
+      <c r="B100" s="3">
+        <v>33.501201388888887</v>
+      </c>
+      <c r="C100" s="3">
+        <v>33.501201388888887</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -4117,30 +4144,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
-      </c>
-      <c r="B101" s="2">
-        <v>33.500399421296294</v>
-      </c>
-      <c r="C101" s="2">
-        <v>36557.500399421297</v>
+        <v>113</v>
+      </c>
+      <c r="B101" s="3">
+        <v>33.501271412037035</v>
+      </c>
+      <c r="C101" s="3">
+        <v>33.501271412037035</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>551</v>
+        <v>299</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -4149,30 +4176,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>110</v>
-      </c>
-      <c r="B102" s="2">
-        <v>33.500424652777781</v>
-      </c>
-      <c r="C102" s="2">
-        <v>36557.500424652775</v>
+        <v>113</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33.501296643518522</v>
+      </c>
+      <c r="C102" s="3">
+        <v>33.501296643518522</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>439</v>
+        <v>264</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G102" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -4181,30 +4208,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B103" s="2">
-        <v>33.50042627314815</v>
-      </c>
-      <c r="C103" s="2">
-        <v>36557.500426273145</v>
+        <v>113</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.501410069444447</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.501410069444447</v>
       </c>
       <c r="D103">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="F103" t="s">
         <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -4213,30 +4240,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
-      </c>
-      <c r="B104" s="2">
-        <v>33.50042928240741</v>
-      </c>
-      <c r="C104" s="2">
-        <v>36557.500429282409</v>
+        <v>113</v>
+      </c>
+      <c r="B104" s="3">
+        <v>33.501443055555555</v>
+      </c>
+      <c r="C104" s="3">
+        <v>33.501443055555555</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E104">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4245,30 +4272,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="2">
-        <v>33.500433564814813</v>
-      </c>
-      <c r="C105" s="2">
-        <v>36557.500433564812</v>
+        <v>117</v>
+      </c>
+      <c r="B105" s="3">
+        <v>33.502189467592594</v>
+      </c>
+      <c r="C105" s="3">
+        <v>33.502189467592594</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4277,30 +4304,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2">
-        <v>33.500434374999998</v>
+        <v>33.500370486111109</v>
       </c>
       <c r="C106" s="2">
-        <v>36557.500434374997</v>
+        <v>36557.500370486108</v>
       </c>
       <c r="D106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E106">
-        <v>534</v>
+        <v>564</v>
       </c>
       <c r="F106" t="s">
         <v>11</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4309,30 +4336,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2">
-        <v>33.50044583333333</v>
+        <v>33.500384259259256</v>
       </c>
       <c r="C107" s="2">
-        <v>36557.500445833335</v>
+        <v>36557.500384259256</v>
       </c>
       <c r="D107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107">
-        <v>486</v>
+        <v>622</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4341,30 +4368,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2">
-        <v>33.500455208333335</v>
+        <v>33.500387847222221</v>
       </c>
       <c r="C108" s="2">
-        <v>36557.500455208334</v>
+        <v>36557.50038784722</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108">
-        <v>448</v>
+        <v>605</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4373,30 +4400,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2">
-        <v>33.500455671296294</v>
+        <v>33.50038958333333</v>
       </c>
       <c r="C109" s="2">
-        <v>36557.500455671296</v>
+        <v>36557.500389583336</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>316</v>
+        <v>465</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4405,30 +4432,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2">
-        <v>33.500464236111114</v>
+        <v>33.500395949074075</v>
       </c>
       <c r="C110" s="2">
-        <v>36557.500464236109</v>
+        <v>36557.500395949071</v>
       </c>
       <c r="D110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4437,30 +4464,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2">
-        <v>33.50047835648148</v>
+        <v>33.500399421296294</v>
       </c>
       <c r="C111" s="2">
-        <v>36557.50047835648</v>
+        <v>36557.500399421297</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>360</v>
+        <v>551</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4469,30 +4496,30 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2">
-        <v>33.500490046296299</v>
+        <v>33.500424652777781</v>
       </c>
       <c r="C112" s="2">
-        <v>36557.500490046295</v>
+        <v>36557.500424652775</v>
       </c>
       <c r="D112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>319</v>
+        <v>439</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -4501,30 +4528,30 @@
         <v>14</v>
       </c>
       <c r="J112" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2">
-        <v>33.500513078703705</v>
+        <v>33.50042627314815</v>
       </c>
       <c r="C113" s="2">
-        <v>36557.500513078703</v>
+        <v>36557.500426273145</v>
       </c>
       <c r="D113">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E113">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4533,30 +4560,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>33.500515509259259</v>
+        <v>33.50042928240741</v>
       </c>
       <c r="C114" s="2">
-        <v>36557.500515509259</v>
+        <v>36557.500429282409</v>
       </c>
       <c r="D114">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E114">
-        <v>235</v>
+        <v>420</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4565,30 +4592,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2">
-        <v>33.500534143518522</v>
+        <v>33.500433564814813</v>
       </c>
       <c r="C115" s="2">
-        <v>36557.500534143517</v>
+        <v>36557.500433564812</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>181</v>
+        <v>402</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G115" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4597,30 +4624,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2">
-        <v>33.500534953703706</v>
+        <v>33.500434374999998</v>
       </c>
       <c r="C116" s="2">
-        <v>36557.500534953702</v>
+        <v>36557.500434374997</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E116">
-        <v>178</v>
+        <v>534</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4629,30 +4656,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2">
-        <v>33.500541319444444</v>
+        <v>33.50044583333333</v>
       </c>
       <c r="C117" s="2">
-        <v>36557.500541319445</v>
+        <v>36557.500445833335</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4661,30 +4688,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2">
-        <v>33.500557870370372</v>
+        <v>33.500455208333335</v>
       </c>
       <c r="C118" s="2">
-        <v>36557.500557870371</v>
+        <v>36557.500455208334</v>
       </c>
       <c r="D118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>119</v>
+        <v>448</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G118" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4693,30 +4720,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="3">
-        <v>33.500893171296298</v>
-      </c>
-      <c r="C119" s="3">
-        <v>33.500893171296298</v>
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>33.500455671296294</v>
+      </c>
+      <c r="C119" s="2">
+        <v>36557.500455671296</v>
       </c>
       <c r="D119">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E119">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4725,30 +4752,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>112</v>
-      </c>
-      <c r="B120" s="3">
-        <v>33.500898379629632</v>
-      </c>
-      <c r="C120" s="3">
-        <v>33.500898379629632</v>
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>33.500464236111114</v>
+      </c>
+      <c r="C120" s="2">
+        <v>36557.500464236109</v>
       </c>
       <c r="D120">
         <v>10</v>
       </c>
       <c r="E120">
-        <v>548</v>
+        <v>284</v>
       </c>
       <c r="F120" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4757,30 +4784,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>112</v>
-      </c>
-      <c r="B121" s="3">
-        <v>33.500920949074072</v>
-      </c>
-      <c r="C121" s="3">
-        <v>33.500920949074072</v>
+        <v>118</v>
+      </c>
+      <c r="B121" s="2">
+        <v>33.50047835648148</v>
+      </c>
+      <c r="C121" s="2">
+        <v>36557.50047835648</v>
       </c>
       <c r="D121">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E121">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4789,30 +4816,30 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>112</v>
-      </c>
-      <c r="B122" s="3">
-        <v>33.500972453703703</v>
-      </c>
-      <c r="C122" s="3">
-        <v>33.500972453703703</v>
+        <v>118</v>
+      </c>
+      <c r="B122" s="2">
+        <v>33.500490046296299</v>
+      </c>
+      <c r="C122" s="2">
+        <v>36557.500490046295</v>
       </c>
       <c r="D122">
         <v>9</v>
       </c>
       <c r="E122">
-        <v>547</v>
+        <v>319</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G122" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -4821,30 +4848,30 @@
         <v>14</v>
       </c>
       <c r="J122" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>112</v>
-      </c>
-      <c r="B123" s="3">
-        <v>33.500980787037037</v>
-      </c>
-      <c r="C123" s="3">
-        <v>33.500980787037037</v>
+        <v>118</v>
+      </c>
+      <c r="B123" s="2">
+        <v>33.500513078703705</v>
+      </c>
+      <c r="C123" s="2">
+        <v>36557.500513078703</v>
       </c>
       <c r="D123">
         <v>9</v>
       </c>
       <c r="E123">
-        <v>531</v>
+        <v>243</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -4853,30 +4880,30 @@
         <v>14</v>
       </c>
       <c r="J123" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>112</v>
-      </c>
-      <c r="B124" s="3">
-        <v>33.50099050925926</v>
-      </c>
-      <c r="C124" s="3">
-        <v>33.50099050925926</v>
+        <v>118</v>
+      </c>
+      <c r="B124" s="2">
+        <v>33.500515509259259</v>
+      </c>
+      <c r="C124" s="2">
+        <v>36557.500515509259</v>
       </c>
       <c r="D124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>374</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G124" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -4885,30 +4912,30 @@
         <v>14</v>
       </c>
       <c r="J124" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" s="3">
-        <v>33.501021180555554</v>
-      </c>
-      <c r="C125" s="3">
-        <v>33.501021180555554</v>
+        <v>118</v>
+      </c>
+      <c r="B125" s="2">
+        <v>33.500534143518522</v>
+      </c>
+      <c r="C125" s="2">
+        <v>36557.500534143517</v>
       </c>
       <c r="D125">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>322</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -4917,30 +4944,30 @@
         <v>14</v>
       </c>
       <c r="J125" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="3">
-        <v>33.501040625000002</v>
-      </c>
-      <c r="C126" s="3">
-        <v>33.501040625000002</v>
+        <v>118</v>
+      </c>
+      <c r="B126" s="2">
+        <v>33.500534953703706</v>
+      </c>
+      <c r="C126" s="2">
+        <v>36557.500534953702</v>
       </c>
       <c r="D126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E126">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -4949,30 +4976,30 @@
         <v>14</v>
       </c>
       <c r="J126" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>112</v>
-      </c>
-      <c r="B127" s="3">
-        <v>33.501055324074073</v>
-      </c>
-      <c r="C127" s="3">
-        <v>33.501055324074073</v>
+        <v>118</v>
+      </c>
+      <c r="B127" s="2">
+        <v>33.500541319444444</v>
+      </c>
+      <c r="C127" s="2">
+        <v>36557.500541319445</v>
       </c>
       <c r="D127">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E127">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -4981,30 +5008,30 @@
         <v>14</v>
       </c>
       <c r="J127" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>112</v>
-      </c>
-      <c r="B128" s="3">
-        <v>33.501086111111114</v>
-      </c>
-      <c r="C128" s="3">
-        <v>33.501086111111114</v>
+        <v>118</v>
+      </c>
+      <c r="B128" s="2">
+        <v>33.500557870370372</v>
+      </c>
+      <c r="C128" s="2">
+        <v>36557.500557870371</v>
       </c>
       <c r="D128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>351</v>
+        <v>119</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -5013,24 +5040,24 @@
         <v>14</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B129" s="3">
-        <v>33.501090509259257</v>
+        <v>33.500876273148151</v>
       </c>
       <c r="C129" s="3">
-        <v>33.501090509259257</v>
+        <v>33.500876273148151</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129">
-        <v>215</v>
+        <v>457</v>
       </c>
       <c r="F129" t="s">
         <v>11</v>
@@ -5045,30 +5072,30 @@
         <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B130" s="3">
-        <v>33.501134606481479</v>
+        <v>33.500893171296298</v>
       </c>
       <c r="C130" s="3">
-        <v>33.501134606481479</v>
+        <v>33.500893171296298</v>
       </c>
       <c r="D130">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E130">
-        <v>277</v>
+        <v>420</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -5077,30 +5104,30 @@
         <v>14</v>
       </c>
       <c r="J130" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B131" s="3">
-        <v>33.501383564814816</v>
+        <v>33.500898379629632</v>
       </c>
       <c r="C131" s="3">
-        <v>33.501383564814816</v>
+        <v>33.500898379629632</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>18</v>
+        <v>548</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G131" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -5109,30 +5136,30 @@
         <v>14</v>
       </c>
       <c r="J131" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B132" s="3">
-        <v>33.501404629629633</v>
+        <v>33.500902314814816</v>
       </c>
       <c r="C132" s="3">
-        <v>33.501404629629633</v>
+        <v>33.500902314814816</v>
       </c>
       <c r="D132">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -5141,30 +5168,30 @@
         <v>14</v>
       </c>
       <c r="J132" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B133" s="3">
-        <v>33.500940277777779</v>
+        <v>33.500920949074072</v>
       </c>
       <c r="C133" s="3">
-        <v>33.500940277777779</v>
+        <v>33.500920949074072</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -5173,30 +5200,30 @@
         <v>14</v>
       </c>
       <c r="J133" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B134" s="3">
-        <v>33.500970023148149</v>
+        <v>33.500972453703703</v>
       </c>
       <c r="C134" s="3">
-        <v>33.500970023148149</v>
+        <v>33.500972453703703</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>393</v>
+        <v>547</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -5205,30 +5232,30 @@
         <v>14</v>
       </c>
       <c r="J134" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B135" s="3">
-        <v>33.500980324074071</v>
+        <v>33.500980787037037</v>
       </c>
       <c r="C135" s="3">
-        <v>33.500980324074071</v>
+        <v>33.500980787037037</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135">
-        <v>372</v>
+        <v>531</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -5237,30 +5264,30 @@
         <v>14</v>
       </c>
       <c r="J135" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B136" s="3">
-        <v>33.501085300925929</v>
+        <v>33.50099050925926</v>
       </c>
       <c r="C136" s="3">
-        <v>33.501085300925929</v>
+        <v>33.50099050925926</v>
       </c>
       <c r="D136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -5269,30 +5296,30 @@
         <v>14</v>
       </c>
       <c r="J136" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B137" s="3">
-        <v>33.501090972222222</v>
+        <v>33.501021180555554</v>
       </c>
       <c r="C137" s="3">
-        <v>33.501090972222222</v>
+        <v>33.501021180555554</v>
       </c>
       <c r="D137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -5301,30 +5328,30 @@
         <v>14</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B138" s="3">
-        <v>33.501093402777776</v>
+        <v>33.501040625000002</v>
       </c>
       <c r="C138" s="3">
-        <v>33.501093402777776</v>
+        <v>33.501040625000002</v>
       </c>
       <c r="D138">
         <v>10</v>
       </c>
       <c r="E138">
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -5333,30 +5360,30 @@
         <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B139" s="3">
-        <v>33.501146990740743</v>
+        <v>33.501055324074073</v>
       </c>
       <c r="C139" s="3">
-        <v>33.501146990740743</v>
+        <v>33.501055324074073</v>
       </c>
       <c r="D139">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>219</v>
+        <v>122</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -5365,30 +5392,30 @@
         <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B140" s="3">
-        <v>33.50115671296296</v>
+        <v>33.501086111111114</v>
       </c>
       <c r="C140" s="3">
-        <v>33.50115671296296</v>
+        <v>33.501086111111114</v>
       </c>
       <c r="D140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E140">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -5397,30 +5424,30 @@
         <v>14</v>
       </c>
       <c r="J140" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B141" s="3">
-        <v>33.501182870370371</v>
+        <v>33.501090509259257</v>
       </c>
       <c r="C141" s="3">
-        <v>33.501182870370371</v>
+        <v>33.501090509259257</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -5429,30 +5456,30 @@
         <v>14</v>
       </c>
       <c r="J141" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B142" s="3">
-        <v>33.501227199074073</v>
+        <v>33.501134606481479</v>
       </c>
       <c r="C142" s="3">
-        <v>33.501227199074073</v>
+        <v>33.501134606481479</v>
       </c>
       <c r="D142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E142">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -5461,30 +5488,30 @@
         <v>14</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B143" s="3">
-        <v>33.501233333333332</v>
+        <v>33.501383564814816</v>
       </c>
       <c r="C143" s="3">
-        <v>33.501233333333332</v>
+        <v>33.501383564814816</v>
       </c>
       <c r="D143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E143">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="F143" t="s">
         <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -5493,30 +5520,30 @@
         <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B144" s="3">
-        <v>33.501959837962964</v>
+        <v>33.501404629629633</v>
       </c>
       <c r="C144" s="3">
-        <v>33.501959837962964</v>
+        <v>33.501404629629633</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E144">
-        <v>512</v>
+        <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -5525,30 +5552,30 @@
         <v>14</v>
       </c>
       <c r="J144" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B145" s="3">
-        <v>33.501999884259263</v>
+        <v>33.502077199074073</v>
       </c>
       <c r="C145" s="3">
-        <v>33.501999884259263</v>
+        <v>33.502077199074073</v>
       </c>
       <c r="D145">
         <v>11</v>
       </c>
       <c r="E145">
-        <v>332</v>
+        <v>393</v>
       </c>
       <c r="F145" t="s">
         <v>22</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -5557,30 +5584,30 @@
         <v>14</v>
       </c>
       <c r="J145" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B146" s="3">
-        <v>33.502083449074071</v>
+        <v>33.500893171296298</v>
       </c>
       <c r="C146" s="3">
-        <v>33.502083449074071</v>
+        <v>33.500893171296298</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -5589,30 +5616,30 @@
         <v>14</v>
       </c>
       <c r="J146" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B147" s="3">
-        <v>33.502129976851855</v>
+        <v>33.500940277777779</v>
       </c>
       <c r="C147" s="3">
-        <v>33.502129976851855</v>
+        <v>33.500940277777779</v>
       </c>
       <c r="D147">
         <v>10</v>
       </c>
       <c r="E147">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -5621,30 +5648,30 @@
         <v>14</v>
       </c>
       <c r="J147" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B148" s="3">
-        <v>33.502315046296296</v>
+        <v>33.500970023148149</v>
       </c>
       <c r="C148" s="3">
-        <v>33.502315046296296</v>
+        <v>33.500970023148149</v>
       </c>
       <c r="D148">
         <v>10</v>
       </c>
       <c r="E148">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -5653,30 +5680,30 @@
         <v>14</v>
       </c>
       <c r="J148" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B149" s="3">
-        <v>33.502557523148148</v>
+        <v>33.500980324074071</v>
       </c>
       <c r="C149" s="3">
-        <v>33.502557523148148</v>
+        <v>33.500980324074071</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>146</v>
+        <v>372</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -5685,30 +5712,30 @@
         <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="2">
-        <v>33.50039537037037</v>
-      </c>
-      <c r="C150" s="2">
-        <v>36557.500395370371</v>
+        <v>127</v>
+      </c>
+      <c r="B150" s="3">
+        <v>33.501085300925929</v>
+      </c>
+      <c r="C150" s="3">
+        <v>33.501085300925929</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>499</v>
+        <v>321</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G150" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -5717,30 +5744,30 @@
         <v>14</v>
       </c>
       <c r="J150" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="2">
-        <v>33.500400810185184</v>
-      </c>
-      <c r="C151" s="2">
-        <v>36557.500400810182</v>
+        <v>127</v>
+      </c>
+      <c r="B151" s="3">
+        <v>33.501090972222222</v>
+      </c>
+      <c r="C151" s="3">
+        <v>33.501090972222222</v>
       </c>
       <c r="D151">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E151">
-        <v>591</v>
+        <v>311</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -5749,30 +5776,30 @@
         <v>14</v>
       </c>
       <c r="J151" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="2">
-        <v>33.500427546296294</v>
-      </c>
-      <c r="C152" s="2">
-        <v>36557.5004275463</v>
+        <v>127</v>
+      </c>
+      <c r="B152" s="3">
+        <v>33.501093402777776</v>
+      </c>
+      <c r="C152" s="3">
+        <v>33.501093402777776</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E152">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="F152" t="s">
         <v>22</v>
       </c>
       <c r="G152" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -5781,30 +5808,30 @@
         <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="2">
-        <v>33.500437962962963</v>
-      </c>
-      <c r="C153" s="2">
-        <v>36557.500437962961</v>
+        <v>127</v>
+      </c>
+      <c r="B153" s="3">
+        <v>33.501146990740743</v>
+      </c>
+      <c r="C153" s="3">
+        <v>33.501146990740743</v>
       </c>
       <c r="D153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>418</v>
+        <v>219</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -5813,30 +5840,30 @@
         <v>14</v>
       </c>
       <c r="J153" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="2">
-        <v>33.500441782407407</v>
-      </c>
-      <c r="C154" s="2">
-        <v>36557.500441782409</v>
+        <v>127</v>
+      </c>
+      <c r="B154" s="3">
+        <v>33.50115671296296</v>
+      </c>
+      <c r="C154" s="3">
+        <v>33.50115671296296</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E154">
-        <v>272</v>
+        <v>204</v>
       </c>
       <c r="F154" t="s">
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -5845,30 +5872,30 @@
         <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" s="2">
-        <v>33.500449305555556</v>
-      </c>
-      <c r="C155" s="2">
-        <v>36557.500449305553</v>
+        <v>127</v>
+      </c>
+      <c r="B155" s="3">
+        <v>33.501182870370371</v>
+      </c>
+      <c r="C155" s="3">
+        <v>33.501182870370371</v>
       </c>
       <c r="D155">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>369</v>
+        <v>167</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G155" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -5877,30 +5904,30 @@
         <v>14</v>
       </c>
       <c r="J155" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>10</v>
-      </c>
-      <c r="B156" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156" s="2">
-        <v>36557.500456597219</v>
+        <v>127</v>
+      </c>
+      <c r="B156" s="3">
+        <v>33.501227199074073</v>
+      </c>
+      <c r="C156" s="3">
+        <v>33.501227199074073</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="F156" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -5909,30 +5936,30 @@
         <v>14</v>
       </c>
       <c r="J156" t="s">
-        <v>133</v>
+        <v>51</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="2">
-        <v>33.500464930555559</v>
-      </c>
-      <c r="C157" s="2">
-        <v>36557.500464930556</v>
+        <v>127</v>
+      </c>
+      <c r="B157" s="3">
+        <v>33.501233333333332</v>
+      </c>
+      <c r="C157" s="3">
+        <v>33.501233333333332</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>305</v>
+        <v>103</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -5941,30 +5968,30 @@
         <v>14</v>
       </c>
       <c r="J157" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158" s="2">
-        <v>33.500486226851855</v>
-      </c>
-      <c r="C158" s="2">
-        <v>36557.500486226854</v>
+        <v>129</v>
+      </c>
+      <c r="B158" s="3">
+        <v>33.501934722222224</v>
+      </c>
+      <c r="C158" s="3">
+        <v>33.501934722222224</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E158">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -5973,30 +6000,30 @@
         <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>10</v>
-      </c>
-      <c r="B159" s="2">
-        <v>33.500504513888892</v>
-      </c>
-      <c r="C159" s="2">
-        <v>36557.50050451389</v>
+        <v>129</v>
+      </c>
+      <c r="B159" s="3">
+        <v>33.501959837962964</v>
+      </c>
+      <c r="C159" s="3">
+        <v>33.501959837962964</v>
       </c>
       <c r="D159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159">
-        <v>287</v>
+        <v>512</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -6005,30 +6032,30 @@
         <v>14</v>
       </c>
       <c r="J159" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>10</v>
-      </c>
-      <c r="B160" s="2">
-        <v>33.500546990740737</v>
-      </c>
-      <c r="C160" s="2">
-        <v>36557.500546990741</v>
+        <v>129</v>
+      </c>
+      <c r="B160" s="3">
+        <v>33.501999884259263</v>
+      </c>
+      <c r="C160" s="3">
+        <v>33.501999884259263</v>
       </c>
       <c r="D160">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E160">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G160" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -6037,30 +6064,30 @@
         <v>14</v>
       </c>
       <c r="J160" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" s="2">
-        <v>33.500551157407408</v>
-      </c>
-      <c r="C161" s="2">
-        <v>36557.500551157405</v>
+        <v>129</v>
+      </c>
+      <c r="B161" s="3">
+        <v>33.502083449074071</v>
+      </c>
+      <c r="C161" s="3">
+        <v>33.502083449074071</v>
       </c>
       <c r="D161">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E161">
-        <v>134</v>
+        <v>389</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -6069,30 +6096,30 @@
         <v>14</v>
       </c>
       <c r="J161" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="2">
-        <v>33.50057291666667</v>
-      </c>
-      <c r="C162" s="2">
-        <v>36557.500572916666</v>
+        <v>129</v>
+      </c>
+      <c r="B162" s="3">
+        <v>33.502129976851855</v>
+      </c>
+      <c r="C162" s="3">
+        <v>33.502129976851855</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="F162" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -6101,30 +6128,30 @@
         <v>14</v>
       </c>
       <c r="J162" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" s="2">
-        <v>33.500594097222219</v>
-      </c>
-      <c r="C163" s="2">
-        <v>36557.500594097219</v>
+        <v>129</v>
+      </c>
+      <c r="B163" s="3">
+        <v>33.502315046296296</v>
+      </c>
+      <c r="C163" s="3">
+        <v>33.502315046296296</v>
       </c>
       <c r="D163">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E163">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G163" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6133,30 +6160,30 @@
         <v>14</v>
       </c>
       <c r="J163" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="B164" s="3">
-        <v>33.50090613425926</v>
+        <v>33.502557523148148</v>
       </c>
       <c r="C164" s="3">
-        <v>33.50090613425926</v>
+        <v>33.502557523148148</v>
       </c>
       <c r="D164">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>371</v>
+        <v>146</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6165,30 +6192,30 @@
         <v>14</v>
       </c>
       <c r="J164" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>61</v>
-      </c>
-      <c r="B165" s="3">
-        <v>33.500940509259259</v>
-      </c>
-      <c r="C165" s="3">
-        <v>33.500940509259259</v>
+        <v>10</v>
+      </c>
+      <c r="B165" s="2">
+        <v>33.50039537037037</v>
+      </c>
+      <c r="C165" s="2">
+        <v>36557.500395370371</v>
       </c>
       <c r="D165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6197,27 +6224,27 @@
         <v>14</v>
       </c>
       <c r="J165" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>61</v>
-      </c>
-      <c r="B166" t="s">
-        <v>149</v>
-      </c>
-      <c r="C166" s="3">
-        <v>33.500942129629628</v>
+        <v>10</v>
+      </c>
+      <c r="B166" s="2">
+        <v>33.500400810185184</v>
+      </c>
+      <c r="C166" s="2">
+        <v>36557.500400810182</v>
       </c>
       <c r="D166">
         <v>10</v>
       </c>
       <c r="E166">
-        <v>426</v>
+        <v>591</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G166" t="s">
         <v>132</v>
@@ -6229,30 +6256,30 @@
         <v>14</v>
       </c>
       <c r="J166" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>61</v>
-      </c>
-      <c r="B167" s="3">
-        <v>33.500945486111114</v>
-      </c>
-      <c r="C167" s="3">
-        <v>33.500945486111114</v>
+        <v>10</v>
+      </c>
+      <c r="B167" s="2">
+        <v>33.500427546296294</v>
+      </c>
+      <c r="C167" s="2">
+        <v>36557.5004275463</v>
       </c>
       <c r="D167">
         <v>11</v>
       </c>
       <c r="E167">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="F167" t="s">
         <v>22</v>
       </c>
       <c r="G167" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6261,30 +6288,30 @@
         <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>61</v>
-      </c>
-      <c r="B168" s="3">
-        <v>33.501006018518517</v>
-      </c>
-      <c r="C168" s="3">
-        <v>33.501006018518517</v>
+        <v>10</v>
+      </c>
+      <c r="B168" s="2">
+        <v>33.500437962962963</v>
+      </c>
+      <c r="C168" s="2">
+        <v>36557.500437962961</v>
       </c>
       <c r="D168">
         <v>10</v>
       </c>
       <c r="E168">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="F168" t="s">
         <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6293,30 +6320,30 @@
         <v>14</v>
       </c>
       <c r="J168" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>61</v>
-      </c>
-      <c r="B169" s="3">
-        <v>33.501010648148146</v>
-      </c>
-      <c r="C169" s="3">
-        <v>33.501010648148146</v>
+        <v>10</v>
+      </c>
+      <c r="B169" s="2">
+        <v>33.500441782407407</v>
+      </c>
+      <c r="C169" s="2">
+        <v>36557.500441782409</v>
       </c>
       <c r="D169">
         <v>11</v>
       </c>
       <c r="E169">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="F169" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6325,30 +6352,30 @@
         <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>61</v>
-      </c>
-      <c r="B170" s="3">
-        <v>33.501031481481483</v>
-      </c>
-      <c r="C170" s="3">
-        <v>33.501031481481483</v>
+        <v>10</v>
+      </c>
+      <c r="B170" s="2">
+        <v>33.500449305555556</v>
+      </c>
+      <c r="C170" s="2">
+        <v>36557.500449305553</v>
       </c>
       <c r="D170">
         <v>10</v>
       </c>
       <c r="E170">
-        <v>251</v>
+        <v>369</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -6357,30 +6384,30 @@
         <v>14</v>
       </c>
       <c r="J170" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>61</v>
-      </c>
-      <c r="B171" s="3">
-        <v>33.501119097222222</v>
-      </c>
-      <c r="C171" s="3">
-        <v>33.501119097222222</v>
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>142</v>
+      </c>
+      <c r="C171" s="2">
+        <v>36557.500456597219</v>
       </c>
       <c r="D171">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171">
-        <v>244</v>
+        <v>338</v>
       </c>
       <c r="F171" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6389,30 +6416,30 @@
         <v>14</v>
       </c>
       <c r="J171" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>61</v>
-      </c>
-      <c r="B172" s="3">
-        <v>33.501121759259256</v>
-      </c>
-      <c r="C172" s="3">
-        <v>33.501121759259256</v>
+        <v>10</v>
+      </c>
+      <c r="B172" s="2">
+        <v>33.500464930555559</v>
+      </c>
+      <c r="C172" s="2">
+        <v>36557.500464930556</v>
       </c>
       <c r="D172">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="F172" t="s">
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6421,30 +6448,30 @@
         <v>14</v>
       </c>
       <c r="J172" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>61</v>
-      </c>
-      <c r="B173" s="3">
-        <v>33.501210532407406</v>
-      </c>
-      <c r="C173" s="3">
-        <v>33.501210532407406</v>
+        <v>10</v>
+      </c>
+      <c r="B173" s="2">
+        <v>33.500486226851855</v>
+      </c>
+      <c r="C173" s="2">
+        <v>36557.500486226854</v>
       </c>
       <c r="D173">
         <v>9</v>
       </c>
       <c r="E173">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6453,30 +6480,30 @@
         <v>14</v>
       </c>
       <c r="J173" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>61</v>
-      </c>
-      <c r="B174" s="3">
-        <v>33.501293981481481</v>
-      </c>
-      <c r="C174" s="3">
-        <v>33.501293981481481</v>
+        <v>10</v>
+      </c>
+      <c r="B174" s="2">
+        <v>33.500504513888892</v>
+      </c>
+      <c r="C174" s="2">
+        <v>36557.50050451389</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6485,30 +6512,30 @@
         <v>14</v>
       </c>
       <c r="J174" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>61</v>
-      </c>
-      <c r="B175" s="3">
-        <v>33.501338888888888</v>
-      </c>
-      <c r="C175" s="3">
-        <v>33.501338888888888</v>
+        <v>10</v>
+      </c>
+      <c r="B175" s="2">
+        <v>33.500546990740737</v>
+      </c>
+      <c r="C175" s="2">
+        <v>36557.500546990741</v>
       </c>
       <c r="D175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E175">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="F175" t="s">
         <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -6517,30 +6544,30 @@
         <v>14</v>
       </c>
       <c r="J175" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>61</v>
-      </c>
-      <c r="B176" s="3">
-        <v>33.501492361111112</v>
-      </c>
-      <c r="C176" s="3">
-        <v>33.501492361111112</v>
+        <v>10</v>
+      </c>
+      <c r="B176" s="2">
+        <v>33.500551157407408</v>
+      </c>
+      <c r="C176" s="2">
+        <v>36557.500551157405</v>
       </c>
       <c r="D176">
         <v>8</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="F176" t="s">
         <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -6549,30 +6576,30 @@
         <v>14</v>
       </c>
       <c r="J176" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>82</v>
-      </c>
-      <c r="B177" s="3">
-        <v>33.501883796296298</v>
-      </c>
-      <c r="C177" s="3">
-        <v>33.501883796296298</v>
+        <v>10</v>
+      </c>
+      <c r="B177" s="2">
+        <v>33.50057291666667</v>
+      </c>
+      <c r="C177" s="2">
+        <v>36557.500572916666</v>
       </c>
       <c r="D177">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="F177" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -6581,30 +6608,30 @@
         <v>14</v>
       </c>
       <c r="J177" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>82</v>
-      </c>
-      <c r="B178" s="3">
-        <v>33.50206273148148</v>
-      </c>
-      <c r="C178" s="3">
-        <v>33.50206273148148</v>
+        <v>10</v>
+      </c>
+      <c r="B178" s="2">
+        <v>33.500594097222219</v>
+      </c>
+      <c r="C178" s="2">
+        <v>36557.500594097219</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E178">
-        <v>381</v>
+        <v>32</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -6613,30 +6640,30 @@
         <v>14</v>
       </c>
       <c r="J178" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B179" s="3">
-        <v>33.502118055555556</v>
+        <v>33.50090613425926</v>
       </c>
       <c r="C179" s="3">
-        <v>33.502118055555556</v>
+        <v>33.50090613425926</v>
       </c>
       <c r="D179">
         <v>11</v>
       </c>
       <c r="E179">
-        <v>184</v>
+        <v>371</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G179" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -6645,24 +6672,24 @@
         <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B180" s="3">
-        <v>33.502118865740741</v>
+        <v>33.500940509259259</v>
       </c>
       <c r="C180" s="3">
-        <v>33.502118865740741</v>
+        <v>33.500940509259259</v>
       </c>
       <c r="D180">
         <v>10</v>
       </c>
       <c r="E180">
-        <v>326</v>
+        <v>430</v>
       </c>
       <c r="F180" t="s">
         <v>11</v>
@@ -6682,25 +6709,25 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>82</v>
-      </c>
-      <c r="B181" s="3">
-        <v>33.502254050925927</v>
+        <v>61</v>
+      </c>
+      <c r="B181" t="s">
+        <v>160</v>
       </c>
       <c r="C181" s="3">
-        <v>33.502254050925927</v>
+        <v>33.500942129629628</v>
       </c>
       <c r="D181">
         <v>10</v>
       </c>
       <c r="E181">
-        <v>210</v>
+        <v>426</v>
       </c>
       <c r="F181" t="s">
         <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -6709,30 +6736,30 @@
         <v>14</v>
       </c>
       <c r="J181" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B182" s="3">
-        <v>33.502311689814817</v>
+        <v>33.500945486111114</v>
       </c>
       <c r="C182" s="3">
-        <v>33.502311689814817</v>
+        <v>33.500945486111114</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E182">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G182" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -6741,30 +6768,30 @@
         <v>14</v>
       </c>
       <c r="J182" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B183" s="3">
-        <v>33.502363310185189</v>
+        <v>33.501006018518517</v>
       </c>
       <c r="C183" s="3">
-        <v>33.502363310185189</v>
+        <v>33.501006018518517</v>
       </c>
       <c r="D183">
         <v>10</v>
       </c>
       <c r="E183">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="F183" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G183" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -6773,30 +6800,30 @@
         <v>14</v>
       </c>
       <c r="J183" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B184" s="3">
-        <v>33.502400578703707</v>
+        <v>33.501010648148146</v>
       </c>
       <c r="C184" s="3">
-        <v>33.502400578703707</v>
+        <v>33.501010648148146</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E184">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="F184" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -6805,30 +6832,30 @@
         <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B185" s="3">
-        <v>33.503997800925923</v>
+        <v>33.501031481481483</v>
       </c>
       <c r="C185" s="3">
-        <v>33.503997800925923</v>
+        <v>33.501031481481483</v>
       </c>
       <c r="D185">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185">
-        <v>390</v>
+        <v>251</v>
       </c>
       <c r="F185" t="s">
         <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -6837,30 +6864,30 @@
         <v>14</v>
       </c>
       <c r="J185" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B186" s="3">
-        <v>33.5041962962963</v>
+        <v>33.501119097222222</v>
       </c>
       <c r="C186" s="3">
-        <v>33.5041962962963</v>
+        <v>33.501119097222222</v>
       </c>
       <c r="D186">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="F186" t="s">
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -6869,30 +6896,30 @@
         <v>14</v>
       </c>
       <c r="J186" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="B187" s="3">
-        <v>33.504428703703702</v>
+        <v>33.501121759259256</v>
       </c>
       <c r="C187" s="3">
-        <v>33.504428703703702</v>
+        <v>33.501121759259256</v>
       </c>
       <c r="D187">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E187">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="F187" t="s">
         <v>22</v>
       </c>
       <c r="G187" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -6901,30 +6928,30 @@
         <v>14</v>
       </c>
       <c r="J187" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>101</v>
-      </c>
-      <c r="B188" s="2">
-        <v>33.500572453703704</v>
-      </c>
-      <c r="C188" s="2">
-        <v>36557.500572453704</v>
+        <v>61</v>
+      </c>
+      <c r="B188" s="3">
+        <v>33.501210532407406</v>
+      </c>
+      <c r="C188" s="3">
+        <v>33.501210532407406</v>
       </c>
       <c r="D188">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E188">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="F188" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -6933,30 +6960,30 @@
         <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>101</v>
-      </c>
-      <c r="B189" s="2">
-        <v>33.500599999999999</v>
-      </c>
-      <c r="C189" s="2">
-        <v>36557.500599999999</v>
+        <v>61</v>
+      </c>
+      <c r="B189" s="3">
+        <v>33.501293981481481</v>
+      </c>
+      <c r="C189" s="3">
+        <v>33.501293981481481</v>
       </c>
       <c r="D189">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="F189" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -6965,30 +6992,30 @@
         <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>101</v>
-      </c>
-      <c r="B190" s="2">
-        <v>33.500600347222225</v>
-      </c>
-      <c r="C190" s="2">
-        <v>36557.500600347223</v>
+        <v>61</v>
+      </c>
+      <c r="B190" s="3">
+        <v>33.501338888888888</v>
+      </c>
+      <c r="C190" s="3">
+        <v>33.501338888888888</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E190">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="F190" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -6997,30 +7024,30 @@
         <v>14</v>
       </c>
       <c r="J190" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>101</v>
-      </c>
-      <c r="B191" s="2">
-        <v>33.50062627314815</v>
-      </c>
-      <c r="C191" s="2">
-        <v>36557.500626273148</v>
+        <v>61</v>
+      </c>
+      <c r="B191" s="3">
+        <v>33.501492361111112</v>
+      </c>
+      <c r="C191" s="3">
+        <v>33.501492361111112</v>
       </c>
       <c r="D191">
         <v>8</v>
       </c>
       <c r="E191">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -7029,30 +7056,30 @@
         <v>14</v>
       </c>
       <c r="J191" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>101</v>
-      </c>
-      <c r="B192" s="2">
-        <v>33.50067974537037</v>
-      </c>
-      <c r="C192" s="2">
-        <v>36557.500679745368</v>
+        <v>84</v>
+      </c>
+      <c r="B192" s="3">
+        <v>33.501883796296298</v>
+      </c>
+      <c r="C192" s="3">
+        <v>33.501883796296298</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>57</v>
+        <v>428</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G192" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -7061,30 +7088,30 @@
         <v>14</v>
       </c>
       <c r="J192" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B193" s="3">
-        <v>33.50073009259259</v>
+        <v>33.50206273148148</v>
       </c>
       <c r="C193" s="3">
-        <v>33.50073009259259</v>
+        <v>33.50206273148148</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G193" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -7093,30 +7120,30 @@
         <v>14</v>
       </c>
       <c r="J193" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>106</v>
-      </c>
-      <c r="B194" s="2">
-        <v>33.500653240740739</v>
-      </c>
-      <c r="C194" s="2">
-        <v>36557.500653240742</v>
+        <v>84</v>
+      </c>
+      <c r="B194" s="3">
+        <v>33.502118055555556</v>
+      </c>
+      <c r="C194" s="3">
+        <v>33.502118055555556</v>
       </c>
       <c r="D194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F194" t="s">
         <v>22</v>
       </c>
       <c r="G194" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7125,30 +7152,30 @@
         <v>14</v>
       </c>
       <c r="J194" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>106</v>
-      </c>
-      <c r="B195" s="2">
-        <v>33.500658564814813</v>
-      </c>
-      <c r="C195" s="2">
-        <v>36557.500658564815</v>
+        <v>84</v>
+      </c>
+      <c r="B195" s="3">
+        <v>33.502118865740741</v>
+      </c>
+      <c r="C195" s="3">
+        <v>33.502118865740741</v>
       </c>
       <c r="D195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F195" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7157,30 +7184,30 @@
         <v>14</v>
       </c>
       <c r="J195" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>106</v>
-      </c>
-      <c r="B196" s="2">
-        <v>33.500660300925929</v>
-      </c>
-      <c r="C196" s="2">
-        <v>36557.500660300924</v>
+        <v>84</v>
+      </c>
+      <c r="B196" s="3">
+        <v>33.502254050925927</v>
+      </c>
+      <c r="C196" s="3">
+        <v>33.502254050925927</v>
       </c>
       <c r="D196">
         <v>10</v>
       </c>
       <c r="E196">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="F196" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G196" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="H196" t="s">
         <v>13</v>
@@ -7189,30 +7216,30 @@
         <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B197" s="3">
-        <v>33.500705208333336</v>
+        <v>33.502311689814817</v>
       </c>
       <c r="C197" s="3">
-        <v>33.500705208333336</v>
+        <v>33.502311689814817</v>
       </c>
       <c r="D197">
         <v>9</v>
       </c>
       <c r="E197">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -7221,27 +7248,27 @@
         <v>14</v>
       </c>
       <c r="J197" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B198" s="3">
-        <v>33.500705787037035</v>
+        <v>33.502363310185189</v>
       </c>
       <c r="C198" s="3">
-        <v>33.500705787037035</v>
+        <v>33.502363310185189</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="F198" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G198" t="s">
         <v>140</v>
@@ -7258,25 +7285,25 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B199" s="3">
-        <v>33.500836111111113</v>
+        <v>33.502400578703707</v>
       </c>
       <c r="C199" s="3">
-        <v>33.500836111111113</v>
+        <v>33.502400578703707</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G199" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
@@ -7285,30 +7312,30 @@
         <v>14</v>
       </c>
       <c r="J199" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="B200" s="3">
-        <v>33.500850694444445</v>
+        <v>33.503997800925923</v>
       </c>
       <c r="C200" s="3">
-        <v>33.500850694444445</v>
+        <v>33.503997800925923</v>
       </c>
       <c r="D200">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G200" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H200" t="s">
         <v>13</v>
@@ -7317,30 +7344,30 @@
         <v>14</v>
       </c>
       <c r="J200" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="B201" s="3">
-        <v>33.500869791666666</v>
+        <v>33.5041962962963</v>
       </c>
       <c r="C201" s="3">
-        <v>33.500869791666666</v>
+        <v>33.5041962962963</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G201" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
@@ -7349,30 +7376,30 @@
         <v>14</v>
       </c>
       <c r="J201" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="B202" s="3">
-        <v>33.500996527777779</v>
+        <v>33.504428703703702</v>
       </c>
       <c r="C202" s="3">
-        <v>33.500996527777779</v>
+        <v>33.504428703703702</v>
       </c>
       <c r="D202">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G202" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
@@ -7381,30 +7408,30 @@
         <v>14</v>
       </c>
       <c r="J202" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>107</v>
-      </c>
-      <c r="B203" s="3">
-        <v>33.501336226851855</v>
-      </c>
-      <c r="C203" s="3">
-        <v>33.501336226851855</v>
+        <v>106</v>
+      </c>
+      <c r="B203" s="2">
+        <v>33.500572453703704</v>
+      </c>
+      <c r="C203" s="2">
+        <v>36557.500572453704</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G203" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H203" t="s">
         <v>13</v>
@@ -7413,30 +7440,30 @@
         <v>14</v>
       </c>
       <c r="J203" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>107</v>
-      </c>
-      <c r="B204" s="3">
-        <v>33.501456018518518</v>
-      </c>
-      <c r="C204" s="3">
-        <v>33.501456018518518</v>
+        <v>106</v>
+      </c>
+      <c r="B204" s="2">
+        <v>33.500599999999999</v>
+      </c>
+      <c r="C204" s="2">
+        <v>36557.500599999999</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="F204" t="s">
         <v>22</v>
       </c>
       <c r="G204" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
@@ -7445,30 +7472,30 @@
         <v>14</v>
       </c>
       <c r="J204" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>107</v>
-      </c>
-      <c r="B205" s="3">
-        <v>33.501529861111109</v>
-      </c>
-      <c r="C205" s="3">
-        <v>33.501529861111109</v>
+        <v>106</v>
+      </c>
+      <c r="B205" s="2">
+        <v>33.500600347222225</v>
+      </c>
+      <c r="C205" s="2">
+        <v>36557.500600347223</v>
       </c>
       <c r="D205">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="F205" t="s">
         <v>22</v>
       </c>
       <c r="G205" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
@@ -7477,30 +7504,30 @@
         <v>14</v>
       </c>
       <c r="J205" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206" s="3">
-        <v>33.501553125000001</v>
-      </c>
-      <c r="C206" s="3">
-        <v>33.501553125000001</v>
+        <v>106</v>
+      </c>
+      <c r="B206" s="2">
+        <v>33.50062627314815</v>
+      </c>
+      <c r="C206" s="2">
+        <v>36557.500626273148</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E206">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F206" t="s">
         <v>22</v>
       </c>
       <c r="G206" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
@@ -7509,30 +7536,30 @@
         <v>14</v>
       </c>
       <c r="J206" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207" s="3">
-        <v>33.501586458333335</v>
-      </c>
-      <c r="C207" s="3">
-        <v>33.501586458333335</v>
+        <v>106</v>
+      </c>
+      <c r="B207" s="2">
+        <v>33.50067974537037</v>
+      </c>
+      <c r="C207" s="2">
+        <v>36557.500679745368</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="F207" t="s">
         <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
@@ -7546,25 +7573,25 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B208" s="3">
-        <v>33.501777314814817</v>
+        <v>33.50073009259259</v>
       </c>
       <c r="C208" s="3">
-        <v>33.501777314814817</v>
+        <v>33.50073009259259</v>
       </c>
       <c r="D208">
         <v>8</v>
       </c>
       <c r="E208">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F208" t="s">
         <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
@@ -7573,30 +7600,30 @@
         <v>14</v>
       </c>
       <c r="J208" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>168</v>
-      </c>
-      <c r="B209" s="3">
-        <v>33.503045601851852</v>
-      </c>
-      <c r="C209" s="3">
-        <v>33.503045601851852</v>
+        <v>111</v>
+      </c>
+      <c r="B209" s="2">
+        <v>33.500653240740739</v>
+      </c>
+      <c r="C209" s="2">
+        <v>36557.500653240742</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>87</v>
+        <v>182</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G209" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
@@ -7605,30 +7632,30 @@
         <v>14</v>
       </c>
       <c r="J209" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B210" s="2">
-        <v>33.50042199074074</v>
+        <v>33.500658564814813</v>
       </c>
       <c r="C210" s="2">
-        <v>36557.500421990742</v>
+        <v>36557.500658564815</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>546</v>
+        <v>332</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G210" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
@@ -7642,25 +7669,25 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B211" s="2">
-        <v>33.500444328703701</v>
+        <v>33.500660300925929</v>
       </c>
       <c r="C211" s="2">
-        <v>36557.500444328703</v>
+        <v>36557.500660300924</v>
       </c>
       <c r="D211">
         <v>10</v>
       </c>
       <c r="E211">
-        <v>580</v>
+        <v>164</v>
       </c>
       <c r="F211" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="G211" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
@@ -7669,30 +7696,30 @@
         <v>14</v>
       </c>
       <c r="J211" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212" s="2">
-        <v>33.500450578703706</v>
-      </c>
-      <c r="C212" s="2">
-        <v>36557.5004505787</v>
+        <v>111</v>
+      </c>
+      <c r="B212" s="3">
+        <v>33.500705208333336</v>
+      </c>
+      <c r="C212" s="3">
+        <v>33.500705208333336</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212">
-        <v>554</v>
+        <v>208</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G212" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
@@ -7701,27 +7728,27 @@
         <v>14</v>
       </c>
       <c r="J212" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213" s="2">
-        <v>33.500462384259258</v>
-      </c>
-      <c r="C213" s="2">
-        <v>36557.500462384261</v>
+        <v>111</v>
+      </c>
+      <c r="B213" s="3">
+        <v>33.500705787037035</v>
+      </c>
+      <c r="C213" s="3">
+        <v>33.500705787037035</v>
       </c>
       <c r="D213">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>368</v>
+        <v>207</v>
       </c>
       <c r="F213" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G213" t="s">
         <v>151</v>
@@ -7738,25 +7765,25 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>110</v>
-      </c>
-      <c r="B214" s="2">
-        <v>33.500462847222224</v>
-      </c>
-      <c r="C214" s="2">
-        <v>36557.500462847223</v>
+        <v>111</v>
+      </c>
+      <c r="B214" s="3">
+        <v>33.500836111111113</v>
+      </c>
+      <c r="C214" s="3">
+        <v>33.500836111111113</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E214">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="H214" t="s">
         <v>13</v>
@@ -7770,25 +7797,25 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>110</v>
-      </c>
-      <c r="B215" s="2">
-        <v>33.500479050925925</v>
-      </c>
-      <c r="C215" s="2">
-        <v>36557.500479050927</v>
+        <v>111</v>
+      </c>
+      <c r="B215" s="3">
+        <v>33.500850694444445</v>
+      </c>
+      <c r="C215" s="3">
+        <v>33.500850694444445</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>442</v>
+        <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="H215" t="s">
         <v>13</v>
@@ -7797,30 +7824,30 @@
         <v>14</v>
       </c>
       <c r="J215" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>110</v>
-      </c>
-      <c r="B216" s="2">
-        <v>33.500496180555558</v>
-      </c>
-      <c r="C216" s="2">
-        <v>36557.500496180553</v>
+        <v>111</v>
+      </c>
+      <c r="B216" s="3">
+        <v>33.500869791666666</v>
+      </c>
+      <c r="C216" s="3">
+        <v>33.500869791666666</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E216">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -7829,30 +7856,30 @@
         <v>14</v>
       </c>
       <c r="J216" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>110</v>
-      </c>
-      <c r="B217" s="2">
-        <v>33.50050949074074</v>
-      </c>
-      <c r="C217" s="2">
-        <v>36557.500509490739</v>
+        <v>111</v>
+      </c>
+      <c r="B217" s="3">
+        <v>33.500996527777779</v>
+      </c>
+      <c r="C217" s="3">
+        <v>33.500996527777779</v>
       </c>
       <c r="D217">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E217">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="F217" t="s">
         <v>43</v>
       </c>
       <c r="G217" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="H217" t="s">
         <v>13</v>
@@ -7861,30 +7888,30 @@
         <v>14</v>
       </c>
       <c r="J217" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>110</v>
-      </c>
-      <c r="B218" s="2">
-        <v>33.500537847222219</v>
-      </c>
-      <c r="C218" s="2">
-        <v>36557.50053784722</v>
+        <v>113</v>
+      </c>
+      <c r="B218" s="3">
+        <v>33.501336226851855</v>
+      </c>
+      <c r="C218" s="3">
+        <v>33.501336226851855</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E218">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="G218" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="H218" t="s">
         <v>13</v>
@@ -7893,30 +7920,30 @@
         <v>14</v>
       </c>
       <c r="J218" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>110</v>
-      </c>
-      <c r="B219" s="2">
-        <v>33.500539351851849</v>
-      </c>
-      <c r="C219" s="2">
-        <v>36557.500539351851</v>
+        <v>113</v>
+      </c>
+      <c r="B219" s="3">
+        <v>33.501456018518518</v>
+      </c>
+      <c r="C219" s="3">
+        <v>33.501456018518518</v>
       </c>
       <c r="D219">
         <v>10</v>
       </c>
       <c r="E219">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="F219" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G219" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="H219" t="s">
         <v>13</v>
@@ -7925,30 +7952,30 @@
         <v>14</v>
       </c>
       <c r="J219" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>110</v>
-      </c>
-      <c r="B220" s="2">
-        <v>33.50057291666667</v>
-      </c>
-      <c r="C220" s="2">
-        <v>36557.500572916666</v>
+        <v>113</v>
+      </c>
+      <c r="B220" s="3">
+        <v>33.501529861111109</v>
+      </c>
+      <c r="C220" s="3">
+        <v>33.501529861111109</v>
       </c>
       <c r="D220">
         <v>9</v>
       </c>
       <c r="E220">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="F220" t="s">
         <v>22</v>
       </c>
       <c r="G220" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="H220" t="s">
         <v>13</v>
@@ -7957,30 +7984,30 @@
         <v>14</v>
       </c>
       <c r="J220" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>110</v>
-      </c>
-      <c r="B221" s="2">
-        <v>33.500630208333334</v>
-      </c>
-      <c r="C221" s="2">
-        <v>36557.500630208335</v>
+        <v>113</v>
+      </c>
+      <c r="B221" s="3">
+        <v>33.501553125000001</v>
+      </c>
+      <c r="C221" s="3">
+        <v>33.501553125000001</v>
       </c>
       <c r="D221">
         <v>9</v>
       </c>
       <c r="E221">
-        <v>123</v>
+        <v>198</v>
       </c>
       <c r="F221" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G221" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H221" t="s">
         <v>13</v>
@@ -7989,30 +8016,30 @@
         <v>14</v>
       </c>
       <c r="J221" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>110</v>
-      </c>
-      <c r="B222" s="2">
-        <v>33.50065011574074</v>
-      </c>
-      <c r="C222" s="2">
-        <v>36557.50065011574</v>
+        <v>113</v>
+      </c>
+      <c r="B222" s="3">
+        <v>33.501586458333335</v>
+      </c>
+      <c r="C222" s="3">
+        <v>33.501586458333335</v>
       </c>
       <c r="D222">
         <v>9</v>
       </c>
       <c r="E222">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="F222" t="s">
         <v>43</v>
       </c>
       <c r="G222" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
@@ -8021,30 +8048,30 @@
         <v>14</v>
       </c>
       <c r="J222" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>110</v>
-      </c>
-      <c r="B223" s="2">
-        <v>33.500664004629627</v>
-      </c>
-      <c r="C223" s="2">
-        <v>36557.500664004627</v>
+        <v>113</v>
+      </c>
+      <c r="B223" s="3">
+        <v>33.501777314814817</v>
+      </c>
+      <c r="C223" s="3">
+        <v>33.501777314814817</v>
       </c>
       <c r="D223">
         <v>8</v>
       </c>
       <c r="E223">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F223" t="s">
         <v>43</v>
       </c>
       <c r="G223" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H223" t="s">
         <v>13</v>
@@ -8053,30 +8080,30 @@
         <v>14</v>
       </c>
       <c r="J223" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B224" s="3">
-        <v>33.500726620370372</v>
+        <v>33.503045601851852</v>
       </c>
       <c r="C224" s="3">
-        <v>33.500726620370372</v>
+        <v>33.503045601851852</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="F224" t="s">
         <v>43</v>
       </c>
       <c r="G224" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H224" t="s">
         <v>13</v>
@@ -8085,30 +8112,30 @@
         <v>14</v>
       </c>
       <c r="J224" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>110</v>
-      </c>
-      <c r="B225" s="3">
-        <v>33.500797569444444</v>
-      </c>
-      <c r="C225" s="3">
-        <v>33.500797569444444</v>
+        <v>118</v>
+      </c>
+      <c r="B225" s="2">
+        <v>33.500418055555556</v>
+      </c>
+      <c r="C225" s="2">
+        <v>36557.500418055555</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>565</v>
       </c>
       <c r="F225" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G225" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="H225" t="s">
         <v>13</v>
@@ -8117,30 +8144,30 @@
         <v>14</v>
       </c>
       <c r="J225" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>112</v>
-      </c>
-      <c r="B226" s="3">
-        <v>33.500989930555555</v>
-      </c>
-      <c r="C226" s="3">
-        <v>33.500989930555555</v>
+        <v>118</v>
+      </c>
+      <c r="B226" s="2">
+        <v>33.50042199074074</v>
+      </c>
+      <c r="C226" s="2">
+        <v>36557.500421990742</v>
       </c>
       <c r="D226">
         <v>11</v>
       </c>
       <c r="E226">
-        <v>465</v>
+        <v>546</v>
       </c>
       <c r="F226" t="s">
         <v>11</v>
       </c>
       <c r="G226" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H226" t="s">
         <v>13</v>
@@ -8149,27 +8176,27 @@
         <v>14</v>
       </c>
       <c r="J226" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>112</v>
-      </c>
-      <c r="B227" s="3">
-        <v>33.501150925925927</v>
-      </c>
-      <c r="C227" s="3">
-        <v>33.501150925925927</v>
+        <v>118</v>
+      </c>
+      <c r="B227" s="2">
+        <v>33.500444328703701</v>
+      </c>
+      <c r="C227" s="2">
+        <v>36557.500444328703</v>
       </c>
       <c r="D227">
         <v>10</v>
       </c>
       <c r="E227">
-        <v>351</v>
+        <v>580</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="G227" t="s">
         <v>132</v>
@@ -8181,30 +8208,30 @@
         <v>14</v>
       </c>
       <c r="J227" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>112</v>
-      </c>
-      <c r="B228" s="3">
-        <v>33.501208333333331</v>
-      </c>
-      <c r="C228" s="3">
-        <v>33.501208333333331</v>
+        <v>118</v>
+      </c>
+      <c r="B228" s="2">
+        <v>33.500450578703706</v>
+      </c>
+      <c r="C228" s="2">
+        <v>36557.5004505787</v>
       </c>
       <c r="D228">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E228">
-        <v>108</v>
+        <v>554</v>
       </c>
       <c r="F228" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G228" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="H228" t="s">
         <v>13</v>
@@ -8213,27 +8240,27 @@
         <v>14</v>
       </c>
       <c r="J228" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>112</v>
-      </c>
-      <c r="B229" s="3">
-        <v>33.501263078703701</v>
-      </c>
-      <c r="C229" s="3">
-        <v>33.501263078703701</v>
+        <v>118</v>
+      </c>
+      <c r="B229" s="2">
+        <v>33.500462384259258</v>
+      </c>
+      <c r="C229" s="2">
+        <v>36557.500462384261</v>
       </c>
       <c r="D229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E229">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="F229" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G229" t="s">
         <v>162</v>
@@ -8250,22 +8277,22 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>112</v>
-      </c>
-      <c r="B230" s="3">
-        <v>33.501271643518521</v>
-      </c>
-      <c r="C230" s="3">
-        <v>33.501271643518521</v>
+        <v>118</v>
+      </c>
+      <c r="B230" s="2">
+        <v>33.500462847222224</v>
+      </c>
+      <c r="C230" s="2">
+        <v>36557.500462847223</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="F230" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G230" t="s">
         <v>138</v>
@@ -8277,30 +8304,30 @@
         <v>14</v>
       </c>
       <c r="J230" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>112</v>
-      </c>
-      <c r="B231" s="3">
-        <v>33.50130300925926</v>
-      </c>
-      <c r="C231" s="3">
-        <v>33.50130300925926</v>
+        <v>118</v>
+      </c>
+      <c r="B231" s="2">
+        <v>33.500479050925925</v>
+      </c>
+      <c r="C231" s="2">
+        <v>36557.500479050927</v>
       </c>
       <c r="D231">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E231">
-        <v>13</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G231" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="H231" t="s">
         <v>13</v>
@@ -8309,30 +8336,30 @@
         <v>14</v>
       </c>
       <c r="J231" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>112</v>
-      </c>
-      <c r="B232" s="3">
-        <v>33.501335069444444</v>
-      </c>
-      <c r="C232" s="3">
-        <v>33.501335069444444</v>
+        <v>118</v>
+      </c>
+      <c r="B232" s="2">
+        <v>33.500496180555558</v>
+      </c>
+      <c r="C232" s="2">
+        <v>36557.500496180553</v>
       </c>
       <c r="D232">
         <v>10</v>
       </c>
       <c r="E232">
-        <v>120</v>
+        <v>380</v>
       </c>
       <c r="F232" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G232" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H232" t="s">
         <v>13</v>
@@ -8341,30 +8368,30 @@
         <v>14</v>
       </c>
       <c r="J232" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>112</v>
-      </c>
-      <c r="B233" s="3">
-        <v>33.501365277777779</v>
-      </c>
-      <c r="C233" s="3">
-        <v>33.501365277777779</v>
+        <v>118</v>
+      </c>
+      <c r="B233" s="2">
+        <v>33.50050949074074</v>
+      </c>
+      <c r="C233" s="2">
+        <v>36557.500509490739</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E233">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F233" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G233" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H233" t="s">
         <v>13</v>
@@ -8373,30 +8400,30 @@
         <v>14</v>
       </c>
       <c r="J233" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>171</v>
-      </c>
-      <c r="B234" s="3">
-        <v>33.502757523148148</v>
-      </c>
-      <c r="C234" s="3">
-        <v>33.502757523148148</v>
+        <v>118</v>
+      </c>
+      <c r="B234" s="2">
+        <v>33.500537847222219</v>
+      </c>
+      <c r="C234" s="2">
+        <v>36557.50053784722</v>
       </c>
       <c r="D234">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G234" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="H234" t="s">
         <v>13</v>
@@ -8405,30 +8432,30 @@
         <v>14</v>
       </c>
       <c r="J234" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>118</v>
       </c>
-      <c r="B235" s="3">
-        <v>33.502396643518516</v>
-      </c>
-      <c r="C235" s="3">
-        <v>33.502396643518516</v>
+      <c r="B235" s="2">
+        <v>33.500539351851849</v>
+      </c>
+      <c r="C235" s="2">
+        <v>36557.500539351851</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="G235" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="H235" t="s">
         <v>13</v>
@@ -8437,30 +8464,30 @@
         <v>14</v>
       </c>
       <c r="J235" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>118</v>
       </c>
-      <c r="B236" s="3">
-        <v>33.502490972222219</v>
-      </c>
-      <c r="C236" s="3">
-        <v>33.502490972222219</v>
+      <c r="B236" s="2">
+        <v>33.50057291666667</v>
+      </c>
+      <c r="C236" s="2">
+        <v>36557.500572916666</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E236">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="F236" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G236" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="H236" t="s">
         <v>13</v>
@@ -8469,39 +8496,583 @@
         <v>14</v>
       </c>
       <c r="J236" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>118</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
+        <v>33.500630208333334</v>
+      </c>
+      <c r="C237" s="2">
+        <v>36557.500630208335</v>
+      </c>
+      <c r="D237">
+        <v>9</v>
+      </c>
+      <c r="E237">
+        <v>123</v>
+      </c>
+      <c r="F237" t="s">
+        <v>43</v>
+      </c>
+      <c r="G237" t="s">
+        <v>147</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>118</v>
+      </c>
+      <c r="B238" s="2">
+        <v>33.50065011574074</v>
+      </c>
+      <c r="C238" s="2">
+        <v>36557.50065011574</v>
+      </c>
+      <c r="D238">
+        <v>9</v>
+      </c>
+      <c r="E238">
+        <v>84</v>
+      </c>
+      <c r="F238" t="s">
+        <v>43</v>
+      </c>
+      <c r="G238" t="s">
+        <v>151</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+      <c r="I238" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>118</v>
+      </c>
+      <c r="B239" s="2">
+        <v>33.500664004629627</v>
+      </c>
+      <c r="C239" s="2">
+        <v>36557.500664004627</v>
+      </c>
+      <c r="D239">
+        <v>8</v>
+      </c>
+      <c r="E239">
+        <v>60</v>
+      </c>
+      <c r="F239" t="s">
+        <v>43</v>
+      </c>
+      <c r="G239" t="s">
+        <v>153</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>118</v>
+      </c>
+      <c r="B240" s="3">
+        <v>33.500726620370372</v>
+      </c>
+      <c r="C240" s="3">
+        <v>33.500726620370372</v>
+      </c>
+      <c r="D240">
+        <v>8</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>43</v>
+      </c>
+      <c r="G240" t="s">
+        <v>155</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>118</v>
+      </c>
+      <c r="B241" s="3">
+        <v>33.500797569444444</v>
+      </c>
+      <c r="C241" s="3">
+        <v>33.500797569444444</v>
+      </c>
+      <c r="D241">
+        <v>8</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="s">
+        <v>43</v>
+      </c>
+      <c r="G241" t="s">
+        <v>157</v>
+      </c>
+      <c r="H241" t="s">
+        <v>13</v>
+      </c>
+      <c r="I241" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>120</v>
+      </c>
+      <c r="B242" s="3">
+        <v>33.500989930555555</v>
+      </c>
+      <c r="C242" s="3">
+        <v>33.500989930555555</v>
+      </c>
+      <c r="D242">
+        <v>11</v>
+      </c>
+      <c r="E242">
+        <v>465</v>
+      </c>
+      <c r="F242" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242" t="s">
+        <v>130</v>
+      </c>
+      <c r="H242" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>120</v>
+      </c>
+      <c r="B243" s="3">
+        <v>33.501009027777776</v>
+      </c>
+      <c r="C243" s="3">
+        <v>33.501009027777776</v>
+      </c>
+      <c r="D243">
+        <v>11</v>
+      </c>
+      <c r="E243">
+        <v>428</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
+      <c r="H243" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>120</v>
+      </c>
+      <c r="B244" s="3">
+        <v>33.501150925925927</v>
+      </c>
+      <c r="C244" s="3">
+        <v>33.501150925925927</v>
+      </c>
+      <c r="D244">
+        <v>10</v>
+      </c>
+      <c r="E244">
+        <v>351</v>
+      </c>
+      <c r="F244" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244" t="s">
+        <v>143</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>120</v>
+      </c>
+      <c r="B245" s="3">
+        <v>33.501208333333331</v>
+      </c>
+      <c r="C245" s="3">
+        <v>33.501208333333331</v>
+      </c>
+      <c r="D245">
+        <v>11</v>
+      </c>
+      <c r="E245">
+        <v>108</v>
+      </c>
+      <c r="F245" t="s">
+        <v>43</v>
+      </c>
+      <c r="G245" t="s">
+        <v>138</v>
+      </c>
+      <c r="H245" t="s">
+        <v>13</v>
+      </c>
+      <c r="I245" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>120</v>
+      </c>
+      <c r="B246" s="3">
+        <v>33.501263078703701</v>
+      </c>
+      <c r="C246" s="3">
+        <v>33.501263078703701</v>
+      </c>
+      <c r="D246">
+        <v>10</v>
+      </c>
+      <c r="E246">
+        <v>199</v>
+      </c>
+      <c r="F246" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" t="s">
+        <v>173</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>120</v>
+      </c>
+      <c r="B247" s="3">
+        <v>33.501271643518521</v>
+      </c>
+      <c r="C247" s="3">
+        <v>33.501271643518521</v>
+      </c>
+      <c r="D247">
+        <v>9</v>
+      </c>
+      <c r="E247">
+        <v>339</v>
+      </c>
+      <c r="F247" t="s">
+        <v>11</v>
+      </c>
+      <c r="G247" t="s">
+        <v>149</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>120</v>
+      </c>
+      <c r="B248" s="3">
+        <v>33.50130300925926</v>
+      </c>
+      <c r="C248" s="3">
+        <v>33.50130300925926</v>
+      </c>
+      <c r="D248">
+        <v>11</v>
+      </c>
+      <c r="E248">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>43</v>
+      </c>
+      <c r="G248" t="s">
+        <v>134</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>120</v>
+      </c>
+      <c r="B249" s="3">
+        <v>33.501335069444444</v>
+      </c>
+      <c r="C249" s="3">
+        <v>33.501335069444444</v>
+      </c>
+      <c r="D249">
+        <v>10</v>
+      </c>
+      <c r="E249">
+        <v>120</v>
+      </c>
+      <c r="F249" t="s">
+        <v>22</v>
+      </c>
+      <c r="G249" t="s">
+        <v>140</v>
+      </c>
+      <c r="H249" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>120</v>
+      </c>
+      <c r="B250" s="3">
+        <v>33.501365277777779</v>
+      </c>
+      <c r="C250" s="3">
+        <v>33.501365277777779</v>
+      </c>
+      <c r="D250">
+        <v>9</v>
+      </c>
+      <c r="E250">
+        <v>223</v>
+      </c>
+      <c r="F250" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" t="s">
+        <v>147</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>124</v>
+      </c>
+      <c r="B251" s="3">
+        <v>33.502757523148148</v>
+      </c>
+      <c r="C251" s="3">
+        <v>33.502757523148148</v>
+      </c>
+      <c r="D251">
+        <v>11</v>
+      </c>
+      <c r="E251">
+        <v>136</v>
+      </c>
+      <c r="F251" t="s">
+        <v>43</v>
+      </c>
+      <c r="G251" t="s">
+        <v>134</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>129</v>
+      </c>
+      <c r="B252" s="3">
+        <v>33.502396643518516</v>
+      </c>
+      <c r="C252" s="3">
+        <v>33.502396643518516</v>
+      </c>
+      <c r="D252">
+        <v>11</v>
+      </c>
+      <c r="E252">
+        <v>234</v>
+      </c>
+      <c r="F252" t="s">
+        <v>43</v>
+      </c>
+      <c r="G252" t="s">
+        <v>134</v>
+      </c>
+      <c r="H252" t="s">
+        <v>13</v>
+      </c>
+      <c r="I252" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>129</v>
+      </c>
+      <c r="B253" s="3">
+        <v>33.502490972222219</v>
+      </c>
+      <c r="C253" s="3">
+        <v>33.502490972222219</v>
+      </c>
+      <c r="D253">
+        <v>10</v>
+      </c>
+      <c r="E253">
+        <v>305</v>
+      </c>
+      <c r="F253" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" t="s">
+        <v>143</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>129</v>
+      </c>
+      <c r="B254" s="3">
         <v>33.502669791666669</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C254" s="3">
         <v>33.502669791666669</v>
       </c>
-      <c r="D237">
-        <v>10</v>
-      </c>
-      <c r="E237">
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254">
         <v>181</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F254" t="s">
         <v>22</v>
       </c>
-      <c r="G237" t="s">
-        <v>162</v>
-      </c>
-      <c r="H237" t="s">
-        <v>13</v>
-      </c>
-      <c r="I237" t="s">
-        <v>14</v>
-      </c>
-      <c r="J237" t="s">
-        <v>167</v>
+      <c r="G254" t="s">
+        <v>173</v>
+      </c>
+      <c r="H254" t="s">
+        <v>13</v>
+      </c>
+      <c r="I254" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
